--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\War3Map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -264,9 +269,6 @@
     <t>资料设定：</t>
   </si>
   <si>
-    <t>数值参考亿万僵尸（那个图没有氪金的话 数值还算比较优秀的）</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -757,19 +759,17 @@
   </si>
   <si>
     <t>玩家科技树(待补充)</t>
+  </si>
+  <si>
+    <t>数值参考</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,156 +830,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,7 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,186 +874,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1199,255 +893,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,74 +999,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
-      <color rgb="00338FBD"/>
+      <color rgb="FF338FBD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1634,7 +1111,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1654,15 +1131,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>321945</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>305435</xdr:rowOff>
+      <xdr:rowOff>200660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2063750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:colOff>1882775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>207010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,14 +1149,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7684770" y="305435"/>
+          <a:off x="7503795" y="200660"/>
           <a:ext cx="6361430" cy="4435475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1708,7 +1185,7 @@
           <xdr:row>104</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1719,14 +1196,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="0" y="12922250"/>
-              <a:ext cx="7343775" cy="10668000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1755,7 +1243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1787,7 +1275,7 @@
           <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1798,14 +1286,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7696200" y="17484725"/>
-              <a:ext cx="6800850" cy="5400675"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1817,7 +1316,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1833,7 +1332,7 @@
           <xdr:row>63</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Object 1" hidden="1">
               <a:extLst>
@@ -1844,14 +1343,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="9525" y="276225"/>
-              <a:ext cx="7343775" cy="10668000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2114,16 +1624,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2133,12 +1643,12 @@
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
+    <row r="1" spans="1:1" ht="31.5">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:1">
+    <row r="2" spans="1:1" ht="18">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2153,17 +1663,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customHeight="1" spans="1:1">
+    <row r="6" spans="1:1" ht="21.75" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="32.25" customHeight="1" spans="1:1">
+    <row r="7" spans="1:1" ht="32.25" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="21.75" customHeight="1" spans="1:1">
+    <row r="8" spans="1:1" ht="38.25" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2178,10 +1688,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:1">
+    <row r="11" spans="1:1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" ht="18" spans="1:1">
+    <row r="12" spans="1:1" ht="18">
       <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
@@ -2206,68 +1716,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="27" spans="1:1">
+    <row r="17" spans="1:9" ht="27">
       <c r="A17" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:1">
+    <row r="18" spans="1:9">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" customFormat="1" spans="1:1">
+    <row r="19" spans="1:9">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" ht="18" spans="1:1">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:1">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:8">
+    <row r="23" spans="1:9" ht="27">
       <c r="A23" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" ht="27" spans="1:8">
+    <row r="24" spans="1:9" ht="27">
       <c r="A24" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:9">
       <c r="A27" s="25"/>
     </row>
-    <row r="28" customFormat="1" ht="64" customHeight="1" spans="1:1">
+    <row r="28" spans="1:9" ht="63.95" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="40.5" spans="1:1">
+    <row r="29" spans="1:9" ht="40.5">
       <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="52" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="51.95" customHeight="1">
       <c r="A30" s="28" t="s">
         <v>24</v>
       </c>
@@ -2275,63 +1785,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="51" customHeight="1" spans="1:1">
+    <row r="31" spans="1:9" ht="51" customHeight="1">
       <c r="A31" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>-4</v>
       </c>
     </row>
-    <row r="33" ht="67.5" spans="1:1">
+    <row r="33" spans="1:8" ht="67.5">
       <c r="A33" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:1">
+    <row r="34" spans="1:8" ht="27">
       <c r="A34" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:8">
       <c r="A35" s="29"/>
     </row>
-    <row r="36" ht="67.5" spans="1:1">
+    <row r="36" spans="1:8" ht="67.5">
       <c r="A36" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:1">
+    <row r="37" spans="1:8" ht="27">
       <c r="A37" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:8">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:8">
       <c r="A39" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" ht="67.5" spans="1:1">
+    <row r="40" spans="1:8" ht="67.5">
       <c r="A40" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="18" customFormat="1" spans="1:1">
+    <row r="42" spans="1:8" s="18" customFormat="1">
       <c r="A42" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" spans="8:8">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="H44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:1">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="30"/>
     </row>
     <row r="67" spans="5:5">
@@ -2344,7 +1854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" ht="39" customHeight="1" spans="1:1">
+    <row r="107" spans="1:1" ht="39" customHeight="1">
       <c r="A107" s="21" t="s">
         <v>37</v>
       </c>
@@ -2360,16 +1870,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2388,13 +1898,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -2413,7 +1923,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2421,8 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2434,21 +1943,21 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:1">
+    <row r="1" spans="1:1" ht="22.5">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2467,7 +1976,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2475,12 +1984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2497,7 +2005,7 @@
     <col min="13" max="13" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
+    <row r="1" spans="1:13" ht="22.5">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2516,7 +2024,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2533,48 +2041,48 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
-      <c r="A4" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2591,22 +2099,22 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
@@ -2624,22 +2132,22 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4">
         <v>85</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
@@ -2657,22 +2165,22 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4">
         <v>450</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
@@ -2690,22 +2198,22 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4">
         <v>360</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2719,22 +2227,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <v>200</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
@@ -2752,22 +2260,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4">
         <v>850</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
@@ -2785,22 +2293,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <v>240</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
@@ -2811,7 +2319,7 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="4">
         <v>2.5</v>
@@ -2820,22 +2328,22 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4">
         <v>4500</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
@@ -2853,22 +2361,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <v>7000</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
@@ -2886,22 +2394,22 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4">
         <v>6000</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
@@ -2919,22 +2427,22 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4">
         <v>3500</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
@@ -2952,22 +2460,22 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4">
         <v>4500</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
@@ -2978,7 +2486,7 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" s="4">
         <v>4.5</v>
@@ -2987,22 +2495,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4">
         <v>1865</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
@@ -3013,7 +2521,7 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="4">
         <v>4.5</v>
@@ -3022,22 +2530,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="4">
         <v>6750</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4">
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
@@ -3048,7 +2556,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18" s="4">
         <v>5</v>
@@ -3057,22 +2565,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="4">
         <v>50000</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="4">
         <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
@@ -3087,12 +2595,12 @@
         <v>6</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1">
+      <c r="A20" s="10" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:13">
-      <c r="A20" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3109,19 +2617,19 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4">
         <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F21" s="4">
         <v>550</v>
@@ -3144,19 +2652,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4">
         <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4">
         <v>600</v>
@@ -3179,19 +2687,19 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4">
         <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F23" s="4">
         <v>1200</v>
@@ -3207,7 +2715,7 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23" s="4">
         <v>1.5</v>
@@ -3216,19 +2724,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="4">
         <v>550</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4">
         <v>300</v>
@@ -3237,7 +2745,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="4">
         <v>200</v>
@@ -3251,19 +2759,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4">
         <v>250</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="F25" s="4">
         <v>900</v>
@@ -3272,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I25" s="4">
         <v>150</v>
@@ -3286,19 +2794,19 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="4">
         <v>1200</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4">
         <v>650</v>
@@ -3321,22 +2829,22 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="4">
         <v>1050</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="4">
         <v>20</v>
@@ -3349,7 +2857,7 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L27" s="4">
         <v>3</v>
@@ -3358,19 +2866,19 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="4">
         <v>750</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="4">
         <v>650</v>
@@ -3385,10 +2893,10 @@
         <v>200</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="L28" s="4">
         <v>3</v>
@@ -3397,22 +2905,22 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="4">
         <v>2350</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="4">
         <v>25</v>
@@ -3424,7 +2932,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4">
@@ -3432,27 +2940,27 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="31" customFormat="1" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="4">
         <v>1200</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="4">
         <v>3</v>
@@ -3466,25 +2974,25 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4">
         <v>1200</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -3493,48 +3001,48 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L32" s="4">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="4">
         <v>1200</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33" s="4">
         <v>4</v>
@@ -3542,25 +3050,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="4">
         <v>1200</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -3569,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L34" s="4">
         <v>4</v>
@@ -3580,25 +3088,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="4">
         <v>1200</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -3607,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" s="4">
         <v>4</v>
@@ -3618,88 +3126,88 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="4">
         <v>1500</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L36" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="12:12">
+    <row r="37" spans="1:12">
       <c r="L37" s="4"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:1">
+    <row r="49" spans="1:11" s="2" customFormat="1">
       <c r="A49" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="14" t="s">
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="33" t="s">
         <v>146</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -3718,11 +3226,11 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="B52" s="33"/>
       <c r="C52" s="4">
         <v>2</v>
       </c>
@@ -3740,14 +3248,14 @@
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="B53" s="33"/>
       <c r="C53" s="4">
         <v>3</v>
       </c>
@@ -3759,17 +3267,17 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="4">
         <v>4</v>
       </c>
@@ -3782,15 +3290,15 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -3810,9 +3318,9 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -3828,12 +3336,12 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -3848,9 +3356,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -3861,15 +3369,15 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -3890,18 +3398,18 @@
         <v>0</v>
       </c>
       <c r="J59" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4" t="s">
+      <c r="B60" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -3916,13 +3424,13 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -3937,16 +3445,16 @@
         <v>850</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -3961,15 +3469,15 @@
         <v>1350</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="C63" s="4">
         <v>-2</v>
@@ -3987,9 +3495,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C64" s="4">
         <v>-5</v>
@@ -4001,15 +3509,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C65" s="4">
         <v>-8</v>
@@ -4021,15 +3529,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C66" s="4">
         <v>-2</v>
@@ -4041,9 +3549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4">
         <v>-2</v>
@@ -4055,12 +3563,12 @@
         <v>0</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="4">
         <v>-2</v>
@@ -4072,12 +3580,12 @@
         <v>0</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" s="4">
         <v>-5</v>
@@ -4095,18 +3603,18 @@
         <v>300</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I69" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="4">
         <v>-5</v>
@@ -4124,18 +3632,18 @@
         <v>300</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="B71" s="16"/>
       <c r="D71" s="4">
@@ -4148,12 +3656,12 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="16"/>
       <c r="D72" s="4">
@@ -4166,12 +3674,12 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -4187,9 +3695,9 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="4">
         <v>6</v>
@@ -4200,15 +3708,15 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:9">
-      <c r="A75" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D75" s="4">
         <v>7</v>
@@ -4217,15 +3725,15 @@
         <v>0</v>
       </c>
       <c r="H75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:9">
-      <c r="A76" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D76" s="4">
         <v>8</v>
@@ -4234,15 +3742,15 @@
         <v>0</v>
       </c>
       <c r="H76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D77" s="4">
         <v>6</v>
@@ -4251,15 +3759,15 @@
         <v>0</v>
       </c>
       <c r="H77" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:9">
-      <c r="A78" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D78" s="4">
         <v>7</v>
@@ -4268,15 +3776,15 @@
         <v>0</v>
       </c>
       <c r="H78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:9">
-      <c r="A79" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D79" s="4">
         <v>8</v>
@@ -4285,15 +3793,15 @@
         <v>0</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D80" s="4">
         <v>6</v>
@@ -4302,15 +3810,15 @@
         <v>0</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="4">
         <v>7</v>
@@ -4319,15 +3827,15 @@
         <v>0</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D82" s="4">
         <v>8</v>
@@ -4336,15 +3844,15 @@
         <v>0</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" s="4">
         <v>9</v>
@@ -4353,15 +3861,15 @@
         <v>0</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D84" s="4">
         <v>10</v>
@@ -4370,18 +3878,18 @@
         <v>0</v>
       </c>
       <c r="H84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="I85" s="4"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="4"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="13" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +3897,8 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B60:B62"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\War3Map\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8085"/>
+    <workbookView windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="210">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -172,6 +167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6、</t>
     </r>
     <r>
@@ -269,6 +271,9 @@
     <t>资料设定：</t>
   </si>
   <si>
+    <t>数值参考</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -584,6 +589,9 @@
     <t>4种建筑数量不能加起来150个</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>民房Lv2</t>
   </si>
   <si>
@@ -605,6 +613,9 @@
     <t>渔场Lv2</t>
   </si>
   <si>
+    <t>渔场Lv3</t>
+  </si>
+  <si>
     <t>农场lv1</t>
   </si>
   <si>
@@ -614,6 +625,9 @@
     <t>高级农场</t>
   </si>
   <si>
+    <t>农场lv3</t>
+  </si>
+  <si>
     <t>主城</t>
   </si>
   <si>
@@ -759,17 +773,19 @@
   </si>
   <si>
     <t>玩家科技树(待补充)</t>
-  </si>
-  <si>
-    <t>数值参考</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,18 +846,156 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,7 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,8 +1038,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -893,13 +1227,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,99 +1575,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FF338FBD"/>
+      <color rgb="00338FBD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1111,15 +1662,15 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="5956300"/>
-          <a:ext cx="4552950" cy="3952875"/>
+          <a:off x="5905500" y="6165850"/>
+          <a:ext cx="4552950" cy="3951605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,7 +1700,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1185,7 +1736,7 @@
           <xdr:row>104</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1196,25 +1747,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="0" y="13130530"/>
+              <a:ext cx="7343775" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1243,14 +1783,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="13322300"/>
+          <a:off x="7543800" y="13530580"/>
           <a:ext cx="4265295" cy="2699385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1275,7 +1815,7 @@
           <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1286,25 +1826,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="7696200" y="17693005"/>
+              <a:ext cx="6800850" cy="5400675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1316,7 +1845,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1332,7 +1861,7 @@
           <xdr:row>63</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Object 1" hidden="1">
               <a:extLst>
@@ -1343,25 +1872,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="9525" y="276225"/>
+              <a:ext cx="7343775" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1624,15 +2142,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1643,12 +2161,12 @@
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5">
+    <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18">
+    <row r="2" ht="18" spans="1:1">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1663,17 +2181,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21.75" customHeight="1">
+    <row r="6" ht="21.75" customHeight="1" spans="1:1">
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="32.25" customHeight="1">
+    <row r="7" ht="32.25" customHeight="1" spans="1:1">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="38.25" customHeight="1">
+    <row r="8" ht="38.25" customHeight="1" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +2209,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:1" ht="18">
+    <row r="12" ht="18" spans="1:1">
       <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
@@ -1716,68 +2234,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" ht="27" spans="1:1">
       <c r="A17" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" ht="18" spans="1:1">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
+    <row r="21" ht="14.25" spans="1:1">
       <c r="A21" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27">
+    <row r="23" ht="27" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:9" ht="27">
+    <row r="24" ht="27" spans="1:8">
       <c r="A24" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:1">
       <c r="A27" s="25"/>
     </row>
-    <row r="28" spans="1:9" ht="63.95" customHeight="1">
+    <row r="28" ht="63.95" customHeight="1" spans="1:1">
       <c r="A28" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="40.5">
+    <row r="29" ht="40.5" spans="1:1">
       <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="51.95" customHeight="1">
+    <row r="30" ht="51.95" customHeight="1" spans="1:9">
       <c r="A30" s="28" t="s">
         <v>24</v>
       </c>
@@ -1785,63 +2303,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="51" customHeight="1">
+    <row r="31" ht="51" customHeight="1" spans="1:1">
       <c r="A31" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="67.5">
+    <row r="33" ht="67.5" spans="1:1">
       <c r="A33" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27">
+    <row r="34" ht="27" spans="1:1">
       <c r="A34" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:1">
       <c r="A35" s="29"/>
     </row>
-    <row r="36" spans="1:8" ht="67.5">
+    <row r="36" ht="67.5" spans="1:1">
       <c r="A36" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="27">
+    <row r="37" ht="27" spans="1:1">
       <c r="A37" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:1">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:1">
       <c r="A39" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="67.5">
+    <row r="40" ht="67.5" spans="1:1">
       <c r="A40" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="18" customFormat="1">
+    <row r="42" s="18" customFormat="1" spans="1:1">
       <c r="A42" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1" spans="8:8">
       <c r="H44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25">
+    <row r="48" ht="14.25" spans="1:1">
       <c r="A48" s="30"/>
     </row>
     <row r="67" spans="5:5">
@@ -1854,7 +2372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="39" customHeight="1">
+    <row r="107" ht="39" customHeight="1" spans="1:1">
       <c r="A107" s="21" t="s">
         <v>37</v>
       </c>
@@ -1870,16 +2388,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1898,13 +2416,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3"/>
+        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1923,7 +2441,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5"/>
+        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -1931,7 +2449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1943,21 +2462,21 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5">
+    <row r="1" ht="22.5" spans="1:1">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1976,7 +2495,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3"/>
+        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -1984,11 +2503,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2005,7 +2525,7 @@
     <col min="13" max="13" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
+    <row r="1" ht="22.5" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2024,7 +2544,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2041,48 +2561,48 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2099,22 +2619,22 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
@@ -2132,22 +2652,22 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4">
         <v>85</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
@@ -2165,22 +2685,22 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4">
         <v>450</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
@@ -2198,22 +2718,22 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4">
         <v>360</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2227,22 +2747,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <v>200</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
@@ -2260,22 +2780,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4">
         <v>850</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
@@ -2293,22 +2813,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <v>240</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
@@ -2319,7 +2839,7 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="4">
         <v>2.5</v>
@@ -2328,22 +2848,22 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4">
         <v>4500</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
@@ -2361,22 +2881,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <v>7000</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
@@ -2394,22 +2914,22 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4">
         <v>6000</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
@@ -2427,22 +2947,22 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4">
         <v>3500</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
@@ -2460,22 +2980,22 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4">
         <v>4500</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
@@ -2486,7 +3006,7 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" s="4">
         <v>4.5</v>
@@ -2495,22 +3015,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4">
         <v>1865</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
@@ -2521,7 +3041,7 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="4">
         <v>4.5</v>
@@ -2530,22 +3050,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="4">
         <v>6750</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4">
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
@@ -2556,7 +3076,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" s="4">
         <v>5</v>
@@ -2565,22 +3085,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="4">
         <v>50000</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4">
         <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
@@ -2595,12 +3115,12 @@
         <v>6</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:13">
       <c r="A20" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2617,19 +3137,19 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4">
         <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="4">
         <v>550</v>
@@ -2652,19 +3172,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4">
         <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="4">
         <v>600</v>
@@ -2687,19 +3207,19 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="4">
         <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4">
         <v>1200</v>
@@ -2715,7 +3235,7 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L23" s="4">
         <v>1.5</v>
@@ -2724,19 +3244,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4">
         <v>550</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="4">
         <v>300</v>
@@ -2745,7 +3265,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I24" s="4">
         <v>200</v>
@@ -2759,19 +3279,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="4">
         <v>250</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="4">
         <v>900</v>
@@ -2780,7 +3300,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I25" s="4">
         <v>150</v>
@@ -2794,19 +3314,19 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" s="4">
         <v>1200</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="4">
         <v>650</v>
@@ -2829,22 +3349,22 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4">
         <v>1050</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4">
         <v>20</v>
@@ -2857,7 +3377,7 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L27" s="4">
         <v>3</v>
@@ -2866,19 +3386,19 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4">
         <v>750</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="4">
         <v>650</v>
@@ -2893,10 +3413,10 @@
         <v>200</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L28" s="4">
         <v>3</v>
@@ -2905,22 +3425,22 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="4">
         <v>2350</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" s="4">
         <v>25</v>
@@ -2932,7 +3452,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4">
@@ -2940,27 +3460,27 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="4">
         <v>1200</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31" s="4">
         <v>3</v>
@@ -2974,25 +3494,25 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4">
         <v>1200</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -3001,48 +3521,48 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L32" s="4">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="4">
         <v>1200</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L33" s="4">
         <v>4</v>
@@ -3050,25 +3570,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="4">
         <v>1200</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -3077,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34" s="4">
         <v>4</v>
@@ -3088,25 +3608,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="4">
         <v>1200</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -3115,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L35" s="4">
         <v>4</v>
@@ -3126,88 +3646,88 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="4">
         <v>1500</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L36" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="12:12">
       <c r="L37" s="4"/>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1">
+    <row r="49" s="2" customFormat="1" spans="1:1">
       <c r="A49" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="33" t="s">
         <v>146</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -3225,12 +3745,15 @@
         <v>10</v>
       </c>
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="I51" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="33"/>
+        <v>149</v>
+      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="4">
         <v>2</v>
       </c>
@@ -3248,14 +3771,14 @@
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="33"/>
+        <v>150</v>
+      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="4">
         <v>3</v>
       </c>
@@ -3267,17 +3790,17 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="33"/>
+        <v>152</v>
+      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="4">
         <v>4</v>
       </c>
@@ -3290,15 +3813,15 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -3317,10 +3840,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="I55" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -3336,29 +3862,27 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>30</v>
-      </c>
-      <c r="G57" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>156</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -3366,93 +3890,84 @@
       <c r="E58" s="4">
         <v>0</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>156</v>
+      <c r="F58" s="4">
+        <v>30</v>
+      </c>
+      <c r="G58" s="4">
+        <v>60</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="4">
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="4">
         <v>1</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C61" s="4">
         <v>50</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D61" s="4">
         <v>10</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E61" s="4">
         <v>20</v>
       </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>350</v>
-      </c>
-      <c r="G60" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="4" t="s">
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="4" t="s">
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>850</v>
-      </c>
-      <c r="G61" s="4">
-        <v>850</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="33"/>
       <c r="C62" s="4" t="s">
         <v>165</v>
       </c>
@@ -3463,24 +3978,22 @@
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>1350</v>
+        <v>350</v>
       </c>
       <c r="G62" s="4">
-        <v>1350</v>
-      </c>
-      <c r="H62" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C63" s="4">
-        <v>-2</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -3489,18 +4002,22 @@
         <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="G63" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>850</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="4">
-        <v>-5</v>
+      <c r="B64" s="6"/>
+      <c r="C64" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -3508,19 +4025,25 @@
       <c r="E64" s="4">
         <v>0</v>
       </c>
+      <c r="F64" s="4">
+        <v>1350</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1350</v>
+      </c>
       <c r="H64" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" s="4">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -3528,19 +4051,22 @@
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>171</v>
+      <c r="F65" s="4">
+        <v>50</v>
+      </c>
+      <c r="G65" s="4">
+        <v>25</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C66" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -3548,13 +4074,19 @@
       <c r="E66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="H66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C67" s="4">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -3562,54 +4094,45 @@
       <c r="E67" s="4">
         <v>0</v>
       </c>
+      <c r="H67" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="I67" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C68" s="4">
         <v>-2</v>
       </c>
       <c r="D68" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="I68" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C69" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D69" s="4">
-        <v>5</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>300</v>
-      </c>
-      <c r="G69" s="4">
-        <v>300</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3617,7 +4140,7 @@
         <v>178</v>
       </c>
       <c r="C70" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D70" s="4">
         <v>5</v>
@@ -3625,135 +4148,153 @@
       <c r="E70" s="4">
         <v>0</v>
       </c>
-      <c r="F70" s="4">
+      <c r="I70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D71" s="4">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
         <v>300</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G71" s="4">
         <v>300</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H71" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="D71" s="4">
-        <v>3</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="16"/>
+      <c r="A72" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="4">
+        <v>-5</v>
+      </c>
       <c r="D72" s="4">
         <v>5</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="F72" s="4">
+        <v>300</v>
+      </c>
+      <c r="G72" s="4">
+        <v>300</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="16"/>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
       </c>
-      <c r="F73" s="4">
-        <v>10</v>
-      </c>
-      <c r="G73" s="4">
-        <v>10</v>
-      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="I73" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="16"/>
       <c r="D74" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="4"/>
+      <c r="I74" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D75" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="F75" s="4">
+        <v>10</v>
+      </c>
+      <c r="G75" s="4">
+        <v>10</v>
+      </c>
+      <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D76" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
       </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
         <v>188</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D77" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -3762,15 +4303,15 @@
         <v>190</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D78" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -3782,12 +4323,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D79" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -3796,15 +4337,15 @@
         <v>194</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -3813,7 +4354,7 @@
         <v>196</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3821,7 +4362,7 @@
         <v>197</v>
       </c>
       <c r="D81" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -3838,7 +4379,7 @@
         <v>199</v>
       </c>
       <c r="D82" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -3847,7 +4388,7 @@
         <v>200</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3855,7 +4396,7 @@
         <v>201</v>
       </c>
       <c r="D83" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -3872,7 +4413,7 @@
         <v>203</v>
       </c>
       <c r="D84" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -3881,24 +4422,58 @@
         <v>204</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="I85" s="4"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="13" t="s">
+      <c r="A85" s="4" t="s">
         <v>205</v>
+      </c>
+      <c r="D85" s="4">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="4">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="4"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B62:B64"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="232">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -379,6 +379,9 @@
     <t>86 - 86</t>
   </si>
   <si>
+    <t>僵尸的主管</t>
+  </si>
+  <si>
     <t>胖子僵尸的老爹</t>
   </si>
   <si>
@@ -472,307 +475,370 @@
     <t>范围</t>
   </si>
   <si>
+    <t>41 - 41</t>
+  </si>
+  <si>
+    <t>3.5s</t>
+  </si>
+  <si>
+    <t>泰坦</t>
+  </si>
+  <si>
+    <t>60 - 60</t>
+  </si>
+  <si>
+    <t>医疗兵</t>
+  </si>
+  <si>
+    <t>1.2s</t>
+  </si>
+  <si>
+    <t>能修理建筑，每秒生命恢复10点，修复费用仅用75%</t>
+  </si>
+  <si>
+    <t>毒师</t>
+  </si>
+  <si>
+    <t>50 - 50</t>
+  </si>
+  <si>
+    <t>0.8s</t>
+  </si>
+  <si>
+    <t>机械单位，可被修理</t>
+  </si>
+  <si>
+    <t>攻击带毒 时期受到攻击的僵尸降低攻速 并每秒掉血</t>
+  </si>
+  <si>
+    <t>机甲铁拳</t>
+  </si>
+  <si>
+    <t>120 - 120</t>
+  </si>
+  <si>
+    <t>低级伐木</t>
+  </si>
+  <si>
+    <t>高级伐木</t>
+  </si>
+  <si>
+    <t>20 — 20</t>
+  </si>
+  <si>
+    <t>超级伐木</t>
+  </si>
+  <si>
+    <t>30 — 30</t>
+  </si>
+  <si>
+    <t>箭塔</t>
+  </si>
+  <si>
+    <t>待补充</t>
+  </si>
+  <si>
+    <t>机枪塔</t>
+  </si>
+  <si>
+    <t>击退（击退僵尸一小段距离，无视碰撞）</t>
+  </si>
+  <si>
+    <t>限制（每个玩家只能造5个）</t>
+  </si>
+  <si>
+    <t>电塔</t>
+  </si>
+  <si>
+    <t>高级雷达塔建造时间是80.85秒</t>
+  </si>
+  <si>
+    <t>60秒</t>
+  </si>
+  <si>
+    <t>火焰塔</t>
+  </si>
+  <si>
+    <t>给僵尸上个火焰buff，当人类单位攻击带火焰的僵尸 伤害+3</t>
+  </si>
+  <si>
+    <t>冰冻塔</t>
+  </si>
+  <si>
+    <t>降低攻速</t>
+  </si>
+  <si>
+    <t>炮塔</t>
+  </si>
+  <si>
+    <t>玩家所有可建造建筑(待补充)</t>
+  </si>
+  <si>
+    <t>名字：</t>
+  </si>
+  <si>
+    <t>建筑上限数量</t>
+  </si>
+  <si>
+    <t>每日收益（建造完下一天生效）</t>
+  </si>
+  <si>
+    <t>占用人口</t>
+  </si>
+  <si>
+    <t>提供人口</t>
+  </si>
+  <si>
+    <t>消耗金币(有前置的建筑的为升级费用)</t>
+  </si>
+  <si>
+    <t>消耗木材</t>
+  </si>
+  <si>
+    <t>需要前置科技</t>
+  </si>
+  <si>
+    <t>前置建筑</t>
+  </si>
+  <si>
+    <t>建造时间或升级时间</t>
+  </si>
+  <si>
+    <t>民房Lv1</t>
+  </si>
+  <si>
+    <t>4种建筑数量不能加起来150个</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>建造时间30秒</t>
+  </si>
+  <si>
+    <t>民房Lv2</t>
+  </si>
+  <si>
+    <t>建造时间10秒</t>
+  </si>
+  <si>
+    <t>民房Lv3</t>
+  </si>
+  <si>
+    <t>lv3木屋技术</t>
+  </si>
+  <si>
+    <t>建造时间15秒</t>
+  </si>
+  <si>
+    <t>民房Lv4</t>
+  </si>
+  <si>
+    <t>lv4石屋技术</t>
+  </si>
+  <si>
+    <t>建造时间20秒</t>
+  </si>
+  <si>
+    <t>渔场Lv1</t>
+  </si>
+  <si>
+    <t>渔场Lv2</t>
+  </si>
+  <si>
+    <t>渔场Lv3</t>
+  </si>
+  <si>
+    <t>农场lv1</t>
+  </si>
+  <si>
+    <t>建造时间5秒</t>
+  </si>
+  <si>
+    <t>农场lv2</t>
+  </si>
+  <si>
+    <t>高级农场</t>
+  </si>
+  <si>
+    <t>农场lv3</t>
+  </si>
+  <si>
+    <t>主城</t>
+  </si>
+  <si>
+    <t>主城(玩家必须造的，且为第一个建筑)</t>
+  </si>
+  <si>
+    <t>粮仓Lv1</t>
+  </si>
+  <si>
+    <t>3种建筑加起来不能超过1个</t>
+  </si>
+  <si>
+    <t>整体收益追加10%</t>
+  </si>
+  <si>
+    <t>建造时间60秒</t>
+  </si>
+  <si>
+    <t>粮仓Lv2</t>
+  </si>
+  <si>
+    <t>整体收益追加20%</t>
+  </si>
+  <si>
+    <t>建造时间80秒</t>
+  </si>
+  <si>
+    <t>粮仓Lv3</t>
+  </si>
+  <si>
+    <t>整体收益追加50%</t>
+  </si>
+  <si>
+    <t>高级粮仓技术</t>
+  </si>
+  <si>
+    <t>建造时间100秒</t>
+  </si>
+  <si>
+    <t>兵工厂Lv1</t>
+  </si>
+  <si>
+    <t>兵工厂Lv2</t>
+  </si>
+  <si>
+    <t>开发高级兵工厂</t>
+  </si>
+  <si>
+    <t>升级时间30秒</t>
+  </si>
+  <si>
+    <t>兵工厂Lv3</t>
+  </si>
+  <si>
+    <t>研究究极兵工厂</t>
+  </si>
+  <si>
+    <t>伐木场Lv1</t>
+  </si>
+  <si>
+    <t>伐木场Lv2</t>
+  </si>
+  <si>
+    <t>基础研究所</t>
+  </si>
+  <si>
+    <t>所有科技都在这里研究</t>
+  </si>
+  <si>
+    <t>作战研究所</t>
+  </si>
+  <si>
+    <t>研究作战研究所</t>
+  </si>
+  <si>
+    <t>高级研究所</t>
+  </si>
+  <si>
+    <t>研究高级研究所</t>
+  </si>
+  <si>
+    <t>机枪塔Lv1</t>
+  </si>
+  <si>
+    <t>机枪塔Lv2</t>
+  </si>
+  <si>
+    <t>升级时间60秒</t>
+  </si>
+  <si>
+    <t>塔基</t>
+  </si>
+  <si>
+    <t>不消耗</t>
+  </si>
+  <si>
+    <t>冰塔Lv1</t>
+  </si>
+  <si>
+    <t>研究冰塔Lv1</t>
+  </si>
+  <si>
+    <t>冰塔Lv2</t>
+  </si>
+  <si>
+    <t>研究冰塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>冰塔Lv3</t>
+  </si>
+  <si>
+    <t>研究冰塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
+    <t>火塔Lv1</t>
+  </si>
+  <si>
+    <t>研究火塔Lv1</t>
+  </si>
+  <si>
+    <t>火塔Lv2</t>
+  </si>
+  <si>
+    <t>研究火塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>火塔Lv3</t>
+  </si>
+  <si>
+    <t>研究火塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
+    <t>电塔Lv1</t>
+  </si>
+  <si>
+    <t>研究电塔Lv1</t>
+  </si>
+  <si>
+    <t>电塔Lv2</t>
+  </si>
+  <si>
+    <t>研究电塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>炮塔Lv1</t>
+  </si>
+  <si>
+    <t>研究炮塔Lv1</t>
+  </si>
+  <si>
+    <t>炮塔Lv2</t>
+  </si>
+  <si>
+    <t>研究炮塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>炮塔Lv3</t>
+  </si>
+  <si>
+    <t>研究炮塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
+    <t>玩家科技树(待补充)</t>
+  </si>
+  <si>
+    <t>研究时间</t>
+  </si>
+  <si>
     <t>死神</t>
   </si>
   <si>
-    <t>41 - 41</t>
-  </si>
-  <si>
-    <t>3.5s</t>
-  </si>
-  <si>
-    <t>泰坦</t>
-  </si>
-  <si>
-    <t>60 - 60</t>
-  </si>
-  <si>
-    <t>医疗兵</t>
-  </si>
-  <si>
-    <t>1.2s</t>
-  </si>
-  <si>
-    <t>能修理建筑，每秒生命恢复10点，修复费用仅用75%</t>
-  </si>
-  <si>
-    <t>毒师</t>
-  </si>
-  <si>
-    <t>35 - 35</t>
-  </si>
-  <si>
-    <t>0.8s</t>
-  </si>
-  <si>
-    <t>机械单位，可被修理</t>
-  </si>
-  <si>
-    <t>攻击带毒 时期受到攻击的僵尸降低攻速 并每秒掉血</t>
-  </si>
-  <si>
-    <t>机甲铁拳</t>
-  </si>
-  <si>
-    <t>90 - 90</t>
-  </si>
-  <si>
-    <t>箭塔</t>
-  </si>
-  <si>
-    <t>待补充</t>
-  </si>
-  <si>
-    <t>机枪塔</t>
-  </si>
-  <si>
-    <t>击退（击退僵尸一小段距离，无视碰撞）</t>
-  </si>
-  <si>
-    <t>限制（每个玩家只能造5个）</t>
-  </si>
-  <si>
-    <t>电塔</t>
-  </si>
-  <si>
-    <t>火焰塔</t>
-  </si>
-  <si>
-    <t>给僵尸上个火焰buff，当人类单位攻击带火焰的僵尸 伤害+3</t>
-  </si>
-  <si>
-    <t>冰冻塔</t>
-  </si>
-  <si>
-    <t>降低攻速</t>
-  </si>
-  <si>
-    <t>炮塔</t>
-  </si>
-  <si>
-    <t>玩家所有可建造建筑(待补充)</t>
-  </si>
-  <si>
-    <t>名字：</t>
-  </si>
-  <si>
-    <t>建筑上限数量</t>
-  </si>
-  <si>
-    <t>每日收益（建造完下一天生效）</t>
-  </si>
-  <si>
-    <t>占用人口</t>
-  </si>
-  <si>
-    <t>提供人口</t>
-  </si>
-  <si>
-    <t>消耗金币(有前置的建筑的为升级费用)</t>
-  </si>
-  <si>
-    <t>消耗木材</t>
-  </si>
-  <si>
-    <t>需要前置科技</t>
-  </si>
-  <si>
-    <t>前置建筑</t>
-  </si>
-  <si>
-    <t>建造时间或升级时间</t>
-  </si>
-  <si>
-    <t>民房Lv1</t>
-  </si>
-  <si>
-    <t>4种建筑数量不能加起来150个</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>民房Lv2</t>
-  </si>
-  <si>
-    <t>民房Lv3</t>
-  </si>
-  <si>
-    <t>lv3木屋技术</t>
-  </si>
-  <si>
-    <t>民房Lv4</t>
-  </si>
-  <si>
-    <t>lv4石屋技术</t>
-  </si>
-  <si>
-    <t>渔场Lv1</t>
-  </si>
-  <si>
-    <t>渔场Lv2</t>
-  </si>
-  <si>
-    <t>渔场Lv3</t>
-  </si>
-  <si>
-    <t>农场lv1</t>
-  </si>
-  <si>
-    <t>农场lv2</t>
-  </si>
-  <si>
-    <t>高级农场</t>
-  </si>
-  <si>
-    <t>农场lv3</t>
-  </si>
-  <si>
-    <t>主城</t>
-  </si>
-  <si>
-    <t>主城(玩家必须造的，且为第一个建筑)</t>
-  </si>
-  <si>
-    <t>粮仓Lv1</t>
-  </si>
-  <si>
-    <t>3种建筑加起来不能超过1个</t>
-  </si>
-  <si>
-    <t>整体收益追加10%</t>
-  </si>
-  <si>
-    <t>粮仓Lv2</t>
-  </si>
-  <si>
-    <t>整体收益追加20%</t>
-  </si>
-  <si>
-    <t>粮仓Lv3</t>
-  </si>
-  <si>
-    <t>整体收益追加35%</t>
-  </si>
-  <si>
-    <t>高级粮仓技术</t>
-  </si>
-  <si>
-    <t>兵工厂Lv1</t>
-  </si>
-  <si>
-    <t>兵工厂Lv2</t>
-  </si>
-  <si>
-    <t>开发高级兵工厂</t>
-  </si>
-  <si>
-    <t>兵工厂Lv3</t>
-  </si>
-  <si>
-    <t>研究究极兵工厂</t>
-  </si>
-  <si>
-    <t>伐木场Lv1</t>
-  </si>
-  <si>
-    <t>伐木场Lv2</t>
-  </si>
-  <si>
-    <t>基础研究所</t>
-  </si>
-  <si>
-    <t>所有科技都在这里研究</t>
-  </si>
-  <si>
-    <t>作战研究所</t>
-  </si>
-  <si>
-    <t>研究作战研究所</t>
-  </si>
-  <si>
-    <t>高级研究所</t>
-  </si>
-  <si>
-    <t>研究高级研究所</t>
-  </si>
-  <si>
-    <t>机枪塔Lv1</t>
-  </si>
-  <si>
-    <t>机枪塔Lv2</t>
-  </si>
-  <si>
-    <t>塔基</t>
-  </si>
-  <si>
-    <t>冰塔Lv1</t>
-  </si>
-  <si>
-    <t>研究冰塔Lv1</t>
-  </si>
-  <si>
-    <t>冰塔Lv2</t>
-  </si>
-  <si>
-    <t>研究冰塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>冰塔Lv3</t>
-  </si>
-  <si>
-    <t>研究冰塔Lv1、Lv2、Lv3</t>
-  </si>
-  <si>
-    <t>火塔Lv1</t>
-  </si>
-  <si>
-    <t>研究火塔Lv1</t>
-  </si>
-  <si>
-    <t>火塔Lv2</t>
-  </si>
-  <si>
-    <t>研究火塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>火塔Lv3</t>
-  </si>
-  <si>
-    <t>研究火塔Lv1、Lv2、Lv3</t>
-  </si>
-  <si>
-    <t>电塔Lv1</t>
-  </si>
-  <si>
-    <t>研究电塔Lv1</t>
-  </si>
-  <si>
-    <t>电塔Lv2</t>
-  </si>
-  <si>
-    <t>研究电塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>炮塔Lv1</t>
-  </si>
-  <si>
-    <t>研究炮塔Lv1</t>
-  </si>
-  <si>
-    <t>炮塔Lv2</t>
-  </si>
-  <si>
-    <t>研究炮塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>炮塔Lv3</t>
-  </si>
-  <si>
-    <t>研究炮塔Lv1、Lv2、Lv3</t>
-  </si>
-  <si>
-    <t>玩家科技树(待补充)</t>
+    <t>高级伐木技术</t>
+  </si>
+  <si>
+    <t>铁拳</t>
   </si>
 </sst>
 </file>
@@ -780,10 +846,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -846,23 +912,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,6 +928,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,36 +978,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -921,16 +985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,32 +1001,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,6 +1020,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,7 +1106,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,19 +1178,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,85 +1214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,37 +1238,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,7 +1268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,25 +1310,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,33 +1337,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,6 +1380,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1333,10 +1399,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,137 +1411,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,11 +1578,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,7 +1596,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1875,7 +1950,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9525" y="276225"/>
-              <a:ext cx="7343775" cy="10668000"/>
+              <a:ext cx="7344410" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2162,12 +2237,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2182,12 +2257,12 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2202,56 +2277,56 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2261,16 +2336,16 @@
       </c>
     </row>
     <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
@@ -2283,28 +2358,28 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2314,43 +2389,43 @@
       </c>
     </row>
     <row r="33" ht="67.5" spans="1:1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:1">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" ht="67.5" spans="1:1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="25"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:1">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="18" customFormat="1" spans="1:1">
-      <c r="A42" s="18" t="s">
+    <row r="42" s="21" customFormat="1" spans="1:1">
+      <c r="A42" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2360,20 +2435,20 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="30"/>
+      <c r="A48" s="33"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2459,11 +2534,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2505,24 +2580,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="8.88333333333333" customWidth="1"/>
+    <col min="8" max="8" width="26.3833333333333" customWidth="1"/>
+    <col min="9" max="9" width="19.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="11" width="48.5" customWidth="1"/>
-    <col min="13" max="13" width="34.375" customWidth="1"/>
+    <col min="13" max="13" width="34.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:13">
@@ -2883,44 +2958,28 @@
       <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="4">
-        <v>7000</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="4">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>200</v>
-      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6000</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
@@ -2947,13 +3006,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3500</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
@@ -2974,22 +3033,22 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3500</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="4">
-        <v>4500</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="D16" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>72</v>
@@ -3005,26 +3064,24 @@
         <v>200</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4">
-        <v>1865</v>
+        <v>4500</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>72</v>
@@ -3041,7 +3098,7 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="4">
         <v>4.5</v>
@@ -3050,19 +3107,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4">
-        <v>6750</v>
+        <v>1865</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>60</v>
@@ -3072,32 +3129,32 @@
         <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L18" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4">
-        <v>50000</v>
+        <v>6750</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D19" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>60</v>
@@ -3110,133 +3167,131 @@
         <v>100</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="4">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>100</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>6</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:13">
-      <c r="A20" s="10" t="s">
+      <c r="M20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:13">
+      <c r="A21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="4">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="4">
-        <v>550</v>
-      </c>
-      <c r="G21" s="4">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
-        <v>300</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="G22" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4">
+        <v>150</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" s="4">
-        <v>120</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23" s="4">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G23" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4">
         <v>1.5</v>
       </c>
@@ -3244,101 +3299,103 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4">
-        <v>550</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>120</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F24" s="4">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="4">
-        <v>20</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="L24" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4">
-        <v>250</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>550</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G25" s="4">
         <v>20</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I25" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
-        <v>112</v>
+      <c r="A26" s="4">
+        <v>44</v>
       </c>
       <c r="B26" s="4">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F26" s="4">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="G26" s="4">
-        <v>20</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="I26" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3349,25 +3406,25 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D27" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="F27" s="4">
+        <v>650</v>
       </c>
       <c r="G27" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -3376,35 +3433,33 @@
         <v>200</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" s="4">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="4">
-        <v>650</v>
+        <v>115</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G28" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -3412,11 +3467,9 @@
       <c r="I28" s="4">
         <v>200</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L28" s="4">
         <v>3</v>
@@ -3425,25 +3478,25 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4">
-        <v>2350</v>
+        <v>750</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>60</v>
+        <v>119</v>
+      </c>
+      <c r="F29" s="4">
+        <v>650</v>
       </c>
       <c r="G29" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -3454,220 +3507,197 @@
       <c r="J29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2350</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4">
+        <v>35</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>200</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
         <v>3.5</v>
       </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="4">
-        <v>3</v>
-      </c>
-      <c r="I31" s="4">
+        <v>200</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="4">
-        <v>4</v>
-      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="4">
+        <v>450</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>125</v>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="4">
+        <v>50</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="4">
-        <v>4</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="B33">
+        <v>900</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34" s="4">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="9"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B35" s="4">
         <v>1200</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>125</v>
+      <c r="C35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="H35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" t="s">
-        <v>133</v>
-      </c>
       <c r="L35" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B36" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -3675,398 +3705,546 @@
       <c r="J36" t="s">
         <v>120</v>
       </c>
+      <c r="K36" t="s">
+        <v>132</v>
+      </c>
       <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="12:12">
-      <c r="L37" s="4"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:1">
-      <c r="A49" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="4" t="s">
+    <row r="41" spans="12:12">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:11">
+      <c r="A53" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="C54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K50" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="K54" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D55" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E55" s="4">
         <v>2</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F55" s="4">
         <v>10</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G55" s="4">
         <v>10</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4">
+      <c r="H55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="4">
         <v>2</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D56" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E56" s="4">
         <v>3</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F56" s="4">
         <v>20</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G56" s="4">
         <v>20</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4">
+      <c r="H56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="4">
         <v>3</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D57" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E57" s="4">
         <v>5</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4">
+      <c r="F57" s="12">
+        <v>70</v>
+      </c>
+      <c r="G57" s="4">
+        <v>70</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="4">
         <v>4</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D58" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E58" s="4">
         <v>8</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4">
+      <c r="F58" s="4">
+        <v>100</v>
+      </c>
+      <c r="G58" s="4">
+        <v>100</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
         <v>3</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D59" s="4">
         <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>15</v>
-      </c>
-      <c r="G55" s="4">
-        <v>7</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4">
-        <v>7</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>30</v>
-      </c>
-      <c r="G58" s="4">
-        <v>60</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="F59" s="4">
+        <v>15</v>
+      </c>
+      <c r="G59" s="4">
+        <v>7</v>
+      </c>
       <c r="H59" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>25</v>
+      </c>
+      <c r="G60" s="4">
+        <v>30</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="I60" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B61" s="4"/>
       <c r="C61" s="4">
-        <v>50</v>
-      </c>
-      <c r="D61" s="4">
-        <v>10</v>
-      </c>
-      <c r="E61" s="4">
-        <v>20</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12">
+        <v>7</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G62" s="4">
-        <v>350</v>
+        <v>60</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12">
+        <v>15</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>850</v>
+        <v>70</v>
       </c>
       <c r="G63" s="4">
-        <v>850</v>
+        <v>130</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="4">
+        <v>172</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12">
+        <v>30</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="E64" s="4">
+      <c r="C65" s="4">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4">
+        <v>20</v>
+      </c>
+      <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="F64" s="4">
-        <v>1350</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1350</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K65" s="12">
         <v>1</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>50</v>
-      </c>
-      <c r="G65" s="4">
-        <v>25</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="4">
-        <v>-5</v>
+        <v>175</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -4074,19 +4252,29 @@
       <c r="E66" s="4">
         <v>0</v>
       </c>
+      <c r="F66" s="4">
+        <v>350</v>
+      </c>
+      <c r="G66" s="4">
+        <v>350</v>
+      </c>
       <c r="H66" s="4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="4">
-        <v>-8</v>
+        <v>179</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -4094,19 +4282,29 @@
       <c r="E67" s="4">
         <v>0</v>
       </c>
+      <c r="F67" s="4">
+        <v>800</v>
+      </c>
+      <c r="G67" s="4">
+        <v>800</v>
+      </c>
       <c r="H67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="4">
-        <v>-2</v>
+        <v>182</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -4114,14 +4312,27 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
+      <c r="F68" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="I68" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B69" s="12"/>
       <c r="C69" s="4">
         <v>-2</v>
       </c>
@@ -4131,346 +4342,730 @@
       <c r="E69" s="4">
         <v>0</v>
       </c>
+      <c r="F69" s="4">
+        <v>50</v>
+      </c>
+      <c r="G69" s="4">
+        <v>25</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="I69" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B70" s="12"/>
       <c r="C70" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D70" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
       </c>
+      <c r="F70" s="12">
+        <v>100</v>
+      </c>
+      <c r="G70" s="12">
+        <v>50</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="I70" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B71" s="12"/>
       <c r="C71" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D71" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="12">
         <v>300</v>
       </c>
-      <c r="G71" s="4">
-        <v>300</v>
+      <c r="G71" s="12">
+        <v>150</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B72" s="12"/>
       <c r="C72" s="4">
         <v>-5</v>
       </c>
       <c r="D72" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
       </c>
-      <c r="F72" s="4">
-        <v>300</v>
-      </c>
-      <c r="G72" s="4">
-        <v>300</v>
+      <c r="F72" s="12">
+        <v>20</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="16"/>
+        <v>155</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="4">
+        <v>-2</v>
+      </c>
       <c r="D73" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="I73" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B74" s="16"/>
+        <v>192</v>
+      </c>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="4">
+        <v>-2</v>
+      </c>
       <c r="D74" s="4">
         <v>5</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K74" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="4">
+        <v>-5</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
       </c>
       <c r="F75" s="4">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G75" s="4">
-        <v>10</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="I75" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K75" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4" t="s">
-        <v>187</v>
+        <v>198</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="4">
+        <v>-5</v>
       </c>
       <c r="D76" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="F76" s="4">
+        <v>300</v>
+      </c>
+      <c r="G76" s="4">
+        <v>300</v>
+      </c>
       <c r="H76" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K76" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="12">
+        <v>-3</v>
       </c>
       <c r="D77" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
       </c>
+      <c r="F77" s="4">
+        <v>10</v>
+      </c>
+      <c r="G77" s="4">
+        <v>500</v>
+      </c>
       <c r="H77" s="4" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="12">
+        <v>-5</v>
       </c>
       <c r="D78" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="F78" s="4">
+        <v>20</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D79" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
       </c>
+      <c r="F79" s="4">
+        <v>10</v>
+      </c>
+      <c r="G79" s="4">
+        <v>10</v>
+      </c>
       <c r="H79" s="4" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12">
+        <v>-5</v>
       </c>
       <c r="D80" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
       </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>450</v>
+      </c>
       <c r="H80" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12">
+        <v>-7</v>
       </c>
       <c r="D81" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
       </c>
+      <c r="F81" s="12">
+        <v>100</v>
+      </c>
+      <c r="G81" s="12">
+        <v>700</v>
+      </c>
       <c r="H81" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4" t="s">
-        <v>199</v>
+        <v>209</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12">
+        <v>-10</v>
       </c>
       <c r="D82" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
       </c>
+      <c r="F82" s="12">
+        <v>200</v>
+      </c>
+      <c r="G82" s="12">
+        <v>1200</v>
+      </c>
       <c r="H82" s="4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>207</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12">
+        <v>-5</v>
       </c>
       <c r="D83" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
       </c>
+      <c r="F83" s="12">
+        <v>10</v>
+      </c>
+      <c r="G83" s="12">
+        <v>450</v>
+      </c>
       <c r="H83" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12">
+        <v>-7</v>
       </c>
       <c r="D84" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
       </c>
+      <c r="F84" s="12">
+        <v>30</v>
+      </c>
+      <c r="G84" s="12">
+        <v>700</v>
+      </c>
       <c r="H84" s="4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="4" t="s">
-        <v>205</v>
+        <v>215</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12">
+        <v>-10</v>
       </c>
       <c r="D85" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
       </c>
+      <c r="F85" s="12">
+        <v>50</v>
+      </c>
+      <c r="G85" s="12">
+        <v>1200</v>
+      </c>
       <c r="H85" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12">
+        <v>-5</v>
       </c>
       <c r="D86" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
       </c>
+      <c r="F86" s="12">
+        <v>10</v>
+      </c>
+      <c r="G86" s="12">
+        <v>500</v>
+      </c>
       <c r="H86" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="4"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12">
+        <v>-10</v>
+      </c>
+      <c r="D87" s="4">
+        <v>5</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
+        <v>20</v>
+      </c>
+      <c r="G87" s="12">
+        <v>850</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12">
+        <v>-5</v>
+      </c>
+      <c r="D88" s="4">
+        <v>9</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="12">
+        <v>100</v>
+      </c>
+      <c r="G88" s="12">
+        <v>550</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12">
+        <v>-5</v>
+      </c>
+      <c r="D89" s="4">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>150</v>
+      </c>
+      <c r="G89" s="12">
+        <v>700</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12">
+        <v>-5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>9</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12">
+        <v>300</v>
+      </c>
+      <c r="G90" s="12">
+        <v>1200</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="4"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B66:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\War3Map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="241">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -840,18 +845,84 @@
   <si>
     <t>铁拳</t>
   </si>
+  <si>
+    <t>1、4种僵尸房子模型，对应4种僵尸池</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、火塔技能调整</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、玩家每日收益统计，并显示在右上方面板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、首次推掉一座lv2以上僵尸房，奖励黄金木头500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、弓箭手仇恨实现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、驻兵塔逻辑实现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5、推房子奖励，僵尸小房子积分2,大房子积分6，达到30分以上（包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），触发成就：小有成就。额外奖励金钱木头：1000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8、黑玫瑰女王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss制作</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>待实现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,156 +983,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,7 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,188 +1059,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1293,255 +1068,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1650,74 +1183,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
-      <color rgb="00338FBD"/>
+      <color rgb="FF338FBD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1737,7 +1304,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1775,7 +1342,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1811,7 +1378,7 @@
           <xdr:row>104</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1822,14 +1389,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="0" y="13130530"/>
-              <a:ext cx="7343775" cy="10668000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1858,7 +1436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1890,7 +1468,7 @@
           <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1901,14 +1479,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7696200" y="17693005"/>
-              <a:ext cx="6800850" cy="5400675"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1920,7 +1509,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1936,7 +1525,7 @@
           <xdr:row>63</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Object 1" hidden="1">
               <a:extLst>
@@ -1947,14 +1536,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="9525" y="276225"/>
-              <a:ext cx="7344410" cy="10668000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2217,12 +1817,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2236,12 +1836,12 @@
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
+    <row r="1" spans="1:1" ht="31.5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:1">
+    <row r="2" spans="1:1" ht="18">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -2256,17 +1856,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customHeight="1" spans="1:1">
+    <row r="6" spans="1:1" ht="21.75" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="32.25" customHeight="1" spans="1:1">
+    <row r="7" spans="1:1" ht="32.25" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="38.25" customHeight="1" spans="1:1">
+    <row r="8" spans="1:1" ht="38.25" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +1884,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="24"/>
     </row>
-    <row r="12" ht="18" spans="1:1">
+    <row r="12" spans="1:1" ht="18">
       <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
@@ -2309,68 +1909,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:1">
+    <row r="17" spans="1:9" ht="27">
       <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:9">
       <c r="A18" s="24"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:9">
       <c r="A19" s="24"/>
     </row>
-    <row r="20" ht="18" spans="1:1">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:1">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:8">
+    <row r="23" spans="1:9" ht="27">
       <c r="A23" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" ht="27" spans="1:8">
+    <row r="24" spans="1:9" ht="27">
       <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:9">
       <c r="A27" s="28"/>
     </row>
-    <row r="28" ht="63.95" customHeight="1" spans="1:1">
+    <row r="28" spans="1:9" ht="63.95" customHeight="1">
       <c r="A28" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:1">
+    <row r="29" spans="1:9" ht="40.5">
       <c r="A29" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="51.95" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="51.95" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>24</v>
       </c>
@@ -2378,63 +1978,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="51" customHeight="1" spans="1:1">
+    <row r="31" spans="1:9" ht="51" customHeight="1">
       <c r="A31" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>-4</v>
       </c>
     </row>
-    <row r="33" ht="67.5" spans="1:1">
+    <row r="33" spans="1:8" ht="67.5">
       <c r="A33" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:1">
+    <row r="34" spans="1:8" ht="27">
       <c r="A34" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:8">
       <c r="A35" s="32"/>
     </row>
-    <row r="36" ht="67.5" spans="1:1">
+    <row r="36" spans="1:8" ht="67.5">
       <c r="A36" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:1">
+    <row r="37" spans="1:8" ht="27">
       <c r="A37" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:8">
       <c r="A38" s="28"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:8">
       <c r="A39" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" ht="67.5" spans="1:1">
+    <row r="40" spans="1:8" ht="67.5">
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="21" customFormat="1" spans="1:1">
+    <row r="42" spans="1:8" s="21" customFormat="1">
       <c r="A42" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" spans="8:8">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="H44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:1">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="33"/>
     </row>
     <row r="67" spans="5:5">
@@ -2447,7 +2047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" ht="39" customHeight="1" spans="1:1">
+    <row r="107" spans="1:1" ht="39" customHeight="1">
       <c r="A107" s="24" t="s">
         <v>37</v>
       </c>
@@ -2463,16 +2063,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2491,13 +2091,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -2516,7 +2116,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2524,8 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2534,24 +2133,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:1">
+    <row r="1" spans="1:1" ht="22.5">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2570,7 +2169,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2578,29 +2177,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="8.88333333333333" customWidth="1"/>
-    <col min="8" max="8" width="26.3833333333333" customWidth="1"/>
-    <col min="9" max="9" width="19.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="11" width="48.5" customWidth="1"/>
-    <col min="13" max="13" width="34.3833333333333" customWidth="1"/>
+    <col min="13" max="13" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
+    <row r="1" spans="1:13" ht="22.5">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2675,7 +2273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
+    <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>56</v>
       </c>
@@ -3210,7 +2808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:13">
+    <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="10" t="s">
         <v>98</v>
       </c>
@@ -3610,7 +3208,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -3636,13 +3234,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="1:13">
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
       <c r="E34" s="12"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
         <v>129</v>
       </c>
@@ -3715,7 +3313,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -3750,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="4" t="s">
         <v>137</v>
       </c>
@@ -3788,7 +3386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
         <v>139</v>
       </c>
@@ -3826,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
@@ -3861,10 +3459,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="12:12">
+    <row r="41" spans="1:13">
       <c r="L41" s="4"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:11">
+    <row r="53" spans="1:11" s="2" customFormat="1">
       <c r="A53" s="14" t="s">
         <v>142</v>
       </c>
@@ -3918,7 +3516,7 @@
       <c r="A55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="36" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="4">
@@ -3950,7 +3548,7 @@
       <c r="A56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="4">
         <v>2</v>
       </c>
@@ -3980,7 +3578,7 @@
       <c r="A57" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="4">
         <v>3</v>
       </c>
@@ -4010,7 +3608,7 @@
       <c r="A58" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="4">
         <v>4</v>
       </c>
@@ -4240,7 +3838,7 @@
       <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="36" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -4272,7 +3870,7 @@
       <c r="A67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="4" t="s">
         <v>180</v>
       </c>
@@ -4302,7 +3900,7 @@
       <c r="A68" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="4" t="s">
         <v>183</v>
       </c>
@@ -4990,15 +4588,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
+    <row r="91" spans="1:11">
       <c r="I91" s="4"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:11">
       <c r="A93" s="19" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:11">
       <c r="A94" s="4" t="s">
         <v>43</v>
       </c>
@@ -5006,22 +4604,22 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:11">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:11">
+      <c r="A96" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="12">
         <v>60</v>
       </c>
     </row>
@@ -5029,7 +4627,7 @@
       <c r="A98" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="12">
         <v>240</v>
       </c>
     </row>
@@ -5037,38 +4635,86 @@
       <c r="A99" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="12">
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="12" t="s">
         <v>230</v>
       </c>
+      <c r="B100" s="12"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="A101" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="12">
         <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="A102" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="12">
         <v>300</v>
       </c>
     </row>
+    <row r="113" spans="1:2" ht="20.25">
+      <c r="A113" s="39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="37"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A114:B114"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="242">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -915,6 +915,10 @@
   </si>
   <si>
     <t>待实现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、僵尸奶妈</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1183,16 +1187,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2178,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3516,7 +3520,7 @@
       <c r="A55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="38" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="4">
@@ -3548,7 +3552,7 @@
       <c r="A56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="4">
         <v>2</v>
       </c>
@@ -3578,7 +3582,7 @@
       <c r="A57" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="36"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="4">
         <v>3</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="A58" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="4">
         <v>4</v>
       </c>
@@ -3838,7 +3842,7 @@
       <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="38" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3870,7 +3874,7 @@
       <c r="A67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="4" t="s">
         <v>180</v>
       </c>
@@ -3900,7 +3904,7 @@
       <c r="A68" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="36"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="4" t="s">
         <v>183</v>
       </c>
@@ -4662,15 +4666,15 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="20.25">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="37" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="37"/>
+      <c r="B114" s="39"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
@@ -4688,7 +4692,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="36" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4703,8 +4707,13 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="36" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="36" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\War3Map\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="4035" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -699,7 +694,7 @@
     <t>粮仓Lv3</t>
   </si>
   <si>
-    <t>整体收益追加50%</t>
+    <t>整体收益追加35%</t>
   </si>
   <si>
     <t>高级粮仓技术</t>
@@ -846,31 +841,29 @@
     <t>铁拳</t>
   </si>
   <si>
+    <t>待实现</t>
+  </si>
+  <si>
     <t>1、4种僵尸房子模型，对应4种僵尸池</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2、火塔技能调整</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3、玩家每日收益统计，并显示在右上方面板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4、首次推掉一座lv2以上僵尸房，奖励黄金木头500</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、弓箭手仇恨实现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、驻兵塔逻辑实现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5、推房子奖励，僵尸小房子积分2,大房子积分6，达到30分以上（包括</t>
     </r>
     <r>
@@ -878,7 +871,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -894,10 +886,22 @@
       </rPr>
       <t>），触发成就：小有成就。额外奖励金钱木头：1000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、弓箭手仇恨实现</t>
+  </si>
+  <si>
+    <t>7、驻兵塔逻辑实现</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8、黑玫瑰女王</t>
     </r>
     <r>
@@ -905,28 +909,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>boss制作</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>待实现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9、僵尸奶妈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,6 +956,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -987,40 +1003,156 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,7 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,8 +1195,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1072,13 +1390,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,9 +1675,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1133,10 +1690,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1145,10 +1705,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1157,7 +1717,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1178,7 +1738,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1187,108 +1747,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FF338FBD"/>
+      <color rgb="00338FBD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1308,7 +1834,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1346,7 +1872,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1382,7 +1908,7 @@
           <xdr:row>104</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1393,25 +1919,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="0" y="13130530"/>
+              <a:ext cx="7343775" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1440,7 +1955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1472,7 +1987,7 @@
           <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1483,25 +1998,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="7696200" y="17693005"/>
+              <a:ext cx="6800850" cy="5400675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1513,7 +2017,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1529,7 +2033,7 @@
           <xdr:row>63</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Object 1" hidden="1">
               <a:extLst>
@@ -1540,25 +2044,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="9525" y="276225"/>
+              <a:ext cx="7343775" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1821,12 +2314,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1840,12 +2333,12 @@
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5">
+    <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18">
+    <row r="2" ht="18" spans="1:1">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -1860,17 +2353,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21.75" customHeight="1">
+    <row r="6" ht="21.75" customHeight="1" spans="1:1">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="32.25" customHeight="1">
+    <row r="7" ht="32.25" customHeight="1" spans="1:1">
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="38.25" customHeight="1">
+    <row r="8" ht="38.25" customHeight="1" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +2381,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="24"/>
     </row>
-    <row r="12" spans="1:1" ht="18">
+    <row r="12" ht="18" spans="1:1">
       <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
@@ -1913,68 +2406,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" ht="27" spans="1:1">
       <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:1">
       <c r="A18" s="24"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:1">
       <c r="A19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" ht="18" spans="1:1">
       <c r="A20" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
+    <row r="21" ht="14.25" spans="1:1">
       <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27">
+    <row r="23" ht="27" spans="1:8">
       <c r="A23" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="27">
+    <row r="24" ht="27" spans="1:8">
       <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:1">
       <c r="A27" s="28"/>
     </row>
-    <row r="28" spans="1:9" ht="63.95" customHeight="1">
+    <row r="28" ht="63.95" customHeight="1" spans="1:1">
       <c r="A28" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="40.5">
+    <row r="29" ht="40.5" spans="1:1">
       <c r="A29" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="51.95" customHeight="1">
+    <row r="30" ht="51.95" customHeight="1" spans="1:9">
       <c r="A30" s="31" t="s">
         <v>24</v>
       </c>
@@ -1982,63 +2475,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="51" customHeight="1">
+    <row r="31" ht="51" customHeight="1" spans="1:1">
       <c r="A31" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="67.5">
+    <row r="33" ht="67.5" spans="1:1">
       <c r="A33" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27">
+    <row r="34" ht="27" spans="1:1">
       <c r="A34" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:1">
       <c r="A35" s="32"/>
     </row>
-    <row r="36" spans="1:8" ht="67.5">
+    <row r="36" ht="67.5" spans="1:1">
       <c r="A36" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="27">
+    <row r="37" ht="27" spans="1:1">
       <c r="A37" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:1">
       <c r="A38" s="28"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:1">
       <c r="A39" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="67.5">
+    <row r="40" ht="67.5" spans="1:1">
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="21" customFormat="1">
+    <row r="42" s="21" customFormat="1" spans="1:1">
       <c r="A42" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1" spans="8:8">
       <c r="H44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25">
+    <row r="48" ht="14.25" spans="1:1">
       <c r="A48" s="33"/>
     </row>
     <row r="67" spans="5:5">
@@ -2051,7 +2544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="39" customHeight="1">
+    <row r="107" ht="39" customHeight="1" spans="1:1">
       <c r="A107" s="24" t="s">
         <v>37</v>
       </c>
@@ -2067,16 +2560,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2095,13 +2588,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3"/>
+        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -2120,7 +2613,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5"/>
+        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2128,7 +2621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2140,21 +2634,21 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5">
+    <row r="1" ht="22.5" spans="1:1">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2173,7 +2667,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3"/>
+        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2181,11 +2675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:B125"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2202,7 +2697,7 @@
     <col min="13" max="13" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
+    <row r="1" ht="22.5" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2277,7 +2772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="7" t="s">
         <v>56</v>
       </c>
@@ -2812,7 +3307,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>98</v>
       </c>
@@ -3212,7 +3707,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -3225,7 +3720,7 @@
       <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="4">
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -3238,32 +3733,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="3:6">
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="4">
         <v>1200</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H35" s="4">
@@ -3283,19 +3778,19 @@
       <c r="B36" s="4">
         <v>1200</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H36" s="4">
@@ -3317,26 +3812,26 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="4">
         <v>1200</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>136</v>
       </c>
       <c r="H37" s="11" t="s">
@@ -3352,26 +3847,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B38" s="4">
         <v>1200</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H38" s="4">
@@ -3390,26 +3885,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B39" s="4">
         <v>1200</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H39" s="4">
@@ -3428,26 +3923,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B40" s="4">
         <v>1500</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -3463,23 +3958,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="12:12">
       <c r="L41" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="2" customFormat="1">
-      <c r="A53" s="14" t="s">
+    <row r="53" s="2" customFormat="1" spans="1:11">
+      <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="4" t="s">
@@ -3512,7 +4007,7 @@
       <c r="J54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="15" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3520,7 +4015,7 @@
       <c r="A55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="4">
@@ -3544,7 +4039,7 @@
       <c r="I55" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3552,7 +4047,7 @@
       <c r="A56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="4">
         <v>2</v>
       </c>
@@ -3574,7 +4069,7 @@
       <c r="I56" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3582,7 +4077,7 @@
       <c r="A57" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="4">
         <v>3</v>
       </c>
@@ -3592,7 +4087,7 @@
       <c r="E57" s="4">
         <v>5</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="4">
         <v>70</v>
       </c>
       <c r="G57" s="4">
@@ -3604,7 +4099,7 @@
       <c r="I57" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K57" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3612,7 +4107,7 @@
       <c r="A58" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="4">
         <v>4</v>
       </c>
@@ -3634,7 +4129,7 @@
       <c r="I58" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3664,7 +4159,7 @@
       <c r="I59" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3694,7 +4189,7 @@
       <c r="I60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="12" t="s">
+      <c r="K60" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3706,8 +4201,12 @@
       <c r="C61" s="4">
         <v>15</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
@@ -3716,7 +4215,7 @@
       <c r="I61" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K61" s="12" t="s">
+      <c r="K61" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3724,8 +4223,8 @@
       <c r="A62" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
         <v>7</v>
       </c>
       <c r="D62" s="4">
@@ -3746,7 +4245,7 @@
       <c r="I62" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="K62" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3754,8 +4253,8 @@
       <c r="A63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4">
         <v>15</v>
       </c>
       <c r="D63" s="4">
@@ -3776,7 +4275,7 @@
       <c r="I63" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K63" s="12" t="s">
+      <c r="K63" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3784,12 +4283,16 @@
       <c r="A64" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4">
         <v>30</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
@@ -3798,8 +4301,8 @@
       <c r="I64" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3834,7 +4337,7 @@
       <c r="J65" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3842,7 +4345,7 @@
       <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3866,7 +4369,7 @@
       <c r="I66" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="12" t="s">
+      <c r="K66" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3874,7 +4377,7 @@
       <c r="A67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="4" t="s">
         <v>180</v>
       </c>
@@ -3896,7 +4399,7 @@
       <c r="I67" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3904,7 +4407,7 @@
       <c r="A68" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="38"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="4" t="s">
         <v>183</v>
       </c>
@@ -3926,7 +4429,7 @@
       <c r="I68" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3934,7 +4437,7 @@
       <c r="A69" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4">
         <v>-2</v>
       </c>
@@ -3956,7 +4459,7 @@
       <c r="I69" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3964,7 +4467,7 @@
       <c r="A70" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="4">
         <v>-5</v>
       </c>
@@ -3974,10 +4477,10 @@
       <c r="E70" s="4">
         <v>0</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="4">
         <v>100</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="4">
         <v>50</v>
       </c>
       <c r="H70" s="4" t="s">
@@ -3986,7 +4489,7 @@
       <c r="I70" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3994,7 +4497,7 @@
       <c r="A71" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="4">
         <v>-10</v>
       </c>
@@ -4004,10 +4507,10 @@
       <c r="E71" s="4">
         <v>0</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="4">
         <v>300</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="4">
         <v>150</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -4016,7 +4519,7 @@
       <c r="I71" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4024,7 +4527,7 @@
       <c r="A72" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4">
         <v>-5</v>
       </c>
@@ -4034,10 +4537,10 @@
       <c r="E72" s="4">
         <v>0</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="4">
         <v>20</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="4">
         <v>0</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -4046,7 +4549,7 @@
       <c r="I72" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K72" s="12" t="s">
+      <c r="K72" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4054,7 +4557,7 @@
       <c r="A73" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4">
         <v>-2</v>
       </c>
@@ -4064,16 +4567,16 @@
       <c r="E73" s="4">
         <v>0</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4">
         <v>10</v>
       </c>
     </row>
@@ -4081,7 +4584,7 @@
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4">
         <v>-2</v>
       </c>
@@ -4091,8 +4594,8 @@
       <c r="E74" s="4">
         <v>0</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
         <v>155</v>
       </c>
@@ -4102,7 +4605,7 @@
       <c r="J74" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="4">
         <v>60</v>
       </c>
     </row>
@@ -4110,7 +4613,7 @@
       <c r="A75" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4">
         <v>-5</v>
       </c>
@@ -4135,7 +4638,7 @@
       <c r="J75" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="4">
         <v>60</v>
       </c>
     </row>
@@ -4143,7 +4646,7 @@
       <c r="A76" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4">
         <v>-5</v>
       </c>
@@ -4168,16 +4671,16 @@
       <c r="J76" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="12">
+      <c r="B77" s="16"/>
+      <c r="C77" s="4">
         <v>-3</v>
       </c>
       <c r="D77" s="4">
@@ -4198,16 +4701,16 @@
       <c r="I77" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K77" s="12" t="s">
+      <c r="K77" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="12">
+      <c r="B78" s="16"/>
+      <c r="C78" s="4">
         <v>-5</v>
       </c>
       <c r="D78" s="4">
@@ -4222,13 +4725,13 @@
       <c r="G78" s="4">
         <v>1000</v>
       </c>
-      <c r="H78" s="17" t="s">
+      <c r="H78" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="17" t="s">
+      <c r="I78" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="K78" s="12" t="s">
+      <c r="K78" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4236,8 +4739,8 @@
       <c r="A79" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D79" s="4">
@@ -4258,7 +4761,7 @@
       <c r="I79" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4266,8 +4769,8 @@
       <c r="A80" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4">
         <v>-5</v>
       </c>
       <c r="D80" s="4">
@@ -4288,7 +4791,7 @@
       <c r="I80" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K80" s="12" t="s">
+      <c r="K80" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4296,8 +4799,8 @@
       <c r="A81" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4">
         <v>-7</v>
       </c>
       <c r="D81" s="4">
@@ -4306,10 +4809,10 @@
       <c r="E81" s="4">
         <v>0</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="4">
         <v>100</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="4">
         <v>700</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -4318,7 +4821,7 @@
       <c r="I81" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K81" s="12" t="s">
+      <c r="K81" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4326,8 +4829,8 @@
       <c r="A82" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4">
         <v>-10</v>
       </c>
       <c r="D82" s="4">
@@ -4336,10 +4839,10 @@
       <c r="E82" s="4">
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="4">
         <v>200</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="4">
         <v>1200</v>
       </c>
       <c r="H82" s="4" t="s">
@@ -4348,7 +4851,7 @@
       <c r="I82" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4356,8 +4859,8 @@
       <c r="A83" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4">
         <v>-5</v>
       </c>
       <c r="D83" s="4">
@@ -4366,10 +4869,10 @@
       <c r="E83" s="4">
         <v>0</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="4">
         <v>10</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="4">
         <v>450</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -4378,7 +4881,7 @@
       <c r="I83" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K83" s="12" t="s">
+      <c r="K83" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4386,8 +4889,8 @@
       <c r="A84" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4">
         <v>-7</v>
       </c>
       <c r="D84" s="4">
@@ -4396,10 +4899,10 @@
       <c r="E84" s="4">
         <v>0</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="4">
         <v>30</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="4">
         <v>700</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -4408,7 +4911,7 @@
       <c r="I84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="K84" s="12" t="s">
+      <c r="K84" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4416,8 +4919,8 @@
       <c r="A85" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4">
         <v>-10</v>
       </c>
       <c r="D85" s="4">
@@ -4426,10 +4929,10 @@
       <c r="E85" s="4">
         <v>0</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="4">
         <v>50</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="4">
         <v>1200</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -4438,7 +4941,7 @@
       <c r="I85" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="K85" s="12" t="s">
+      <c r="K85" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4446,8 +4949,8 @@
       <c r="A86" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4">
         <v>-5</v>
       </c>
       <c r="D86" s="4">
@@ -4456,10 +4959,10 @@
       <c r="E86" s="4">
         <v>0</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="4">
         <v>10</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="4">
         <v>500</v>
       </c>
       <c r="H86" s="4" t="s">
@@ -4468,7 +4971,7 @@
       <c r="I86" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K86" s="12" t="s">
+      <c r="K86" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4476,8 +4979,8 @@
       <c r="A87" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4">
         <v>-10</v>
       </c>
       <c r="D87" s="4">
@@ -4486,10 +4989,10 @@
       <c r="E87" s="4">
         <v>0</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="4">
         <v>20</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="4">
         <v>850</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -4498,7 +5001,7 @@
       <c r="I87" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4506,8 +5009,8 @@
       <c r="A88" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4">
         <v>-5</v>
       </c>
       <c r="D88" s="4">
@@ -4516,10 +5019,10 @@
       <c r="E88" s="4">
         <v>0</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="4">
         <v>100</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="4">
         <v>550</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -4528,7 +5031,7 @@
       <c r="I88" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K88" s="12" t="s">
+      <c r="K88" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4536,8 +5039,8 @@
       <c r="A89" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4">
         <v>-5</v>
       </c>
       <c r="D89" s="4">
@@ -4546,10 +5049,10 @@
       <c r="E89" s="4">
         <v>0</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="4">
         <v>150</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="4">
         <v>700</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -4558,7 +5061,7 @@
       <c r="I89" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K89" s="12" t="s">
+      <c r="K89" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4566,8 +5069,8 @@
       <c r="A90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4">
         <v>-5</v>
       </c>
       <c r="D90" s="4">
@@ -4576,10 +5079,10 @@
       <c r="E90" s="4">
         <v>0</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="4">
         <v>300</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="4">
         <v>1200</v>
       </c>
       <c r="H90" s="4" t="s">
@@ -4588,19 +5091,19 @@
       <c r="I90" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K90" s="12" t="s">
+      <c r="K90" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="9:9">
       <c r="I91" s="4"/>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="19" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>43</v>
       </c>
@@ -4608,122 +5111,122 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:1">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="4">
         <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="20.25">
-      <c r="A113" s="37" t="s">
+    <row r="113" ht="20.25" spans="1:1">
+      <c r="A113" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B114" s="39"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="36" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="19" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A114:B114"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A114:B114"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="4035" windowHeight="4515" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
     <sheet name="游戏流程" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="资料设定" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="260">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -334,27 +335,27 @@
     <t>10 — 10</t>
   </si>
   <si>
+    <t>被感染的小牛</t>
+  </si>
+  <si>
+    <t>28 — 28</t>
+  </si>
+  <si>
+    <t>2.5s</t>
+  </si>
+  <si>
+    <t>被感染的小狗</t>
+  </si>
+  <si>
+    <t>11 — 11</t>
+  </si>
+  <si>
     <t>年轻的僵尸</t>
   </si>
   <si>
     <t>35 — 35</t>
   </si>
   <si>
-    <t>2.5s</t>
-  </si>
-  <si>
-    <t>被感染的小牛</t>
-  </si>
-  <si>
-    <t>28 — 28</t>
-  </si>
-  <si>
-    <t>被感染的小狗</t>
-  </si>
-  <si>
-    <t>11 — 11</t>
-  </si>
-  <si>
     <t>被感染的武士</t>
   </si>
   <si>
@@ -370,7 +371,7 @@
     <t>0.3s</t>
   </si>
   <si>
-    <t>可以跳过人类的墙（cd30s）</t>
+    <t>跳跃</t>
   </si>
   <si>
     <t>胖子僵尸</t>
@@ -400,6 +401,9 @@
     <t>45 — 45</t>
   </si>
   <si>
+    <t>风暴之锤</t>
+  </si>
+  <si>
     <t>混混老大僵尸</t>
   </si>
   <si>
@@ -415,7 +419,7 @@
     <t>68 — 68</t>
   </si>
   <si>
-    <t>喷射火球，对范围内人类单位造成伤害</t>
+    <t xml:space="preserve">烈焰风暴 </t>
   </si>
   <si>
     <t>挖掘机僵尸</t>
@@ -430,6 +434,12 @@
     <t>无法被击退</t>
   </si>
   <si>
+    <t>僵尸总理</t>
+  </si>
+  <si>
+    <t>宁静</t>
+  </si>
+  <si>
     <t>天神下凡挖掘机</t>
   </si>
   <si>
@@ -439,6 +449,9 @@
     <t>一局就一个，高攻高防，肉的一匹，长的比其他僵尸要大一些，在茫茫尸潮中一眼就能看到他</t>
   </si>
   <si>
+    <t>血色残蝶</t>
+  </si>
+  <si>
     <t>人类阵营</t>
   </si>
   <si>
@@ -824,6 +837,42 @@
   </si>
   <si>
     <t>研究炮塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
+    <t>僵尸建筑</t>
+  </si>
+  <si>
+    <t>产出僵尸（格式：名字/权值，名字/权值）</t>
+  </si>
+  <si>
+    <t>死亡奖励木头</t>
+  </si>
+  <si>
+    <t>死亡奖励金钱</t>
+  </si>
+  <si>
+    <t>受击生成僵尸概率</t>
+  </si>
+  <si>
+    <t>受击生成僵尸数量</t>
+  </si>
+  <si>
+    <t>低级僵尸房</t>
+  </si>
+  <si>
+    <t>老弱的僵尸男/6,老弱的僵尸女/6,被感染的小牛/2,被感染的小狗/2,年轻的僵尸/2</t>
+  </si>
+  <si>
+    <t>10 -- 15</t>
+  </si>
+  <si>
+    <t>中级僵尸房</t>
+  </si>
+  <si>
+    <t>高级僵尸房</t>
+  </si>
+  <si>
+    <t>超级僵尸房</t>
   </si>
   <si>
     <t>玩家科技树(待补充)</t>
@@ -918,6 +967,12 @@
   <si>
     <t>9、僵尸奶妈</t>
   </si>
+  <si>
+    <t>10、数值</t>
+  </si>
+  <si>
+    <t>11、混混老大 蜜汁咆哮</t>
+  </si>
 </sst>
 </file>
 
@@ -925,11 +980,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,13 +1020,6 @@
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1010,7 +1058,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,75 +1170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,29 +1194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1203,13 +1251,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1305,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,43 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,91 +1413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,33 +1435,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,13 +1483,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,149 +1538,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,6 +1711,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,17 +1732,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1705,10 +1762,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1717,7 +1774,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1738,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2070,7 +2127,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2334,12 +2391,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2354,12 +2411,12 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2374,56 +2431,56 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="29"/>
     </row>
     <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="29"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="29"/>
     </row>
     <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2433,16 +2490,16 @@
       </c>
     </row>
     <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
@@ -2455,28 +2512,28 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2486,43 +2543,43 @@
       </c>
     </row>
     <row r="33" ht="67.5" spans="1:1">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="32"/>
+      <c r="A35" s="37"/>
     </row>
     <row r="36" ht="67.5" spans="1:1">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="33"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="21" customFormat="1" spans="1:1">
-      <c r="A42" s="21" t="s">
+    <row r="42" s="26" customFormat="1" spans="1:1">
+      <c r="A42" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2532,20 +2589,20 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="33"/>
+      <c r="A48" s="38"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2635,7 +2692,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2677,10 +2734,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2688,8 +2745,10 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
     <col min="8" max="8" width="26.375" customWidth="1"/>
     <col min="9" max="9" width="19.625" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
@@ -2860,7 +2919,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>64</v>
@@ -2875,16 +2934,14 @@
         <v>60</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -2893,7 +2950,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="4">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>67</v>
@@ -2908,13 +2965,17 @@
         <v>60</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
       <c r="I8" s="4">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>1.5</v>
+      </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13">
@@ -2922,7 +2983,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="4">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>69</v>
@@ -2941,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2950,54 +3011,21 @@
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4">
-        <v>850</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>200</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
-        <v>2</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
-        <v>240</v>
+        <v>850</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>60</v>
@@ -3007,32 +3035,30 @@
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4">
-        <v>4500</v>
+        <v>240</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>60</v>
@@ -3042,74 +3068,76 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L12" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>200</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>4</v>
+      </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="4">
-        <v>7000</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>200</v>
-      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
@@ -3136,13 +3164,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
@@ -3163,57 +3191,22 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4500</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="4">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>200</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4">
-        <v>1865</v>
+        <v>3500</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>72</v>
@@ -3230,28 +3223,28 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L18" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" ht="12" customHeight="1" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4">
-        <v>6750</v>
+        <v>4500</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>60</v>
@@ -3261,29 +3254,29 @@
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L19" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4">
-        <v>50000</v>
+        <v>1865</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>72</v>
@@ -3296,232 +3289,220 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
+        <v>200</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6750</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
         <v>100</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4">
-        <v>6</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:13">
-      <c r="A21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="4">
-        <v>80</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="4">
-        <v>550</v>
-      </c>
-      <c r="G22" s="4">
-        <v>10</v>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22">
+        <v>3500</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>300</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4">
-        <v>150</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>50000</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="4">
-        <v>600</v>
-      </c>
-      <c r="G23" s="4">
-        <v>12</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L23" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="M23" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="4">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>200</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:13">
+      <c r="A25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="4">
-        <v>120</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1200</v>
-      </c>
-      <c r="G24" s="4">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>150</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="4">
-        <v>550</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="4">
-        <v>300</v>
-      </c>
-      <c r="G25" s="4">
-        <v>20</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="4">
-        <v>200</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4">
-        <v>2</v>
-      </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4">
-        <v>250</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="G26" s="4">
-        <v>35</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
       </c>
       <c r="I26" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B27" s="4">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="G27" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -3532,944 +3513,975 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B28" s="4">
-        <v>1050</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1200</v>
       </c>
       <c r="G28" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L28" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4">
-        <v>750</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>550</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G29" s="4">
-        <v>30</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="I29" s="4">
         <v>200</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>122</v>
+      <c r="A30" s="4">
+        <v>44</v>
       </c>
       <c r="B30" s="4">
-        <v>2350</v>
+        <v>250</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D30" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>60</v>
+        <v>115</v>
+      </c>
+      <c r="F30" s="4">
+        <v>900</v>
       </c>
       <c r="G30" s="4">
         <v>35</v>
       </c>
-      <c r="H30" s="4">
-        <v>1</v>
+      <c r="H30" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="I30" s="4">
-        <v>200</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B31" s="4">
-        <v>200</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>62</v>
+        <v>1200</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4">
+        <v>650</v>
+      </c>
+      <c r="G31" s="4">
+        <v>30</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>200</v>
+      </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4">
+        <v>2.5</v>
+      </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4">
-        <v>450</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>126</v>
+        <v>1050</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4">
+        <v>200</v>
+      </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3</v>
+      </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="4">
+        <v>750</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="4">
+        <v>650</v>
+      </c>
+      <c r="G33" s="4">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>200</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" s="4">
+        <v>3</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2350</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B33">
-        <v>900</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4">
+        <v>35</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>200</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="4">
+      <c r="B35" s="4">
+        <v>200</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G33">
-        <v>60</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="9"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
-        <v>4</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C36" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>130</v>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="4">
+        <v>50</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37">
+        <v>900</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="L36" s="4">
-        <v>4</v>
-      </c>
-      <c r="M36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L37" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37">
+        <v>60</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>120</v>
-      </c>
-      <c r="K38" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" s="4">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="9"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B39" s="4">
         <v>1200</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>130</v>
+      <c r="C39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" t="s">
-        <v>140</v>
-      </c>
       <c r="L39" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B40" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>109</v>
+        <v>1200</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="K40" t="s">
+        <v>136</v>
       </c>
       <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="12:12">
-      <c r="L41" s="4"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:11">
-      <c r="A53" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="4" t="s">
+    <row r="45" spans="12:12">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:11">
+      <c r="A57" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" s="4">
-        <v>10</v>
-      </c>
-      <c r="G55" s="4">
-        <v>10</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="4">
-        <v>2</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
-        <v>3</v>
-      </c>
-      <c r="F56" s="4">
-        <v>20</v>
-      </c>
-      <c r="G56" s="4">
-        <v>20</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="4">
-        <v>3</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4">
-        <v>70</v>
-      </c>
-      <c r="G57" s="4">
-        <v>70</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="4">
-        <v>4</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>8</v>
-      </c>
-      <c r="F58" s="4">
-        <v>100</v>
-      </c>
-      <c r="G58" s="4">
-        <v>100</v>
+        <v>147</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="C59" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J59" s="17"/>
       <c r="K59" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="B60" s="6"/>
       <c r="C60" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G60" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J60" s="17"/>
       <c r="K60" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F61" s="4">
+        <v>70</v>
+      </c>
+      <c r="G61" s="4">
+        <v>70</v>
+      </c>
       <c r="H61" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J61" s="17"/>
       <c r="K61" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="4">
+        <v>4</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4">
+        <v>100</v>
+      </c>
+      <c r="G62" s="4">
+        <v>100</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J62" s="17"/>
+      <c r="K62" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4">
-        <v>7</v>
-      </c>
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>30</v>
-      </c>
-      <c r="G62" s="4">
-        <v>60</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G63" s="4">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J63" s="17"/>
       <c r="K63" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="F64" s="4">
+        <v>25</v>
+      </c>
+      <c r="G64" s="4">
+        <v>30</v>
+      </c>
       <c r="H64" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J64" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="J64" s="17"/>
       <c r="K64" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="4">
+        <v>171</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4">
+        <v>15</v>
+      </c>
+      <c r="D65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="4">
-        <v>50</v>
-      </c>
-      <c r="D65" s="4">
-        <v>10</v>
-      </c>
       <c r="E65" s="4">
-        <v>20</v>
-      </c>
-      <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K65" s="4">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
+        <v>7</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G66" s="4">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J66" s="17"/>
       <c r="K66" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>15</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
       </c>
       <c r="F67" s="4">
-        <v>800</v>
+        <v>70</v>
       </c>
       <c r="G67" s="4">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="J67" s="17"/>
       <c r="K67" s="4" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4">
+        <v>30</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="4">
-        <v>1500</v>
-      </c>
-      <c r="G68" s="4">
-        <v>1500</v>
-      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
       <c r="C69" s="4">
-        <v>-2</v>
+        <v>50</v>
       </c>
       <c r="D69" s="4">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K69" s="4">
         <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>50</v>
-      </c>
-      <c r="G69" s="4">
-        <v>25</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4">
-        <v>-5</v>
+        <v>179</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -4478,28 +4490,29 @@
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="G70" s="4">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J70" s="17"/>
       <c r="K70" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4">
-        <v>-10</v>
+        <v>183</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -4508,28 +4521,29 @@
         <v>0</v>
       </c>
       <c r="F71" s="4">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G71" s="4">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J71" s="17"/>
       <c r="K71" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4">
-        <v>-5</v>
+        <v>186</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -4538,24 +4552,25 @@
         <v>0</v>
       </c>
       <c r="F72" s="4">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G72" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J72" s="17"/>
       <c r="K72" s="4" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -4567,58 +4582,64 @@
       <c r="E73" s="4">
         <v>0</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="F73" s="4">
+        <v>50</v>
+      </c>
+      <c r="G73" s="4">
+        <v>25</v>
+      </c>
       <c r="H73" s="4" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4">
-        <v>10</v>
+        <v>159</v>
+      </c>
+      <c r="J73" s="17"/>
+      <c r="K73" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D74" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="F74" s="4">
+        <v>100</v>
+      </c>
+      <c r="G74" s="4">
+        <v>50</v>
+      </c>
       <c r="H74" s="4" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K74" s="4">
-        <v>60</v>
+        <v>190</v>
+      </c>
+      <c r="J74" s="17"/>
+      <c r="K74" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D75" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -4627,147 +4648,142 @@
         <v>300</v>
       </c>
       <c r="G75" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K75" s="4">
-        <v>60</v>
+        <v>191</v>
+      </c>
+      <c r="J75" s="17"/>
+      <c r="K75" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
         <v>-5</v>
       </c>
       <c r="D76" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
       </c>
       <c r="F76" s="4">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G76" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K76" s="4">
-        <v>60</v>
+        <v>159</v>
+      </c>
+      <c r="J76" s="17"/>
+      <c r="K76" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="16"/>
+      <c r="A77" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="4"/>
       <c r="C77" s="4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D77" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4">
         <v>10</v>
       </c>
-      <c r="G77" s="4">
-        <v>500</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="16"/>
+      <c r="A78" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D78" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
       </c>
-      <c r="F78" s="4">
-        <v>20</v>
-      </c>
-      <c r="G78" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>202</v>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K78" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
-        <v>204</v>
+      <c r="C79" s="4">
+        <v>-5</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
       </c>
       <c r="F79" s="4">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G79" s="4">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K79" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4">
@@ -4780,91 +4796,96 @@
         <v>0</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G80" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>178</v>
+        <v>198</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K80" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="4"/>
+      <c r="A81" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="18"/>
       <c r="C81" s="4">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D81" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
       </c>
       <c r="F81" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G81" s="4">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J81" s="17"/>
+      <c r="K81" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B82" s="4"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="4">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D82" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
       </c>
       <c r="F82" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G82" s="4">
-        <v>1200</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>207</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J82" s="17"/>
       <c r="K82" s="4" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="4">
-        <v>-5</v>
+      <c r="C83" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D83" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -4873,115 +4894,119 @@
         <v>10</v>
       </c>
       <c r="G83" s="4">
-        <v>450</v>
+        <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J83" s="17"/>
       <c r="K83" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="D84" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
       </c>
       <c r="F84" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G84" s="4">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>211</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="J84" s="17"/>
       <c r="K84" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D85" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
       </c>
       <c r="F85" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G85" s="4">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="J85" s="17"/>
       <c r="K85" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D86" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
       </c>
       <c r="F86" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G86" s="4">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="J86" s="17"/>
       <c r="K86" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D87" s="4">
         <v>5</v>
@@ -4990,243 +5015,536 @@
         <v>0</v>
       </c>
       <c r="F87" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="4">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>217</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="J87" s="17"/>
       <c r="K87" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D88" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
       </c>
       <c r="F88" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G88" s="4">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="J88" s="17"/>
       <c r="K88" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D89" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
       </c>
       <c r="F89" s="4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G89" s="4">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>221</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J89" s="17"/>
       <c r="K89" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4">
         <v>-5</v>
       </c>
       <c r="D90" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
       </c>
       <c r="F90" s="4">
+        <v>10</v>
+      </c>
+      <c r="G90" s="4">
+        <v>500</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J90" s="17"/>
+      <c r="K90" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>20</v>
+      </c>
+      <c r="G91" s="4">
+        <v>850</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="17"/>
+      <c r="K91" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D92" s="4">
+        <v>9</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>100</v>
+      </c>
+      <c r="G92" s="4">
+        <v>550</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J92" s="17"/>
+      <c r="K92" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D93" s="4">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>150</v>
+      </c>
+      <c r="G93" s="4">
+        <v>700</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J93" s="17"/>
+      <c r="K93" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D94" s="4">
+        <v>9</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
         <v>300</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G94" s="4">
         <v>1200</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="4"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="17" t="s">
+      <c r="H94" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
+      <c r="J94" s="17"/>
+      <c r="K94" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="J96" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17">
+        <v>100</v>
+      </c>
+      <c r="G97" s="17">
+        <v>100</v>
+      </c>
+      <c r="H97" s="17">
+        <v>300</v>
+      </c>
+      <c r="I97" s="17">
+        <v>2</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B94" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B96" s="4">
+      <c r="B103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="4">
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="4">
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B99" s="4">
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B101" s="4">
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B102" s="4">
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="113" ht="20.25" spans="1:1">
-      <c r="A113" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B114" s="4"/>
+    <row r="113" spans="1:1">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>234</v>
-      </c>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>235</v>
-      </c>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="19" t="s">
-        <v>241</v>
-      </c>
+      <c r="A117" s="4"/>
+    </row>
+    <row r="122" ht="20.25" spans="1:1">
+      <c r="A122" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B66:B68"/>
+  <mergeCells count="11">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="322">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -611,12 +611,18 @@
     <t>箭塔</t>
   </si>
   <si>
+    <t>76-76</t>
+  </si>
+  <si>
     <t>待补充</t>
   </si>
   <si>
     <t>机枪塔</t>
   </si>
   <si>
+    <t>48-48</t>
+  </si>
+  <si>
     <t>击退（击退僵尸一小段距离，无视碰撞）</t>
   </si>
   <si>
@@ -626,6 +632,9 @@
     <t>电塔</t>
   </si>
   <si>
+    <t>180-200</t>
+  </si>
+  <si>
     <t>高级雷达塔建造时间是80.85秒</t>
   </si>
   <si>
@@ -635,21 +644,60 @@
     <t>火焰塔</t>
   </si>
   <si>
+    <t>88-98</t>
+  </si>
+  <si>
     <t>给僵尸上个火焰buff，当人类单位攻击带火焰的僵尸 伤害+3</t>
   </si>
   <si>
     <t>冰冻塔</t>
   </si>
   <si>
+    <t>100-120</t>
+  </si>
+  <si>
     <t>降低攻速</t>
   </si>
   <si>
     <t>炮塔</t>
   </si>
   <si>
+    <t>300-350</t>
+  </si>
+  <si>
     <t>导弹塔</t>
   </si>
   <si>
+    <t>横墙1级</t>
+  </si>
+  <si>
+    <t>一级防御塔</t>
+  </si>
+  <si>
+    <t>2级</t>
+  </si>
+  <si>
+    <t>石防御塔</t>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>竖墙1级</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>石们</t>
+  </si>
+  <si>
     <t>玩家所有可建造建筑(待补充)</t>
   </si>
   <si>
@@ -983,6 +1031,9 @@
     <t>研究时间</t>
   </si>
   <si>
+    <t>钱/木头</t>
+  </si>
+  <si>
     <t>高级伐木技术</t>
   </si>
   <si>
@@ -996,6 +1047,33 @@
   </si>
   <si>
     <t>胖子僵尸的老哥</t>
+  </si>
+  <si>
+    <t>导弹塔Lv2</t>
+  </si>
+  <si>
+    <t>导弹塔Lv3</t>
+  </si>
+  <si>
+    <t>究极伐木工</t>
+  </si>
+  <si>
+    <t>墙Lv3</t>
+  </si>
+  <si>
+    <t>墙Lv4</t>
+  </si>
+  <si>
+    <t>墙Lv5</t>
+  </si>
+  <si>
+    <t>高级机枪</t>
+  </si>
+  <si>
+    <t>t2机器人</t>
+  </si>
+  <si>
+    <t>高级渔场</t>
   </si>
   <si>
     <t>待实现</t>
@@ -1087,10 +1165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1158,15 +1236,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,48 +1302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,30 +1326,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1287,16 +1356,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,13 +1443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1467,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,55 +1563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,25 +1575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,49 +1587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,42 +1647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,6 +1681,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1646,10 +1724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1658,137 +1736,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,9 +1909,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,9 +1935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2242,7 +2314,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9525" y="276225"/>
-              <a:ext cx="7343775" cy="10668000"/>
+              <a:ext cx="7344410" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2265,7 +2337,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2529,12 +2601,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2549,12 +2621,12 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2569,56 +2641,56 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="37"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="37"/>
     </row>
     <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2628,16 +2700,16 @@
       </c>
     </row>
     <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="42"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="42"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
@@ -2650,28 +2722,28 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
     </row>
     <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:1">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="45" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2681,43 +2753,43 @@
       </c>
     </row>
     <row r="33" ht="67.5" spans="1:1">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
     </row>
     <row r="36" ht="67.5" spans="1:1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="43"/>
+      <c r="A38" s="41"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:1">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="28" customFormat="1" spans="1:1">
-      <c r="A42" s="28" t="s">
+    <row r="42" s="26" customFormat="1" spans="1:1">
+      <c r="A42" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2727,20 +2799,20 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="48"/>
+      <c r="A48" s="46"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="50" t="s">
+      <c r="E67" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2826,11 +2898,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2872,27 +2944,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="30.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="36" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1333333333333" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.3833333333333" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6333333333333" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="36" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="48.5" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="34.375" customWidth="1"/>
+    <col min="14" max="14" width="34.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:14">
@@ -2963,7 +3035,7 @@
       <c r="K3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="10" t="s">
@@ -3334,22 +3406,22 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3663,7 +3735,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:14">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B30" s="12"/>
@@ -3817,7 +3889,7 @@
       <c r="G34" s="7">
         <v>20</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>124</v>
       </c>
       <c r="I34" s="7">
@@ -3855,7 +3927,7 @@
       <c r="G35" s="7">
         <v>35</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>124</v>
       </c>
       <c r="I35" s="7">
@@ -3872,39 +3944,39 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:14">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>1200</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>0</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>650</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="16">
         <v>30</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <v>1</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <v>200</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="M36" s="17">
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="M36" s="16">
         <v>2.5</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
@@ -3947,43 +4019,43 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:14">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>750</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>5</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>650</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>30</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <v>1</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="16">
         <v>200</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>3</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="16"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="7" t="s">
@@ -4151,7 +4223,7 @@
       <c r="I43" s="7">
         <v>522</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="19" t="s">
         <v>137</v>
       </c>
       <c r="K43" s="7" t="s">
@@ -4229,7 +4301,7 @@
       <c r="I45" s="7">
         <v>524</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="19" t="s">
         <v>137</v>
       </c>
       <c r="K45" s="7"/>
@@ -4286,58 +4358,58 @@
       <c r="F47" s="7"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:13">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="17">
-        <v>1200</v>
+      <c r="B48" s="16">
+        <v>1500</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>155</v>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.6</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="17">
+        <v>156</v>
+      </c>
+      <c r="H48" s="16">
         <v>3</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="16">
         <v>0</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2500</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="17">
+        <v>5</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>155</v>
+      <c r="G49" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4348,39 +4420,39 @@
       <c r="J49" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="14" t="s">
-        <v>157</v>
+      <c r="K49" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B50" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="17">
+        <v>5</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>124</v>
       </c>
       <c r="I50" s="7">
@@ -4395,25 +4467,25 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B51" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>155</v>
+        <v>2500</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="17">
+        <v>5</v>
+      </c>
+      <c r="E51" s="17">
+        <v>2</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -4425,7 +4497,7 @@
         <v>137</v>
       </c>
       <c r="K51" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4433,25 +4505,25 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B52" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>155</v>
+        <v>3000</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="17">
+        <v>5</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4463,7 +4535,7 @@
         <v>137</v>
       </c>
       <c r="K52" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M52" s="7">
         <v>4</v>
@@ -4471,27 +4543,27 @@
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:13">
       <c r="A53" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B53" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H53" s="16" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="17">
+        <v>5</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="15" t="s">
         <v>124</v>
       </c>
       <c r="I53" s="7">
@@ -4506,66 +4578,214 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M54" s="7"/>
     </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55">
+        <v>500</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>175</v>
+      </c>
+      <c r="L55">
+        <v>700</v>
+      </c>
+      <c r="M55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56">
+        <v>600</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>177</v>
+      </c>
+      <c r="L56">
+        <v>1200</v>
+      </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57">
+        <v>900</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58">
+        <v>1800</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59">
+        <v>3600</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60">
+        <v>500</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61">
+        <v>600</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62">
+        <v>900</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63">
+        <v>1800</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64">
+        <v>3600</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65">
+        <v>500</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="K65" t="s">
+        <v>183</v>
+      </c>
+      <c r="L65">
+        <v>800</v>
+      </c>
+      <c r="M65">
+        <v>20</v>
+      </c>
+    </row>
     <row r="66" s="3" customFormat="1" spans="1:11">
-      <c r="A66" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
+      <c r="A66" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K67" s="30" t="s">
-        <v>177</v>
+      <c r="K67" s="28" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>179</v>
+        <v>194</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
@@ -4583,21 +4803,21 @@
         <v>10</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="B69" s="22"/>
       <c r="C69" s="7">
         <v>2</v>
       </c>
@@ -4614,21 +4834,21 @@
         <v>20</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" s="23"/>
+        <v>200</v>
+      </c>
+      <c r="B70" s="22"/>
       <c r="C70" s="7">
         <v>3</v>
       </c>
@@ -4645,21 +4865,21 @@
         <v>70</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" s="23"/>
+        <v>203</v>
+      </c>
+      <c r="B71" s="22"/>
       <c r="C71" s="7">
         <v>4</v>
       </c>
@@ -4676,19 +4896,19 @@
         <v>100</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7">
@@ -4707,19 +4927,19 @@
         <v>7</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7">
@@ -4738,19 +4958,19 @@
         <v>30</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7">
@@ -4765,19 +4985,19 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7">
@@ -4796,19 +5016,19 @@
         <v>60</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7">
@@ -4827,19 +5047,19 @@
         <v>130</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7">
@@ -4854,19 +5074,19 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B78" s="7">
         <v>1</v>
@@ -4887,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="K78" s="7">
         <v>1</v>
@@ -4901,13 +5121,13 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>201</v>
+        <v>216</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -4922,23 +5142,23 @@
         <v>350</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B80" s="23"/>
+        <v>220</v>
+      </c>
+      <c r="B80" s="22"/>
       <c r="C80" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
@@ -4953,23 +5173,23 @@
         <v>800</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="23"/>
+        <v>223</v>
+      </c>
+      <c r="B81" s="22"/>
       <c r="C81" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
@@ -4984,19 +5204,19 @@
         <v>1500</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7">
@@ -5015,19 +5235,19 @@
         <v>25</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J82" s="7"/>
       <c r="K82" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7">
@@ -5046,19 +5266,19 @@
         <v>50</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7">
@@ -5077,19 +5297,19 @@
         <v>150</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7">
@@ -5108,19 +5328,19 @@
         <v>0</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7">
@@ -5135,10 +5355,10 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7">
@@ -5147,7 +5367,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7">
@@ -5162,13 +5382,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K87" s="7">
         <v>60</v>
@@ -5176,7 +5396,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7">
@@ -5195,13 +5415,13 @@
         <v>300</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K88" s="7">
         <v>60</v>
@@ -5209,7 +5429,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7">
@@ -5228,87 +5448,87 @@
         <v>300</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K89" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" spans="1:11">
-      <c r="A90" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24">
+      <c r="A90" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19">
         <v>-3</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="19">
         <v>2</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="19">
         <v>0</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="19">
         <v>10</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="19">
         <v>500</v>
       </c>
-      <c r="H90" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24" t="s">
-        <v>203</v>
+      <c r="H90" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" spans="1:11">
-      <c r="A91" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24">
+      <c r="A91" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19">
         <v>-5</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="19">
         <v>3</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="19">
         <v>0</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="19">
         <v>20</v>
       </c>
-      <c r="G91" s="24">
+      <c r="G91" s="19">
         <v>1000</v>
       </c>
-      <c r="H91" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24" t="s">
-        <v>227</v>
+      <c r="H91" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -5323,19 +5543,19 @@
         <v>10</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7">
@@ -5354,19 +5574,19 @@
         <v>450</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7">
@@ -5385,19 +5605,19 @@
         <v>700</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7">
@@ -5416,19 +5636,19 @@
         <v>1200</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7">
@@ -5447,19 +5667,19 @@
         <v>450</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7">
@@ -5478,19 +5698,19 @@
         <v>700</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7">
@@ -5509,19 +5729,19 @@
         <v>1200</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7">
@@ -5540,19 +5760,19 @@
         <v>500</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7">
@@ -5571,19 +5791,19 @@
         <v>850</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7">
@@ -5602,19 +5822,19 @@
         <v>550</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7">
@@ -5633,19 +5853,19 @@
         <v>700</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7">
@@ -5664,63 +5884,63 @@
         <v>1200</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" s="5" customFormat="1" spans="1:11">
-      <c r="A104" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
+      <c r="A104" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
+      <c r="A105" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
       <c r="I105" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" ht="60" customHeight="1" spans="1:13">
       <c r="A106" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -5729,41 +5949,41 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="K106" s="7">
         <v>2</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" ht="57" customHeight="1" spans="1:11">
       <c r="A107" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
+        <v>279</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108" ht="47" customHeight="1" spans="1:11">
       <c r="A108" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -5777,7 +5997,7 @@
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:11">
       <c r="A109" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5804,11 +6024,11 @@
       <c r="K110" s="7"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="25" t="s">
-        <v>268</v>
+      <c r="A111" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -5817,8 +6037,8 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="28" t="s">
-        <v>270</v>
+      <c r="A112" s="26" t="s">
+        <v>286</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -5828,8 +6048,8 @@
       <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="28" t="s">
-        <v>271</v>
+      <c r="A113" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -5839,8 +6059,8 @@
       <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="28" t="s">
-        <v>272</v>
+      <c r="A114" s="26" t="s">
+        <v>288</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -5850,8 +6070,8 @@
       <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="28" t="s">
-        <v>273</v>
+      <c r="A115" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5861,8 +6081,8 @@
       <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="28" t="s">
-        <v>274</v>
+      <c r="A116" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5872,8 +6092,8 @@
       <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="28" t="s">
-        <v>275</v>
+      <c r="A117" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5883,8 +6103,8 @@
       <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="28" t="s">
-        <v>276</v>
+      <c r="A118" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5894,8 +6114,8 @@
       <c r="C119" s="7"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="29" t="s">
-        <v>277</v>
+      <c r="A120" s="27" t="s">
+        <v>293</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>58</v>
@@ -5906,7 +6126,10 @@
         <v>43</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>278</v>
+        <v>294</v>
+      </c>
+      <c r="C121" t="s">
+        <v>295</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>62</v>
@@ -5921,7 +6144,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B123" s="7">
         <v>60</v>
@@ -5932,7 +6155,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B124" s="7">
         <v>60</v>
@@ -5962,7 +6185,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B127" s="7"/>
       <c r="H127" s="7" t="s">
@@ -5971,7 +6194,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B128" s="7">
         <v>300</v>
@@ -5988,125 +6211,246 @@
         <v>300</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="8:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
       <c r="H130" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="7"/>
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
       <c r="H131" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="7"/>
+      <c r="A132" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="H132" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="7"/>
+      <c r="A133" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="H133" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="7"/>
+      <c r="A134" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="H134" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="7"/>
+      <c r="A135" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="H135" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="8:8">
+    <row r="136" spans="1:8">
+      <c r="A136" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="H136" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="8:8">
-      <c r="H137" s="7" t="s">
+    <row r="137" spans="1:8">
+      <c r="A137" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>303</v>
+      </c>
+      <c r="H139" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="8:8">
-      <c r="H138" s="7" t="s">
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>304</v>
+      </c>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>305</v>
+      </c>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>306</v>
+      </c>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>307</v>
+      </c>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>90</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145">
+        <v>90</v>
+      </c>
+      <c r="H145" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="8:8">
-      <c r="H139" s="7" t="s">
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>90</v>
+      </c>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>90</v>
+      </c>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148">
+        <v>1000</v>
+      </c>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149">
+        <v>1200</v>
+      </c>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="8:8">
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="8:8">
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="8:8">
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="8:8">
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="8:8">
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="8:8">
+      <c r="H155" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="140" ht="20.25" spans="1:1">
-      <c r="A140" s="31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B141" s="7"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="143" ht="17" customHeight="1" spans="1:1">
-      <c r="A143" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="B151" s="35"/>
+    <row r="156" ht="20.25" spans="1:1">
+      <c r="A156" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" ht="17" customHeight="1" spans="1:1">
+      <c r="A159" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B167" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6124,8 +6468,8 @@
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="B117:G117"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A167:B167"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B79:B81"/>
   </mergeCells>

--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -668,6 +668,258 @@
     <t>导弹塔</t>
   </si>
   <si>
+    <t>玩家所有可建造建筑(待补充)</t>
+  </si>
+  <si>
+    <t>名字：</t>
+  </si>
+  <si>
+    <t>每日收益（建造完下一天生效）</t>
+  </si>
+  <si>
+    <t>提供人口</t>
+  </si>
+  <si>
+    <t>消耗金币(有前置的建筑的为升级费用)</t>
+  </si>
+  <si>
+    <t>消耗木材</t>
+  </si>
+  <si>
+    <t>需要前置科技</t>
+  </si>
+  <si>
+    <t>前置建筑</t>
+  </si>
+  <si>
+    <t>建造时间或升级时间</t>
+  </si>
+  <si>
+    <t>建筑上限数量</t>
+  </si>
+  <si>
+    <t>民房Lv1</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>建造时间30秒</t>
+  </si>
+  <si>
+    <t>4种建筑数量不能加起来150个</t>
+  </si>
+  <si>
+    <t>民房Lv2</t>
+  </si>
+  <si>
+    <t>建造时间10秒</t>
+  </si>
+  <si>
+    <t>民房Lv3</t>
+  </si>
+  <si>
+    <t>lv3木屋技术</t>
+  </si>
+  <si>
+    <t>建造时间15秒</t>
+  </si>
+  <si>
+    <t>民房Lv4</t>
+  </si>
+  <si>
+    <t>lv4石屋技术</t>
+  </si>
+  <si>
+    <t>建造时间20秒</t>
+  </si>
+  <si>
+    <t>渔场Lv1</t>
+  </si>
+  <si>
+    <t>渔场Lv2</t>
+  </si>
+  <si>
+    <t>渔场Lv3</t>
+  </si>
+  <si>
+    <t>农场lv1</t>
+  </si>
+  <si>
+    <t>建造时间5秒</t>
+  </si>
+  <si>
+    <t>农场lv2</t>
+  </si>
+  <si>
+    <t>高级农场</t>
+  </si>
+  <si>
+    <t>农场lv3</t>
+  </si>
+  <si>
+    <t>主城</t>
+  </si>
+  <si>
+    <t>主城(玩家必须造的，且为第一个建筑)</t>
+  </si>
+  <si>
+    <t>粮仓Lv1</t>
+  </si>
+  <si>
+    <t>整体收益追加10%</t>
+  </si>
+  <si>
+    <t>建造时间60秒</t>
+  </si>
+  <si>
+    <t>3种建筑加起来不能超过1个</t>
+  </si>
+  <si>
+    <t>粮仓Lv2</t>
+  </si>
+  <si>
+    <t>整体收益追加20%</t>
+  </si>
+  <si>
+    <t>建造时间80秒</t>
+  </si>
+  <si>
+    <t>粮仓Lv3</t>
+  </si>
+  <si>
+    <t>整体收益追加35%</t>
+  </si>
+  <si>
+    <t>高级粮仓技术</t>
+  </si>
+  <si>
+    <t>建造时间100秒</t>
+  </si>
+  <si>
+    <t>兵工厂Lv1</t>
+  </si>
+  <si>
+    <t>兵工厂Lv2</t>
+  </si>
+  <si>
+    <t>开发高级兵工厂</t>
+  </si>
+  <si>
+    <t>升级时间30秒</t>
+  </si>
+  <si>
+    <t>兵工厂Lv3</t>
+  </si>
+  <si>
+    <t>研究究极兵工厂</t>
+  </si>
+  <si>
+    <t>伐木场Lv1</t>
+  </si>
+  <si>
+    <t>伐木场Lv2</t>
+  </si>
+  <si>
+    <t>基础研究所</t>
+  </si>
+  <si>
+    <t>所有科技都在这里研究</t>
+  </si>
+  <si>
+    <t>作战研究所</t>
+  </si>
+  <si>
+    <t>研究作战研究所</t>
+  </si>
+  <si>
+    <t>高级研究所</t>
+  </si>
+  <si>
+    <t>研究高级研究所</t>
+  </si>
+  <si>
+    <t>机枪塔Lv1</t>
+  </si>
+  <si>
+    <t>机枪塔Lv2</t>
+  </si>
+  <si>
+    <t>升级时间60秒</t>
+  </si>
+  <si>
+    <t>塔基</t>
+  </si>
+  <si>
+    <t>不消耗</t>
+  </si>
+  <si>
+    <t>冰塔Lv1</t>
+  </si>
+  <si>
+    <t>研究冰塔Lv1</t>
+  </si>
+  <si>
+    <t>冰塔Lv2</t>
+  </si>
+  <si>
+    <t>研究冰塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>冰塔Lv3</t>
+  </si>
+  <si>
+    <t>研究冰塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
+    <t>火塔Lv1</t>
+  </si>
+  <si>
+    <t>研究火塔Lv1</t>
+  </si>
+  <si>
+    <t>火塔Lv2</t>
+  </si>
+  <si>
+    <t>研究火塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>火塔Lv3</t>
+  </si>
+  <si>
+    <t>研究火塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
+    <t>电塔Lv1</t>
+  </si>
+  <si>
+    <t>研究电塔Lv1</t>
+  </si>
+  <si>
+    <t>电塔Lv2</t>
+  </si>
+  <si>
+    <t>研究电塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>炮塔Lv1</t>
+  </si>
+  <si>
+    <t>研究炮塔Lv1</t>
+  </si>
+  <si>
+    <t>炮塔Lv2</t>
+  </si>
+  <si>
+    <t>研究炮塔Lv1、Lv2</t>
+  </si>
+  <si>
+    <t>炮塔Lv3</t>
+  </si>
+  <si>
+    <t>研究炮塔Lv1、Lv2、Lv3</t>
+  </si>
+  <si>
     <t>横墙1级</t>
   </si>
   <si>
@@ -696,258 +948,6 @@
   </si>
   <si>
     <t>石们</t>
-  </si>
-  <si>
-    <t>玩家所有可建造建筑(待补充)</t>
-  </si>
-  <si>
-    <t>名字：</t>
-  </si>
-  <si>
-    <t>建筑上限数量</t>
-  </si>
-  <si>
-    <t>每日收益（建造完下一天生效）</t>
-  </si>
-  <si>
-    <t>提供人口</t>
-  </si>
-  <si>
-    <t>消耗金币(有前置的建筑的为升级费用)</t>
-  </si>
-  <si>
-    <t>消耗木材</t>
-  </si>
-  <si>
-    <t>需要前置科技</t>
-  </si>
-  <si>
-    <t>前置建筑</t>
-  </si>
-  <si>
-    <t>建造时间或升级时间</t>
-  </si>
-  <si>
-    <t>民房Lv1</t>
-  </si>
-  <si>
-    <t>4种建筑数量不能加起来150个</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>建造时间30秒</t>
-  </si>
-  <si>
-    <t>民房Lv2</t>
-  </si>
-  <si>
-    <t>建造时间10秒</t>
-  </si>
-  <si>
-    <t>民房Lv3</t>
-  </si>
-  <si>
-    <t>lv3木屋技术</t>
-  </si>
-  <si>
-    <t>建造时间15秒</t>
-  </si>
-  <si>
-    <t>民房Lv4</t>
-  </si>
-  <si>
-    <t>lv4石屋技术</t>
-  </si>
-  <si>
-    <t>建造时间20秒</t>
-  </si>
-  <si>
-    <t>渔场Lv1</t>
-  </si>
-  <si>
-    <t>渔场Lv2</t>
-  </si>
-  <si>
-    <t>渔场Lv3</t>
-  </si>
-  <si>
-    <t>农场lv1</t>
-  </si>
-  <si>
-    <t>建造时间5秒</t>
-  </si>
-  <si>
-    <t>农场lv2</t>
-  </si>
-  <si>
-    <t>高级农场</t>
-  </si>
-  <si>
-    <t>农场lv3</t>
-  </si>
-  <si>
-    <t>主城</t>
-  </si>
-  <si>
-    <t>主城(玩家必须造的，且为第一个建筑)</t>
-  </si>
-  <si>
-    <t>粮仓Lv1</t>
-  </si>
-  <si>
-    <t>3种建筑加起来不能超过1个</t>
-  </si>
-  <si>
-    <t>整体收益追加10%</t>
-  </si>
-  <si>
-    <t>建造时间60秒</t>
-  </si>
-  <si>
-    <t>粮仓Lv2</t>
-  </si>
-  <si>
-    <t>整体收益追加20%</t>
-  </si>
-  <si>
-    <t>建造时间80秒</t>
-  </si>
-  <si>
-    <t>粮仓Lv3</t>
-  </si>
-  <si>
-    <t>整体收益追加35%</t>
-  </si>
-  <si>
-    <t>高级粮仓技术</t>
-  </si>
-  <si>
-    <t>建造时间100秒</t>
-  </si>
-  <si>
-    <t>兵工厂Lv1</t>
-  </si>
-  <si>
-    <t>兵工厂Lv2</t>
-  </si>
-  <si>
-    <t>开发高级兵工厂</t>
-  </si>
-  <si>
-    <t>升级时间30秒</t>
-  </si>
-  <si>
-    <t>兵工厂Lv3</t>
-  </si>
-  <si>
-    <t>研究究极兵工厂</t>
-  </si>
-  <si>
-    <t>伐木场Lv1</t>
-  </si>
-  <si>
-    <t>伐木场Lv2</t>
-  </si>
-  <si>
-    <t>基础研究所</t>
-  </si>
-  <si>
-    <t>所有科技都在这里研究</t>
-  </si>
-  <si>
-    <t>作战研究所</t>
-  </si>
-  <si>
-    <t>研究作战研究所</t>
-  </si>
-  <si>
-    <t>高级研究所</t>
-  </si>
-  <si>
-    <t>研究高级研究所</t>
-  </si>
-  <si>
-    <t>机枪塔Lv1</t>
-  </si>
-  <si>
-    <t>机枪塔Lv2</t>
-  </si>
-  <si>
-    <t>升级时间60秒</t>
-  </si>
-  <si>
-    <t>塔基</t>
-  </si>
-  <si>
-    <t>不消耗</t>
-  </si>
-  <si>
-    <t>冰塔Lv1</t>
-  </si>
-  <si>
-    <t>研究冰塔Lv1</t>
-  </si>
-  <si>
-    <t>冰塔Lv2</t>
-  </si>
-  <si>
-    <t>研究冰塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>冰塔Lv3</t>
-  </si>
-  <si>
-    <t>研究冰塔Lv1、Lv2、Lv3</t>
-  </si>
-  <si>
-    <t>火塔Lv1</t>
-  </si>
-  <si>
-    <t>研究火塔Lv1</t>
-  </si>
-  <si>
-    <t>火塔Lv2</t>
-  </si>
-  <si>
-    <t>研究火塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>火塔Lv3</t>
-  </si>
-  <si>
-    <t>研究火塔Lv1、Lv2、Lv3</t>
-  </si>
-  <si>
-    <t>电塔Lv1</t>
-  </si>
-  <si>
-    <t>研究电塔Lv1</t>
-  </si>
-  <si>
-    <t>电塔Lv2</t>
-  </si>
-  <si>
-    <t>研究电塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>炮塔Lv1</t>
-  </si>
-  <si>
-    <t>研究炮塔Lv1</t>
-  </si>
-  <si>
-    <t>炮塔Lv2</t>
-  </si>
-  <si>
-    <t>研究炮塔Lv1、Lv2</t>
-  </si>
-  <si>
-    <t>炮塔Lv3</t>
-  </si>
-  <si>
-    <t>研究炮塔Lv1、Lv2、Lv3</t>
   </si>
   <si>
     <t>僵尸建筑</t>
@@ -1167,8 +1167,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1236,8 +1236,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1245,14 +1267,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1266,44 +1295,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,31 +1344,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,22 +1375,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1443,7 +1443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,13 +1527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,43 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,49 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,39 +1620,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1663,6 +1630,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,19 +1661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1716,6 +1681,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1724,10 +1724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1736,154 +1736,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1918,59 +1921,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2601,12 +2604,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2621,12 +2624,12 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2641,56 +2644,56 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
     </row>
     <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
     </row>
     <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2700,16 +2703,16 @@
       </c>
     </row>
     <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="40"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
@@ -2722,28 +2725,28 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
     </row>
     <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2753,43 +2756,43 @@
       </c>
     </row>
     <row r="33" ht="67.5" spans="1:1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
     </row>
     <row r="36" ht="67.5" spans="1:1">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="41"/>
+      <c r="A38" s="42"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:1">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="26" customFormat="1" spans="1:1">
-      <c r="A42" s="26" t="s">
+    <row r="42" s="35" customFormat="1" spans="1:1">
+      <c r="A42" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2799,20 +2802,20 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2946,1422 +2949,1424 @@
   <sheetPr/>
   <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="30.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="36" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1333333333333" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3833333333333" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6333333333333" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="36" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="48.5" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="34.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.8833333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.8833333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="36" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1333333333333" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.3833333333333" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6333333333333" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="34.3833333333333" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:14">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:14">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>100</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="7">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>85</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>100</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="M6" s="7">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>360</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>522</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="M7" s="7">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="M7" s="8">
         <v>1.5</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>200</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>400</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="M8" s="7">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="8">
         <v>1.5</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>450</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>250</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="M9" s="7">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>850</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>200</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="M10" s="7">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>240</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>300</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="8">
         <v>2.5</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>2000</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>200</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>2500</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>150</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>4500</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>200</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="M14" s="7">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8">
         <v>4</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>5000</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>10</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>200</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="7">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8">
         <v>4.5</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>6500</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>10</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>200</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="M22" s="7">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8">
         <v>4.5</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>3500</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>200</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="8">
         <v>4</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:14">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>4500</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>10</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>200</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="8">
         <v>4.5</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>1800</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>2</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
         <v>1</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>180</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="8">
         <v>4.5</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>6750</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>20</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <v>100</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="8">
         <v>5</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>3500</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
         <v>1</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>100</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="8">
         <v>5</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>50000</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>30</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>100</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="8">
         <v>6</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>100000</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8">
         <v>200</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:14">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>80</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>0</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>650</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>10</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>1</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>300</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="8">
         <v>1</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>150</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>0</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>600</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>12</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <v>200</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="6">
         <v>2</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="8">
         <v>1.5</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>120</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>1200</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>15</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>1</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <v>150</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="8">
         <v>1.5</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>550</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>0</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>300</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>20</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <v>200</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="6">
         <v>3</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="8">
         <v>2</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>260</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>900</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>35</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <v>150</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="6">
         <v>4</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="8">
         <v>2.5</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:14">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="17">
         <v>1200</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="17">
         <v>0</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="17">
         <v>650</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="17">
         <v>30</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="17">
         <v>1</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="17">
         <v>200</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="M36" s="16">
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="M36" s="17">
         <v>2.5</v>
       </c>
-      <c r="N36" s="16"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>1050</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>5</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>30</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>1</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <v>200</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
         <v>4</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="8">
         <v>3</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:14">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="17">
         <v>750</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="17">
         <v>5</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="17">
         <v>650</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="17">
         <v>30</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="17">
         <v>1</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="17">
         <v>200</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="17">
         <v>3</v>
       </c>
-      <c r="N38" s="16"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>2350</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <v>5</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
         <v>35</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="8">
         <v>1</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="8">
         <v>200</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39">
+      <c r="K39" s="8"/>
+      <c r="L39" s="6">
         <v>5</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="8">
         <v>3.5</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>200</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>0</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>2</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>450</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>0</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>2</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>50</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="8">
         <v>1</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>600</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>0</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>2</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="8">
         <v>60</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="8">
         <v>1</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>1350</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <v>0</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <v>0.5</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>550</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="8">
         <v>60</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="8">
         <v>1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="8">
         <v>522</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="6">
         <v>3</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>1200</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>500</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="8">
         <v>60</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="8">
         <v>1</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="8">
         <v>523</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44">
+      <c r="K44" s="8"/>
+      <c r="L44" s="6">
         <v>3</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>1000</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>0</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>1</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>600</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>60</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>5</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>524</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45">
+      <c r="K45" s="8"/>
+      <c r="L45" s="6">
         <v>3</v>
       </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="8">
         <v>1150</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>1</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>0.5</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>600</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>60</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="8">
         <v>1</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="8">
         <v>525</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="6">
         <v>3</v>
       </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="13"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:13">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="17">
         <v>1500</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4379,2082 +4384,2139 @@
       <c r="G48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="17">
         <v>3</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="17">
         <v>0</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M48" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>2500</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="18">
         <v>5</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="18">
         <v>0.2</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="8">
         <v>1</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="8">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="8">
         <v>4</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="8">
         <v>2000</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="18">
         <v>5</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="18">
         <v>1</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="8">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>2500</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="18">
         <v>5</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="18">
         <v>2</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="8">
         <v>1</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="8">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="8">
         <v>3000</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="18">
         <v>5</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="18">
         <v>1</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="8">
         <v>1</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="8">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:13">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>3000</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="18">
         <v>5</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="8">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" t="s">
+      <c r="A55" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M56" s="6"/>
+      <c r="N56" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2</v>
+      </c>
+      <c r="G57" s="8">
+        <v>10</v>
+      </c>
+      <c r="H57" s="8">
+        <v>10</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>3</v>
+      </c>
+      <c r="G58" s="8">
+        <v>20</v>
+      </c>
+      <c r="H58" s="8">
+        <v>20</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="24"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>5</v>
+      </c>
+      <c r="G59" s="8">
+        <v>70</v>
+      </c>
+      <c r="H59" s="8">
+        <v>70</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="24"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="8">
+        <v>4</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>8</v>
+      </c>
+      <c r="G60" s="8">
+        <v>100</v>
+      </c>
+      <c r="H60" s="8">
+        <v>100</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="8">
+        <v>3</v>
+      </c>
+      <c r="E61" s="8">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>15</v>
+      </c>
+      <c r="H61" s="8">
+        <v>7</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="8">
+        <v>7</v>
+      </c>
+      <c r="E62" s="8">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
+        <v>25</v>
+      </c>
+      <c r="H62" s="8">
+        <v>30</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="8">
+        <v>15</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M63" s="6"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="8">
+        <v>7</v>
+      </c>
+      <c r="E64" s="8">
+        <v>2</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8">
+        <v>30</v>
+      </c>
+      <c r="H64" s="8">
+        <v>60</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M64" s="6"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="8">
+        <v>15</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0</v>
+      </c>
+      <c r="G65" s="8">
+        <v>70</v>
+      </c>
+      <c r="H65" s="8">
+        <v>130</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:14">
+      <c r="A66" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="8">
+        <v>30</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="8">
+        <v>50</v>
+      </c>
+      <c r="E67" s="8">
+        <v>10</v>
+      </c>
+      <c r="F67" s="8">
+        <v>20</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
+        <v>350</v>
+      </c>
+      <c r="H68" s="8">
+        <v>350</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
+        <v>800</v>
+      </c>
+      <c r="H69" s="8">
+        <v>800</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M69" s="6"/>
+      <c r="N69" s="24"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H70" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M70" s="6"/>
+      <c r="N70" s="24"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="8">
+        <v>-2</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
+        <v>50</v>
+      </c>
+      <c r="H71" s="8">
+        <v>25</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M71" s="6"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
+        <v>100</v>
+      </c>
+      <c r="H72" s="8">
+        <v>50</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M72" s="6"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="8">
+        <v>-10</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
+        <v>300</v>
+      </c>
+      <c r="H73" s="8">
+        <v>150</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M73" s="6"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+      <c r="G74" s="8">
+        <v>20</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="8">
+        <v>-2</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8">
+        <v>10</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="8">
+        <v>-2</v>
+      </c>
+      <c r="E76" s="8">
+        <v>5</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L76" s="8">
+        <v>60</v>
+      </c>
+      <c r="M76" s="6"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E77" s="8">
+        <v>5</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
+        <v>300</v>
+      </c>
+      <c r="H77" s="8">
+        <v>300</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L77" s="8">
+        <v>60</v>
+      </c>
+      <c r="M77" s="6"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E78" s="8">
+        <v>5</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
+        <v>300</v>
+      </c>
+      <c r="H78" s="8">
+        <v>300</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L78" s="8">
+        <v>60</v>
+      </c>
+      <c r="M78" s="6"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="22">
+        <v>-3</v>
+      </c>
+      <c r="E79" s="22">
+        <v>2</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>10</v>
+      </c>
+      <c r="H79" s="22">
         <v>500</v>
       </c>
-      <c r="D55">
+      <c r="I79" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="22"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="22">
+        <v>-5</v>
+      </c>
+      <c r="E80" s="22">
+        <v>3</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>20</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1000</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="22"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
+        <v>10</v>
+      </c>
+      <c r="H81" s="8">
+        <v>10</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M81" s="6"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E82" s="8">
         <v>5</v>
       </c>
-      <c r="K55" t="s">
+      <c r="F82" s="8">
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0</v>
+      </c>
+      <c r="H82" s="8">
+        <v>450</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M82" s="6"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="8">
+        <v>-7</v>
+      </c>
+      <c r="E83" s="8">
+        <v>6</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>100</v>
+      </c>
+      <c r="H83" s="8">
+        <v>700</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M83" s="6"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8">
+        <v>-10</v>
+      </c>
+      <c r="E84" s="8">
+        <v>7</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>200</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1200</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M84" s="6"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E85" s="8">
+        <v>5</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>10</v>
+      </c>
+      <c r="H85" s="8">
+        <v>450</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="8">
+        <v>-7</v>
+      </c>
+      <c r="E86" s="8">
+        <v>6</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>30</v>
+      </c>
+      <c r="H86" s="8">
+        <v>700</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="8">
+        <v>-10</v>
+      </c>
+      <c r="E87" s="8">
+        <v>7</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>50</v>
+      </c>
+      <c r="H87" s="8">
+        <v>1200</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M87" s="6"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E88" s="8">
+        <v>5</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0</v>
+      </c>
+      <c r="G88" s="8">
+        <v>10</v>
+      </c>
+      <c r="H88" s="8">
+        <v>500</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M88" s="6"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8">
+        <v>-10</v>
+      </c>
+      <c r="E89" s="8">
+        <v>5</v>
+      </c>
+      <c r="F89" s="8">
+        <v>0</v>
+      </c>
+      <c r="G89" s="8">
+        <v>20</v>
+      </c>
+      <c r="H89" s="8">
+        <v>850</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M89" s="6"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:14">
+      <c r="A90" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E90" s="8">
+        <v>9</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0</v>
+      </c>
+      <c r="G90" s="8">
+        <v>100</v>
+      </c>
+      <c r="H90" s="8">
+        <v>550</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:14">
+      <c r="A91" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E91" s="8">
+        <v>9</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>150</v>
+      </c>
+      <c r="H91" s="8">
+        <v>700</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E92" s="8">
+        <v>9</v>
+      </c>
+      <c r="F92" s="8">
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>300</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1200</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M92" s="6"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="6">
+        <v>500</v>
+      </c>
+      <c r="D93" s="6">
+        <v>5</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L93" s="6">
+        <v>700</v>
+      </c>
+      <c r="M93" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="6">
+        <v>600</v>
+      </c>
+      <c r="D94" s="6">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L94" s="6">
+        <v>1200</v>
+      </c>
+      <c r="M94" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="6">
+        <v>900</v>
+      </c>
+      <c r="D95" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D96" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="6">
+        <v>3600</v>
+      </c>
+      <c r="D97" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" s="6">
+        <v>500</v>
+      </c>
+      <c r="D98" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="6">
+        <v>600</v>
+      </c>
+      <c r="D99" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="6">
+        <v>900</v>
+      </c>
+      <c r="D100" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D101" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="6">
+        <v>3600</v>
+      </c>
+      <c r="D102" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="6">
+        <v>500</v>
+      </c>
+      <c r="D103" s="6">
+        <v>10</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L103" s="6">
+        <v>800</v>
+      </c>
+      <c r="M103" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" s="5" customFormat="1" spans="1:11">
+      <c r="A104" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="L55">
-        <v>700</v>
-      </c>
-      <c r="M55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56">
-        <v>600</v>
-      </c>
-      <c r="D56">
-        <v>10</v>
-      </c>
-      <c r="K56" t="s">
-        <v>177</v>
-      </c>
-      <c r="L56">
+      <c r="B105" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" ht="60" customHeight="1" spans="1:13">
+      <c r="A106" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K106" s="8">
+        <v>2</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" ht="57" customHeight="1" spans="1:11">
+      <c r="A107" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" ht="47" customHeight="1" spans="1:11">
+      <c r="A108" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" ht="50" customHeight="1" spans="1:11">
+      <c r="A109" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110" ht="50" customHeight="1" spans="1:11">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="H122" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" s="8">
+        <v>60</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="8">
+        <v>60</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8">
+        <v>300</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="H127" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" s="8">
+        <v>300</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="8">
+        <v>300</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="6">
+        <v>90</v>
+      </c>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" s="6">
+        <v>90</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="6">
+        <v>90</v>
+      </c>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="6">
+        <v>90</v>
+      </c>
+      <c r="H147" s="8"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H148" s="8"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" s="6">
         <v>1200</v>
       </c>
-      <c r="M56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57">
-        <v>900</v>
-      </c>
-      <c r="D57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58">
-        <v>1800</v>
-      </c>
-      <c r="D58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59">
-        <v>3600</v>
-      </c>
-      <c r="D59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60">
-        <v>500</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61">
-        <v>600</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62">
-        <v>900</v>
-      </c>
-      <c r="D62">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63">
-        <v>1800</v>
-      </c>
-      <c r="D63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64">
-        <v>3600</v>
-      </c>
-      <c r="D64">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65">
-        <v>500</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="K65" t="s">
-        <v>183</v>
-      </c>
-      <c r="L65">
-        <v>800</v>
-      </c>
-      <c r="M65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:11">
-      <c r="A66" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K67" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="7">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7">
-        <v>0</v>
-      </c>
-      <c r="E68" s="7">
-        <v>2</v>
-      </c>
-      <c r="F68" s="7">
-        <v>10</v>
-      </c>
-      <c r="G68" s="7">
-        <v>10</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="7">
-        <v>2</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
-        <v>3</v>
-      </c>
-      <c r="F69" s="7">
-        <v>20</v>
-      </c>
-      <c r="G69" s="7">
-        <v>20</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="7">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0</v>
-      </c>
-      <c r="E70" s="7">
-        <v>5</v>
-      </c>
-      <c r="F70" s="7">
-        <v>70</v>
-      </c>
-      <c r="G70" s="7">
-        <v>70</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="7">
-        <v>4</v>
-      </c>
-      <c r="D71" s="7">
-        <v>0</v>
-      </c>
-      <c r="E71" s="7">
-        <v>8</v>
-      </c>
-      <c r="F71" s="7">
-        <v>100</v>
-      </c>
-      <c r="G71" s="7">
-        <v>100</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>15</v>
-      </c>
-      <c r="G72" s="7">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7">
-        <v>7</v>
-      </c>
-      <c r="D73" s="7">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>25</v>
-      </c>
-      <c r="G73" s="7">
-        <v>30</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7">
-        <v>15</v>
-      </c>
-      <c r="D74" s="7">
-        <v>1</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7">
-        <v>7</v>
-      </c>
-      <c r="D75" s="7">
-        <v>2</v>
-      </c>
-      <c r="E75" s="7">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>30</v>
-      </c>
-      <c r="G75" s="7">
-        <v>60</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7">
-        <v>15</v>
-      </c>
-      <c r="D76" s="7">
-        <v>2</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>70</v>
-      </c>
-      <c r="G76" s="7">
-        <v>130</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7">
-        <v>30</v>
-      </c>
-      <c r="D77" s="7">
-        <v>2</v>
-      </c>
-      <c r="E77" s="7">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="7">
-        <v>1</v>
-      </c>
-      <c r="C78" s="7">
-        <v>50</v>
-      </c>
-      <c r="D78" s="7">
-        <v>10</v>
-      </c>
-      <c r="E78" s="7">
-        <v>20</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K78" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="7">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>350</v>
-      </c>
-      <c r="G79" s="7">
-        <v>350</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="7">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>800</v>
-      </c>
-      <c r="G80" s="7">
-        <v>800</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="7">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G81" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D82" s="7">
-        <v>1</v>
-      </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>50</v>
-      </c>
-      <c r="G82" s="7">
-        <v>25</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D83" s="7">
-        <v>1</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>100</v>
-      </c>
-      <c r="G83" s="7">
-        <v>50</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7">
-        <v>-10</v>
-      </c>
-      <c r="D84" s="7">
-        <v>1</v>
-      </c>
-      <c r="E84" s="7">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>300</v>
-      </c>
-      <c r="G84" s="7">
-        <v>150</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D85" s="7">
-        <v>1</v>
-      </c>
-      <c r="E85" s="7">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>20</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D86" s="7">
-        <v>1</v>
-      </c>
-      <c r="E86" s="7">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D87" s="7">
-        <v>5</v>
-      </c>
-      <c r="E87" s="7">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K87" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D88" s="7">
-        <v>5</v>
-      </c>
-      <c r="E88" s="7">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>300</v>
-      </c>
-      <c r="G88" s="7">
-        <v>300</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K88" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D89" s="7">
-        <v>5</v>
-      </c>
-      <c r="E89" s="7">
-        <v>0</v>
-      </c>
-      <c r="F89" s="7">
-        <v>300</v>
-      </c>
-      <c r="G89" s="7">
-        <v>300</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K89" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="1:11">
-      <c r="A90" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19">
-        <v>-3</v>
-      </c>
-      <c r="D90" s="19">
-        <v>2</v>
-      </c>
-      <c r="E90" s="19">
-        <v>0</v>
-      </c>
-      <c r="F90" s="19">
-        <v>10</v>
-      </c>
-      <c r="G90" s="19">
-        <v>500</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="1:11">
-      <c r="A91" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19">
-        <v>-5</v>
-      </c>
-      <c r="D91" s="19">
-        <v>3</v>
-      </c>
-      <c r="E91" s="19">
-        <v>0</v>
-      </c>
-      <c r="F91" s="19">
-        <v>20</v>
-      </c>
-      <c r="G91" s="19">
-        <v>1000</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D92" s="7">
-        <v>1</v>
-      </c>
-      <c r="E92" s="7">
-        <v>0</v>
-      </c>
-      <c r="F92" s="7">
-        <v>10</v>
-      </c>
-      <c r="G92" s="7">
-        <v>10</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D93" s="7">
-        <v>5</v>
-      </c>
-      <c r="E93" s="7">
-        <v>0</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0</v>
-      </c>
-      <c r="G93" s="7">
-        <v>450</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7">
-        <v>-7</v>
-      </c>
-      <c r="D94" s="7">
-        <v>6</v>
-      </c>
-      <c r="E94" s="7">
-        <v>0</v>
-      </c>
-      <c r="F94" s="7">
-        <v>100</v>
-      </c>
-      <c r="G94" s="7">
-        <v>700</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7">
-        <v>-10</v>
-      </c>
-      <c r="D95" s="7">
-        <v>7</v>
-      </c>
-      <c r="E95" s="7">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7">
-        <v>200</v>
-      </c>
-      <c r="G95" s="7">
-        <v>1200</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D96" s="7">
-        <v>5</v>
-      </c>
-      <c r="E96" s="7">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7">
-        <v>10</v>
-      </c>
-      <c r="G96" s="7">
-        <v>450</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7">
-        <v>-7</v>
-      </c>
-      <c r="D97" s="7">
-        <v>6</v>
-      </c>
-      <c r="E97" s="7">
-        <v>0</v>
-      </c>
-      <c r="F97" s="7">
-        <v>30</v>
-      </c>
-      <c r="G97" s="7">
-        <v>700</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7">
-        <v>-10</v>
-      </c>
-      <c r="D98" s="7">
-        <v>7</v>
-      </c>
-      <c r="E98" s="7">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7">
-        <v>50</v>
-      </c>
-      <c r="G98" s="7">
-        <v>1200</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D99" s="7">
-        <v>5</v>
-      </c>
-      <c r="E99" s="7">
-        <v>0</v>
-      </c>
-      <c r="F99" s="7">
-        <v>10</v>
-      </c>
-      <c r="G99" s="7">
-        <v>500</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7">
-        <v>-10</v>
-      </c>
-      <c r="D100" s="7">
-        <v>5</v>
-      </c>
-      <c r="E100" s="7">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7">
-        <v>20</v>
-      </c>
-      <c r="G100" s="7">
-        <v>850</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D101" s="7">
-        <v>9</v>
-      </c>
-      <c r="E101" s="7">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>100</v>
-      </c>
-      <c r="G101" s="7">
-        <v>550</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D102" s="7">
-        <v>9</v>
-      </c>
-      <c r="E102" s="7">
-        <v>0</v>
-      </c>
-      <c r="F102" s="7">
-        <v>150</v>
-      </c>
-      <c r="G102" s="7">
-        <v>700</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D103" s="7">
-        <v>9</v>
-      </c>
-      <c r="E103" s="7">
-        <v>0</v>
-      </c>
-      <c r="F103" s="7">
-        <v>300</v>
-      </c>
-      <c r="G103" s="7">
-        <v>1200</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" s="5" customFormat="1" spans="1:11">
-      <c r="A104" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="M105" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106" ht="60" customHeight="1" spans="1:13">
-      <c r="A106" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K106" s="7">
-        <v>2</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" ht="57" customHeight="1" spans="1:11">
-      <c r="A107" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-    </row>
-    <row r="108" ht="47" customHeight="1" spans="1:11">
-      <c r="A108" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-    </row>
-    <row r="109" ht="50" customHeight="1" spans="1:11">
-      <c r="A109" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-    </row>
-    <row r="110" ht="50" customHeight="1" spans="1:11">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C121" t="s">
-        <v>295</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="H122" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B123" s="7">
-        <v>60</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B124" s="7">
-        <v>60</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" s="7">
-        <v>300</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B127" s="7"/>
-      <c r="H127" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B128" s="7">
-        <v>300</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" s="7">
-        <v>300</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>254</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>256</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
-        <v>303</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>304</v>
-      </c>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>305</v>
-      </c>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>306</v>
-      </c>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>307</v>
-      </c>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144">
-        <v>90</v>
-      </c>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>308</v>
-      </c>
-      <c r="B145">
-        <v>90</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>90</v>
-      </c>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>90</v>
-      </c>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>212</v>
-      </c>
-      <c r="B148">
-        <v>1000</v>
-      </c>
-      <c r="H148" s="7"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>309</v>
-      </c>
-      <c r="B149">
-        <v>1200</v>
-      </c>
-      <c r="H149" s="7"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="8:8">
-      <c r="H150" s="7"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="8:8">
-      <c r="H151" s="7"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="8:8">
-      <c r="H152" s="7"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="8:8">
-      <c r="H153" s="7"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" spans="8:8">
-      <c r="H154" s="7"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="8:8">
-      <c r="H155" s="7" t="s">
+      <c r="H155" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="156" ht="20.25" spans="1:1">
-      <c r="A156" s="29" t="s">
+      <c r="A156" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="7"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="31" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="159" ht="17" customHeight="1" spans="1:1">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="31" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="A160" s="6" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="31" t="s">
+      <c r="A161" s="32" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="A162" s="6" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="A163" s="6" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="32" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="33" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="A166" s="6" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="33" t="s">
+      <c r="A167" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B167" s="33"/>
+      <c r="B167" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="B105:H105"/>
     <mergeCell ref="B106:H106"/>
@@ -6470,8 +6532,8 @@
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="A167:B167"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="N68:N70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\War3Map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="322">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -1163,14 +1168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,156 +1236,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1401,7 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,176 +1302,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1618,255 +1311,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,9 +1375,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,9 +1386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2017,74 +1462,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
-      <color rgb="00338FBD"/>
+      <color rgb="FF338FBD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2104,7 +1592,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2142,7 +1630,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2178,7 +1666,7 @@
           <xdr:row>104</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -2189,14 +1677,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="0" y="13130530"/>
-              <a:ext cx="7343775" cy="10668000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2225,7 +1724,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2257,7 +1756,7 @@
           <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -2268,14 +1767,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7696200" y="17693005"/>
-              <a:ext cx="6800850" cy="5400675"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2287,7 +1797,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2303,7 +1813,7 @@
           <xdr:row>63</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Object 1" hidden="1">
               <a:extLst>
@@ -2314,14 +1824,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="9525" y="276225"/>
-              <a:ext cx="7344410" cy="10668000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCE8CF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2340,7 +1861,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2584,12 +2105,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2603,13 +2124,13 @@
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:1" ht="31.5">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:1" ht="18">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2623,17 +2144,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:1" ht="21.75" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:1" ht="32.25" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="38.25" customHeight="1" spans="1:1">
+    <row r="8" spans="1:1" ht="38.25" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2644,178 +2165,178 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="38"/>
-    </row>
-    <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="37" t="s">
+      <c r="A11" s="36"/>
+    </row>
+    <row r="12" spans="1:1" ht="18">
+      <c r="A12" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:1">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="38"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="38"/>
-    </row>
-    <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="37" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="36"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:9" ht="14.25">
+      <c r="A21" s="38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:9" ht="27">
+      <c r="A23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="41"/>
-    </row>
-    <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="27">
+      <c r="A24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="42"/>
-    </row>
-    <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="43" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" ht="63.95" customHeight="1">
+      <c r="A28" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:1">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:9" ht="40.5">
+      <c r="A29" s="42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="45" t="s">
+    <row r="30" spans="1:9" ht="51.95" customHeight="1">
+      <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:9" ht="51" customHeight="1">
+      <c r="A31" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>-4</v>
       </c>
     </row>
-    <row r="33" ht="67.5" spans="1:1">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:8" ht="67.5">
+      <c r="A33" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:1">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:8" ht="27">
+      <c r="A34" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="46"/>
-    </row>
-    <row r="36" ht="67.5" spans="1:1">
-      <c r="A36" s="38" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="44"/>
+    </row>
+    <row r="36" spans="1:8" ht="67.5">
+      <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:8" ht="27">
+      <c r="A37" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="42"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="35" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="40"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" ht="67.5" spans="1:1">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:8" ht="67.5">
+      <c r="A40" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="35" customFormat="1" spans="1:1">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:8" s="33" customFormat="1">
+      <c r="A42" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" spans="8:8">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="H44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:8" ht="14.25">
+      <c r="A48" s="45"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="38" t="s">
+    <row r="107" spans="1:1" ht="39" customHeight="1">
+      <c r="A107" s="36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2830,16 +2351,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2858,13 +2379,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -2883,7 +2404,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2891,8 +2412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2901,24 +2421,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1" ht="22.5">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2937,7 +2457,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2945,34 +2465,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3833333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="27" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.8833333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.8833333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="36" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1333333333333" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3833333333333" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6333333333333" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.375" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="36" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="48.5" style="6" customWidth="1"/>
     <col min="12" max="12" width="18.375" style="6" customWidth="1"/>
     <col min="13" max="13" width="21.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="34.3833333333333" style="6" customWidth="1"/>
+    <col min="14" max="14" width="34.375" style="6" customWidth="1"/>
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:14">
+    <row r="1" spans="1:14" ht="22.5">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -3040,7 +2559,7 @@
       <c r="K3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="11" t="s">
@@ -3050,7 +2569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" spans="1:14" s="1" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
@@ -3410,22 +2929,22 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
@@ -3531,7 +3050,7 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" ht="12" customHeight="1" spans="1:14">
+    <row r="24" spans="1:14" ht="12" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>96</v>
       </c>
@@ -3739,7 +3258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:14">
+    <row r="30" spans="1:14" s="1" customFormat="1">
       <c r="A30" s="15" t="s">
         <v>113</v>
       </c>
@@ -3948,7 +3467,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:14">
+    <row r="36" spans="1:14" s="2" customFormat="1">
       <c r="A36" s="17" t="s">
         <v>128</v>
       </c>
@@ -4023,7 +3542,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:14">
+    <row r="38" spans="1:14" s="2" customFormat="1">
       <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
@@ -4228,7 +3747,7 @@
       <c r="I43" s="8">
         <v>522</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="21" t="s">
         <v>137</v>
       </c>
       <c r="K43" s="8" t="s">
@@ -4306,7 +3825,7 @@
       <c r="I45" s="8">
         <v>524</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="21" t="s">
         <v>137</v>
       </c>
       <c r="K45" s="8"/>
@@ -4356,13 +3875,13 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="1:14">
       <c r="C47" s="14"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:13">
+    <row r="48" spans="1:14" s="2" customFormat="1">
       <c r="A48" s="17" t="s">
         <v>154</v>
       </c>
@@ -4394,7 +3913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:20">
       <c r="A49" s="8" t="s">
         <v>157</v>
       </c>
@@ -4435,7 +3954,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:20">
       <c r="A50" s="8" t="s">
         <v>161</v>
       </c>
@@ -4470,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:20">
       <c r="A51" s="8" t="s">
         <v>165</v>
       </c>
@@ -4508,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:20">
       <c r="A52" s="8" t="s">
         <v>168</v>
       </c>
@@ -4546,7 +4065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" ht="12" customHeight="1" spans="1:13">
+    <row r="53" spans="1:20" ht="12" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>171</v>
       </c>
@@ -4581,1216 +4100,1193 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:20">
       <c r="A54" s="8" t="s">
         <v>173</v>
       </c>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:20">
+      <c r="A55" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:20">
       <c r="A56" s="8" t="s">
         <v>175</v>
       </c>
+      <c r="B56" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="D56" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="L56" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="M56" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="N56" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="O56" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="P56" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="Q56" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="R56" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="8" t="s">
+      <c r="T56" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:20">
       <c r="A57" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
       </c>
-      <c r="E57" s="8">
+      <c r="K57" s="8">
         <v>0</v>
       </c>
-      <c r="F57" s="8">
+      <c r="L57" s="8">
         <v>2</v>
       </c>
-      <c r="G57" s="8">
+      <c r="M57" s="8">
         <v>10</v>
       </c>
-      <c r="H57" s="8">
+      <c r="N57" s="8">
         <v>10</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="O57" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="P57" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8" t="s">
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="M57" s="6"/>
-      <c r="N57" s="24" t="s">
+      <c r="T57" s="52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:20">
       <c r="A58" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
       </c>
-      <c r="E58" s="8">
+      <c r="K58" s="8">
         <v>0</v>
       </c>
-      <c r="F58" s="8">
+      <c r="L58" s="8">
         <v>3</v>
       </c>
-      <c r="G58" s="8">
+      <c r="M58" s="8">
         <v>20</v>
       </c>
-      <c r="H58" s="8">
+      <c r="N58" s="8">
         <v>20</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="O58" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="P58" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8" t="s">
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="6"/>
-      <c r="N58" s="24"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="T58" s="52"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D59" s="8">
         <v>3</v>
       </c>
-      <c r="E59" s="8">
+      <c r="K59" s="8">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
+      <c r="L59" s="8">
         <v>5</v>
       </c>
-      <c r="G59" s="8">
+      <c r="M59" s="8">
         <v>70</v>
       </c>
-      <c r="H59" s="8">
+      <c r="N59" s="8">
         <v>70</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="O59" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="P59" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8" t="s">
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="24"/>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="T59" s="52"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D60" s="8">
         <v>4</v>
       </c>
-      <c r="E60" s="8">
+      <c r="K60" s="8">
         <v>0</v>
       </c>
-      <c r="F60" s="8">
+      <c r="L60" s="8">
         <v>8</v>
       </c>
-      <c r="G60" s="8">
+      <c r="M60" s="8">
         <v>100</v>
       </c>
-      <c r="H60" s="8">
+      <c r="N60" s="8">
         <v>100</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="O60" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="P60" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8" t="s">
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M60" s="6"/>
-      <c r="N60" s="24"/>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="T60" s="52"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D61" s="8">
         <v>3</v>
       </c>
-      <c r="E61" s="8">
+      <c r="K61" s="8">
         <v>1</v>
       </c>
-      <c r="F61" s="8">
+      <c r="L61" s="8">
         <v>0</v>
       </c>
-      <c r="G61" s="8">
+      <c r="M61" s="8">
         <v>15</v>
       </c>
-      <c r="H61" s="8">
+      <c r="N61" s="8">
         <v>7</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="O61" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="P61" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8" t="s">
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M61" s="6"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="T61" s="8"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D62" s="8">
         <v>7</v>
       </c>
-      <c r="E62" s="8">
+      <c r="K62" s="8">
         <v>1</v>
       </c>
-      <c r="F62" s="8">
+      <c r="L62" s="8">
         <v>0</v>
       </c>
-      <c r="G62" s="8">
+      <c r="M62" s="8">
         <v>25</v>
       </c>
-      <c r="H62" s="8">
+      <c r="N62" s="8">
         <v>30</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="O62" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="P62" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8" t="s">
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="M62" s="6"/>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="T62" s="8"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D63" s="8">
         <v>15</v>
       </c>
-      <c r="E63" s="8">
+      <c r="K63" s="8">
         <v>1</v>
       </c>
-      <c r="F63" s="8">
+      <c r="L63" s="8">
         <v>0</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="P63" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8" t="s">
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M63" s="6"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="T63" s="8"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D64" s="8">
         <v>7</v>
       </c>
-      <c r="E64" s="8">
+      <c r="K64" s="8">
         <v>2</v>
       </c>
-      <c r="F64" s="8">
+      <c r="L64" s="8">
         <v>0</v>
       </c>
-      <c r="G64" s="8">
+      <c r="M64" s="8">
         <v>30</v>
       </c>
-      <c r="H64" s="8">
+      <c r="N64" s="8">
         <v>60</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="O64" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="P64" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8" t="s">
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D65" s="8">
         <v>15</v>
       </c>
-      <c r="E65" s="8">
+      <c r="K65" s="8">
         <v>2</v>
       </c>
-      <c r="F65" s="8">
+      <c r="L65" s="8">
         <v>0</v>
       </c>
-      <c r="G65" s="8">
+      <c r="M65" s="8">
         <v>70</v>
       </c>
-      <c r="H65" s="8">
+      <c r="N65" s="8">
         <v>130</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="O65" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="P65" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8" t="s">
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M65" s="6"/>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:14">
+      <c r="T65" s="8"/>
+    </row>
+    <row r="66" spans="1:20" s="3" customFormat="1">
       <c r="A66" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D66" s="8">
         <v>30</v>
       </c>
-      <c r="E66" s="8">
+      <c r="K66" s="8">
         <v>2</v>
       </c>
-      <c r="F66" s="8">
+      <c r="L66" s="8">
         <v>0</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="P66" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8" t="s">
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="M66" s="6"/>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="S66" s="6"/>
+      <c r="T66" s="8"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D67" s="8">
         <v>50</v>
       </c>
-      <c r="E67" s="8">
+      <c r="K67" s="8">
         <v>10</v>
       </c>
-      <c r="F67" s="8">
+      <c r="L67" s="8">
         <v>20</v>
       </c>
-      <c r="G67" s="8">
+      <c r="M67" s="8">
         <v>0</v>
       </c>
-      <c r="H67" s="8">
+      <c r="N67" s="8">
         <v>0</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="O67" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="P67" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="Q67" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L67" s="8">
+      <c r="R67" s="8">
         <v>1</v>
       </c>
-      <c r="M67" s="6"/>
-      <c r="N67" s="8">
+      <c r="T67" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:20">
       <c r="A68" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E68" s="8">
+      <c r="K68" s="8">
         <v>1</v>
       </c>
-      <c r="F68" s="8">
+      <c r="L68" s="8">
         <v>0</v>
       </c>
-      <c r="G68" s="8">
+      <c r="M68" s="8">
         <v>350</v>
       </c>
-      <c r="H68" s="8">
+      <c r="N68" s="8">
         <v>350</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="O68" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="P68" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8" t="s">
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M68" s="6"/>
-      <c r="N68" s="24" t="s">
+      <c r="T68" s="52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:20">
       <c r="A69" s="8" t="s">
         <v>210</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="8">
+      <c r="K69" s="8">
         <v>1</v>
       </c>
-      <c r="F69" s="8">
+      <c r="L69" s="8">
         <v>0</v>
       </c>
-      <c r="G69" s="8">
+      <c r="M69" s="8">
         <v>800</v>
       </c>
-      <c r="H69" s="8">
+      <c r="N69" s="8">
         <v>800</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="O69" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="P69" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8" t="s">
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="6"/>
-      <c r="N69" s="24"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="T69" s="52"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="8">
+      <c r="K70" s="8">
         <v>1</v>
       </c>
-      <c r="F70" s="8">
+      <c r="L70" s="8">
         <v>0</v>
       </c>
-      <c r="G70" s="8">
+      <c r="M70" s="8">
         <v>1500</v>
       </c>
-      <c r="H70" s="8">
+      <c r="N70" s="8">
         <v>1500</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="O70" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="P70" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8" t="s">
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M70" s="6"/>
-      <c r="N70" s="24"/>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="T70" s="52"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D71" s="8">
         <v>-2</v>
       </c>
-      <c r="E71" s="8">
+      <c r="K71" s="8">
         <v>1</v>
       </c>
-      <c r="F71" s="8">
+      <c r="L71" s="8">
         <v>0</v>
       </c>
-      <c r="G71" s="8">
+      <c r="M71" s="8">
         <v>50</v>
       </c>
-      <c r="H71" s="8">
+      <c r="N71" s="8">
         <v>25</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="O71" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="P71" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8" t="s">
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M71" s="6"/>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="T71" s="8"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D72" s="8">
         <v>-5</v>
       </c>
-      <c r="E72" s="8">
+      <c r="K72" s="8">
         <v>1</v>
       </c>
-      <c r="F72" s="8">
+      <c r="L72" s="8">
         <v>0</v>
       </c>
-      <c r="G72" s="8">
+      <c r="M72" s="8">
         <v>100</v>
       </c>
-      <c r="H72" s="8">
+      <c r="N72" s="8">
         <v>50</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="O72" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="P72" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8" t="s">
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="M72" s="6"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="T72" s="8"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D73" s="8">
         <v>-10</v>
       </c>
-      <c r="E73" s="8">
+      <c r="K73" s="8">
         <v>1</v>
       </c>
-      <c r="F73" s="8">
+      <c r="L73" s="8">
         <v>0</v>
       </c>
-      <c r="G73" s="8">
+      <c r="M73" s="8">
         <v>300</v>
       </c>
-      <c r="H73" s="8">
+      <c r="N73" s="8">
         <v>150</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="O73" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="P73" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8" t="s">
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="M73" s="6"/>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="T73" s="8"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D74" s="8">
         <v>-5</v>
       </c>
-      <c r="E74" s="8">
+      <c r="K74" s="8">
         <v>1</v>
       </c>
-      <c r="F74" s="8">
+      <c r="L74" s="8">
         <v>0</v>
       </c>
-      <c r="G74" s="8">
+      <c r="M74" s="8">
         <v>20</v>
       </c>
-      <c r="H74" s="8">
+      <c r="N74" s="8">
         <v>0</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="O74" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="P74" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8" t="s">
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M74" s="6"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="T74" s="8"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D75" s="8">
         <v>-2</v>
       </c>
-      <c r="E75" s="8">
+      <c r="K75" s="8">
         <v>1</v>
       </c>
-      <c r="F75" s="8">
+      <c r="L75" s="8">
         <v>0</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8" t="s">
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="P75" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8">
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8">
         <v>10</v>
       </c>
-      <c r="M75" s="6"/>
-      <c r="N75" s="8"/>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="T75" s="8"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D76" s="8">
         <v>-2</v>
       </c>
-      <c r="E76" s="8">
+      <c r="K76" s="8">
         <v>5</v>
       </c>
-      <c r="F76" s="8">
+      <c r="L76" s="8">
         <v>0</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="P76" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="Q76" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L76" s="8">
+      <c r="R76" s="8">
         <v>60</v>
       </c>
-      <c r="M76" s="6"/>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="T76" s="8"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D77" s="8">
         <v>-5</v>
       </c>
-      <c r="E77" s="8">
+      <c r="K77" s="8">
         <v>5</v>
       </c>
-      <c r="F77" s="8">
+      <c r="L77" s="8">
         <v>0</v>
       </c>
-      <c r="G77" s="8">
+      <c r="M77" s="8">
         <v>300</v>
       </c>
-      <c r="H77" s="8">
+      <c r="N77" s="8">
         <v>300</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="O77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="P77" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="Q77" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L77" s="8">
+      <c r="R77" s="8">
         <v>60</v>
       </c>
-      <c r="M77" s="6"/>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="T77" s="8"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D78" s="8">
         <v>-5</v>
       </c>
-      <c r="E78" s="8">
+      <c r="K78" s="8">
         <v>5</v>
       </c>
-      <c r="F78" s="8">
+      <c r="L78" s="8">
         <v>0</v>
       </c>
-      <c r="G78" s="8">
+      <c r="M78" s="8">
         <v>300</v>
       </c>
-      <c r="H78" s="8">
+      <c r="N78" s="8">
         <v>300</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="O78" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="P78" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="Q78" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L78" s="8">
+      <c r="R78" s="8">
         <v>60</v>
       </c>
-      <c r="M78" s="6"/>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="22" t="s">
+      <c r="T78" s="8"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>-3</v>
       </c>
-      <c r="E79" s="22">
+      <c r="K79" s="21">
         <v>2</v>
       </c>
-      <c r="F79" s="22">
+      <c r="L79" s="21">
         <v>0</v>
       </c>
-      <c r="G79" s="22">
+      <c r="M79" s="21">
         <v>10</v>
       </c>
-      <c r="H79" s="22">
+      <c r="N79" s="21">
         <v>500</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="O79" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="P79" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22" t="s">
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="22"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="22" t="s">
+      <c r="S79" s="4"/>
+      <c r="T79" s="21"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="21">
         <v>-5</v>
       </c>
-      <c r="E80" s="22">
+      <c r="K80" s="21">
         <v>3</v>
       </c>
-      <c r="F80" s="22">
+      <c r="L80" s="21">
         <v>0</v>
       </c>
-      <c r="G80" s="22">
+      <c r="M80" s="21">
         <v>20</v>
       </c>
-      <c r="H80" s="22">
+      <c r="N80" s="21">
         <v>1000</v>
       </c>
-      <c r="I80" s="22" t="s">
+      <c r="O80" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="P80" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22" t="s">
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="22"/>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="S80" s="4"/>
+      <c r="T80" s="21"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="8" t="s">
         <v>234</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E81" s="8">
+      <c r="K81" s="8">
         <v>1</v>
       </c>
-      <c r="F81" s="8">
+      <c r="L81" s="8">
         <v>0</v>
       </c>
-      <c r="G81" s="8">
+      <c r="M81" s="8">
         <v>10</v>
       </c>
-      <c r="H81" s="8">
+      <c r="N81" s="8">
         <v>10</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="O81" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="P81" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8" t="s">
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M81" s="6"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="T81" s="8"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="8" t="s">
         <v>236</v>
       </c>
       <c r="D82" s="8">
         <v>-5</v>
       </c>
-      <c r="E82" s="8">
+      <c r="K82" s="8">
         <v>5</v>
       </c>
-      <c r="F82" s="8">
+      <c r="L82" s="8">
         <v>0</v>
       </c>
-      <c r="G82" s="8">
+      <c r="M82" s="8">
         <v>0</v>
       </c>
-      <c r="H82" s="8">
+      <c r="N82" s="8">
         <v>450</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="O82" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="P82" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8" t="s">
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M82" s="6"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="T82" s="8"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D83" s="8">
         <v>-7</v>
       </c>
-      <c r="E83" s="8">
+      <c r="K83" s="8">
         <v>6</v>
       </c>
-      <c r="F83" s="8">
+      <c r="L83" s="8">
         <v>0</v>
       </c>
-      <c r="G83" s="8">
+      <c r="M83" s="8">
         <v>100</v>
       </c>
-      <c r="H83" s="8">
+      <c r="N83" s="8">
         <v>700</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="O83" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="P83" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8" t="s">
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M83" s="6"/>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="T83" s="8"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D84" s="8">
         <v>-10</v>
       </c>
-      <c r="E84" s="8">
+      <c r="K84" s="8">
         <v>7</v>
       </c>
-      <c r="F84" s="8">
+      <c r="L84" s="8">
         <v>0</v>
       </c>
-      <c r="G84" s="8">
+      <c r="M84" s="8">
         <v>200</v>
       </c>
-      <c r="H84" s="8">
+      <c r="N84" s="8">
         <v>1200</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="O84" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="P84" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8" t="s">
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M84" s="6"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="T84" s="8"/>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D85" s="8">
         <v>-5</v>
       </c>
-      <c r="E85" s="8">
+      <c r="K85" s="8">
         <v>5</v>
       </c>
-      <c r="F85" s="8">
+      <c r="L85" s="8">
         <v>0</v>
       </c>
-      <c r="G85" s="8">
+      <c r="M85" s="8">
         <v>10</v>
       </c>
-      <c r="H85" s="8">
+      <c r="N85" s="8">
         <v>450</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="O85" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="P85" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8" t="s">
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M85" s="6"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="T85" s="8"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="8" t="s">
         <v>244</v>
       </c>
       <c r="D86" s="8">
         <v>-7</v>
       </c>
-      <c r="E86" s="8">
+      <c r="K86" s="8">
         <v>6</v>
       </c>
-      <c r="F86" s="8">
+      <c r="L86" s="8">
         <v>0</v>
       </c>
-      <c r="G86" s="8">
+      <c r="M86" s="8">
         <v>30</v>
       </c>
-      <c r="H86" s="8">
+      <c r="N86" s="8">
         <v>700</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="O86" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="P86" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8" t="s">
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M86" s="6"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="T86" s="8"/>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="8" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="8">
         <v>-10</v>
       </c>
-      <c r="E87" s="8">
+      <c r="K87" s="8">
         <v>7</v>
       </c>
-      <c r="F87" s="8">
+      <c r="L87" s="8">
         <v>0</v>
       </c>
-      <c r="G87" s="8">
+      <c r="M87" s="8">
         <v>50</v>
       </c>
-      <c r="H87" s="8">
+      <c r="N87" s="8">
         <v>1200</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="O87" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="P87" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8" t="s">
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M87" s="6"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="T87" s="8"/>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="8" t="s">
         <v>248</v>
       </c>
       <c r="D88" s="8">
         <v>-5</v>
       </c>
-      <c r="E88" s="8">
+      <c r="K88" s="8">
         <v>5</v>
       </c>
-      <c r="F88" s="8">
+      <c r="L88" s="8">
         <v>0</v>
       </c>
-      <c r="G88" s="8">
+      <c r="M88" s="8">
         <v>10</v>
       </c>
-      <c r="H88" s="8">
+      <c r="N88" s="8">
         <v>500</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="O88" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="P88" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8" t="s">
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M88" s="6"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="T88" s="8"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="8" t="s">
         <v>250</v>
       </c>
       <c r="D89" s="8">
         <v>-10</v>
       </c>
-      <c r="E89" s="8">
+      <c r="K89" s="8">
         <v>5</v>
       </c>
-      <c r="F89" s="8">
+      <c r="L89" s="8">
         <v>0</v>
       </c>
-      <c r="G89" s="8">
+      <c r="M89" s="8">
         <v>20</v>
       </c>
-      <c r="H89" s="8">
+      <c r="N89" s="8">
         <v>850</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="O89" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="P89" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8" t="s">
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M89" s="6"/>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="1:14">
+      <c r="T89" s="8"/>
+    </row>
+    <row r="90" spans="1:20" s="4" customFormat="1">
       <c r="A90" s="8" t="s">
         <v>252</v>
       </c>
       <c r="D90" s="8">
         <v>-5</v>
       </c>
-      <c r="E90" s="8">
+      <c r="K90" s="8">
         <v>9</v>
       </c>
-      <c r="F90" s="8">
+      <c r="L90" s="8">
         <v>0</v>
       </c>
-      <c r="G90" s="8">
+      <c r="M90" s="8">
         <v>100</v>
       </c>
-      <c r="H90" s="8">
+      <c r="N90" s="8">
         <v>550</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="O90" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="P90" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8" t="s">
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M90" s="6"/>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="1:14">
+      <c r="S90" s="6"/>
+      <c r="T90" s="8"/>
+    </row>
+    <row r="91" spans="1:20" s="4" customFormat="1">
       <c r="A91" s="8" t="s">
         <v>254</v>
       </c>
       <c r="D91" s="8">
         <v>-5</v>
       </c>
-      <c r="E91" s="8">
+      <c r="K91" s="8">
         <v>9</v>
       </c>
-      <c r="F91" s="8">
+      <c r="L91" s="8">
         <v>0</v>
       </c>
-      <c r="G91" s="8">
+      <c r="M91" s="8">
         <v>150</v>
       </c>
-      <c r="H91" s="8">
+      <c r="N91" s="8">
         <v>700</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="O91" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="P91" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8" t="s">
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M91" s="6"/>
-      <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="S91" s="6"/>
+      <c r="T91" s="8"/>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="8" t="s">
         <v>256</v>
       </c>
       <c r="D92" s="8">
         <v>-5</v>
       </c>
-      <c r="E92" s="8">
+      <c r="K92" s="8">
         <v>9</v>
       </c>
-      <c r="F92" s="8">
+      <c r="L92" s="8">
         <v>0</v>
       </c>
-      <c r="G92" s="8">
+      <c r="M92" s="8">
         <v>300</v>
       </c>
-      <c r="H92" s="8">
+      <c r="N92" s="8">
         <v>1200</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="O92" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="P92" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8" t="s">
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M92" s="6"/>
-      <c r="N92" s="8"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="T92" s="8"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="6" t="s">
         <v>258</v>
       </c>
@@ -5800,23 +5296,17 @@
       <c r="D93" s="6">
         <v>5</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6" t="s">
+      <c r="Q93" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="L93" s="6">
+      <c r="R93" s="6">
         <v>700</v>
       </c>
-      <c r="M93" s="6">
+      <c r="S93" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:20">
       <c r="A94" s="6" t="s">
         <v>260</v>
       </c>
@@ -5826,23 +5316,17 @@
       <c r="D94" s="6">
         <v>10</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6" t="s">
+      <c r="Q94" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="L94" s="6">
+      <c r="R94" s="6">
         <v>1200</v>
       </c>
-      <c r="M94" s="6">
+      <c r="S94" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:20">
       <c r="A95" s="6" t="s">
         <v>262</v>
       </c>
@@ -5853,7 +5337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:20">
       <c r="A96" s="6" t="s">
         <v>263</v>
       </c>
@@ -5864,7 +5348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:19">
       <c r="A97" s="6" t="s">
         <v>264</v>
       </c>
@@ -5875,7 +5359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:19">
       <c r="A98" s="6" t="s">
         <v>265</v>
       </c>
@@ -5886,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:19">
       <c r="A99" s="6" t="s">
         <v>260</v>
       </c>
@@ -5897,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:19">
       <c r="A100" s="6" t="s">
         <v>262</v>
       </c>
@@ -5908,7 +5392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:19">
       <c r="A101" s="6" t="s">
         <v>263</v>
       </c>
@@ -5919,7 +5403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:19">
       <c r="A102" s="6" t="s">
         <v>264</v>
       </c>
@@ -5930,7 +5414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:19">
       <c r="A103" s="6" t="s">
         <v>266</v>
       </c>
@@ -5940,50 +5424,44 @@
       <c r="D103" s="6">
         <v>10</v>
       </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6" t="s">
+      <c r="Q103" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L103" s="6">
+      <c r="R103" s="6">
         <v>800</v>
       </c>
-      <c r="M103" s="6">
+      <c r="S103" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:11">
-      <c r="A104" s="25" t="s">
+    <row r="104" spans="1:19" s="5" customFormat="1">
+      <c r="A104" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="27" t="s">
+      <c r="B104" s="49"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
       <c r="I105" s="11" t="s">
         <v>270</v>
       </c>
@@ -5997,19 +5475,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" ht="60" customHeight="1" spans="1:13">
+    <row r="106" spans="1:19" ht="60" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
       <c r="I106" s="8" t="s">
         <v>276</v>
       </c>
@@ -6023,56 +5501,56 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" ht="57" customHeight="1" spans="1:11">
+    <row r="107" spans="1:19" ht="57" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" ht="47" customHeight="1" spans="1:11">
+    <row r="108" spans="1:19" ht="47.1" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" ht="50" customHeight="1" spans="1:11">
+    <row r="109" spans="1:19" ht="50.1" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" ht="50" customHeight="1" spans="1:11">
+    <row r="110" spans="1:19" ht="50.1" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -6085,98 +5563,98 @@
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="25" t="s">
+    <row r="111" spans="1:19">
+      <c r="A111" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="28" t="s">
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="28" t="s">
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="28" t="s">
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="28" t="s">
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="28" t="s">
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="28" t="s">
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="28" t="s">
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="26" t="s">
         <v>292</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="1:8">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="27" t="s">
         <v>293</v>
       </c>
       <c r="H120" s="8" t="s">
@@ -6190,7 +5668,7 @@
       <c r="B121" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="26" t="s">
         <v>295</v>
       </c>
       <c r="H121" s="8" t="s">
@@ -6226,7 +5704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:8">
       <c r="A125" s="8" t="s">
         <v>128</v>
       </c>
@@ -6432,127 +5910,124 @@
       </c>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="8:8">
+    <row r="150" spans="1:8">
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="8:8">
+    <row r="151" spans="1:8">
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="8:8">
+    <row r="152" spans="1:8">
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="8:8">
+    <row r="153" spans="1:8">
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="8:8">
+    <row r="154" spans="1:8">
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="8:8">
+    <row r="155" spans="1:8">
       <c r="H155" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="156" ht="20.25" spans="1:1">
-      <c r="A156" s="30" t="s">
+    <row r="156" spans="1:8" ht="20.25">
+      <c r="A156" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="8" t="s">
+    <row r="157" spans="1:8">
+      <c r="A157" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="8"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="31" t="s">
+      <c r="B157" s="51"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="159" ht="17" customHeight="1" spans="1:1">
-      <c r="A159" s="31" t="s">
+    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A159" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:8">
       <c r="A160" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="32" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="32" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="30" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="33" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="31" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="B167" s="9"/>
+      <c r="B167" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="T57:T60"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="B105:H105"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="N68:N70"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\War3Map\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="379">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -679,7 +674,7 @@
     <t>名字：</t>
   </si>
   <si>
-    <t>每日收益（建造完下一天生效）</t>
+    <t>攻击/攻击范围</t>
   </si>
   <si>
     <t>提供人口</t>
@@ -703,6 +698,9 @@
     <t>建筑上限数量</t>
   </si>
   <si>
+    <t>升级金币或者消耗金币</t>
+  </si>
+  <si>
     <t>民房Lv1</t>
   </si>
   <si>
@@ -772,36 +770,36 @@
     <t>粮仓Lv1</t>
   </si>
   <si>
+    <t>建造时间60秒</t>
+  </si>
+  <si>
+    <t>3种建筑加起来不能超过1个</t>
+  </si>
+  <si>
     <t>整体收益追加10%</t>
   </si>
   <si>
-    <t>建造时间60秒</t>
-  </si>
-  <si>
-    <t>3种建筑加起来不能超过1个</t>
-  </si>
-  <si>
     <t>粮仓Lv2</t>
   </si>
   <si>
+    <t>建造时间80秒</t>
+  </si>
+  <si>
     <t>整体收益追加20%</t>
   </si>
   <si>
-    <t>建造时间80秒</t>
-  </si>
-  <si>
     <t>粮仓Lv3</t>
   </si>
   <si>
+    <t>高级粮仓技术</t>
+  </si>
+  <si>
+    <t>建造时间100秒</t>
+  </si>
+  <si>
     <t>整体收益追加35%</t>
   </si>
   <si>
-    <t>高级粮仓技术</t>
-  </si>
-  <si>
-    <t>建造时间100秒</t>
-  </si>
-  <si>
     <t>兵工厂Lv1</t>
   </si>
   <si>
@@ -847,9 +845,18 @@
     <t>机枪塔Lv1</t>
   </si>
   <si>
+    <t>26/500</t>
+  </si>
+  <si>
+    <t>0.2S</t>
+  </si>
+  <si>
     <t>机枪塔Lv2</t>
   </si>
   <si>
+    <t>48/650</t>
+  </si>
+  <si>
     <t>升级时间60秒</t>
   </si>
   <si>
@@ -862,66 +869,114 @@
     <t>冰塔Lv1</t>
   </si>
   <si>
+    <t>51/800</t>
+  </si>
+  <si>
     <t>研究冰塔Lv1</t>
   </si>
   <si>
     <t>冰塔Lv2</t>
   </si>
   <si>
+    <t>76/800</t>
+  </si>
+  <si>
+    <t>1.0s</t>
+  </si>
+  <si>
     <t>研究冰塔Lv1、Lv2</t>
   </si>
   <si>
     <t>冰塔Lv3</t>
   </si>
   <si>
+    <t>101/800</t>
+  </si>
+  <si>
     <t>研究冰塔Lv1、Lv2、Lv3</t>
   </si>
   <si>
     <t>火塔Lv1</t>
   </si>
   <si>
+    <t>27/650</t>
+  </si>
+  <si>
+    <t>0.4S</t>
+  </si>
+  <si>
     <t>研究火塔Lv1</t>
   </si>
   <si>
     <t>火塔Lv2</t>
   </si>
   <si>
+    <t>41/650</t>
+  </si>
+  <si>
     <t>研究火塔Lv1、Lv2</t>
   </si>
   <si>
     <t>火塔Lv3</t>
   </si>
   <si>
+    <t>60/650</t>
+  </si>
+  <si>
+    <t>0.4s</t>
+  </si>
+  <si>
     <t>研究火塔Lv1、Lv2、Lv3</t>
   </si>
   <si>
     <t>电塔Lv1</t>
   </si>
   <si>
+    <t>101/650</t>
+  </si>
+  <si>
+    <t>2.0S</t>
+  </si>
+  <si>
     <t>研究电塔Lv1</t>
   </si>
   <si>
     <t>电塔Lv2</t>
   </si>
   <si>
+    <t>161/750</t>
+  </si>
+  <si>
+    <t>2.0s</t>
+  </si>
+  <si>
     <t>研究电塔Lv1、Lv2</t>
   </si>
   <si>
     <t>炮塔Lv1</t>
   </si>
   <si>
+    <t>141/400</t>
+  </si>
+  <si>
     <t>研究炮塔Lv1</t>
   </si>
   <si>
     <t>炮塔Lv2</t>
   </si>
   <si>
+    <t>210/400</t>
+  </si>
+  <si>
     <t>研究炮塔Lv1、Lv2</t>
   </si>
   <si>
     <t>炮塔Lv3</t>
   </si>
   <si>
+    <t>311/400</t>
+  </si>
+  <si>
     <t>研究炮塔Lv1、Lv2、Lv3</t>
   </si>
   <si>
@@ -1039,37 +1094,148 @@
     <t>钱/木头</t>
   </si>
   <si>
+    <t>塔</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>攻击力/攻击范围</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>300/300</t>
+  </si>
+  <si>
+    <t>导弹塔1</t>
+  </si>
+  <si>
+    <t>100/900</t>
+  </si>
+  <si>
+    <t>241/1000</t>
+  </si>
+  <si>
+    <t>600/600</t>
+  </si>
+  <si>
+    <t>381/1100</t>
+  </si>
+  <si>
+    <t>防御塔（木）</t>
+  </si>
+  <si>
+    <t>19/850</t>
+  </si>
+  <si>
     <t>高级伐木技术</t>
   </si>
   <si>
+    <t>防御塔（加固木）</t>
+  </si>
+  <si>
+    <t>33/850</t>
+  </si>
+  <si>
     <t>铁拳</t>
   </si>
   <si>
+    <t>防御塔（石）</t>
+  </si>
+  <si>
+    <t>52/850</t>
+  </si>
+  <si>
+    <t>防御塔（加固石）</t>
+  </si>
+  <si>
     <t>僵尸主管</t>
   </si>
   <si>
+    <t>71/850</t>
+  </si>
+  <si>
+    <t>100/300</t>
+  </si>
+  <si>
+    <t>弩箭塔</t>
+  </si>
+  <si>
     <t>胖子僵尸的老爹</t>
   </si>
   <si>
+    <t>121/950</t>
+  </si>
+  <si>
+    <t>3.0s</t>
+  </si>
+  <si>
+    <t>300/500</t>
+  </si>
+  <si>
+    <t>弩箭塔（石）</t>
+  </si>
+  <si>
     <t>胖子僵尸的老哥</t>
   </si>
   <si>
+    <t>171/1000</t>
+  </si>
+  <si>
+    <t>2.6s</t>
+  </si>
+  <si>
+    <t>500/500</t>
+  </si>
+  <si>
+    <t>（弩箭塔最小攻击范围400）</t>
+  </si>
+  <si>
+    <t>800/800</t>
+  </si>
+  <si>
+    <t>防御塔（加固石双层）</t>
+  </si>
+  <si>
+    <t>76/850</t>
+  </si>
+  <si>
+    <t>300/620</t>
+  </si>
+  <si>
+    <t>400/820</t>
+  </si>
+  <si>
     <t>导弹塔Lv2</t>
   </si>
   <si>
+    <t>300/600</t>
+  </si>
+  <si>
     <t>导弹塔Lv3</t>
   </si>
   <si>
+    <t>400/800</t>
+  </si>
+  <si>
     <t>究极伐木工</t>
   </si>
   <si>
     <t>墙Lv3</t>
   </si>
   <si>
+    <t>150/300</t>
+  </si>
+  <si>
     <t>墙Lv4</t>
   </si>
   <si>
     <t>墙Lv5</t>
+  </si>
+  <si>
+    <t>1000/1000</t>
   </si>
   <si>
     <t>高级机枪</t>
@@ -1168,8 +1334,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1368,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1235,19 +1415,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,7 +1598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,8 +1620,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1311,13 +1815,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,9 +2089,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1357,9 +2100,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,40 +2109,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1420,19 +2148,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1453,7 +2181,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1462,117 +2190,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FF338FBD"/>
+      <color rgb="00338FBD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1592,15 +2277,15 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="6165850"/>
-          <a:ext cx="4552950" cy="3951605"/>
+          <a:off x="5324475" y="6411595"/>
+          <a:ext cx="4141470" cy="4248785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,15 +2315,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7503795" y="200660"/>
-          <a:ext cx="6361430" cy="4435475"/>
+          <a:off x="6785610" y="200660"/>
+          <a:ext cx="5881370" cy="4591685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,7 +2351,7 @@
           <xdr:row>104</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1677,25 +2362,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="0" y="13890625"/>
+              <a:ext cx="6625590" cy="11370945"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1724,15 +2398,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="13530580"/>
-          <a:ext cx="4265295" cy="2699385"/>
+          <a:off x="6825615" y="14302105"/>
+          <a:ext cx="3853815" cy="2887980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,7 +2430,7 @@
           <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1767,25 +2441,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="6978015" y="18744565"/>
+              <a:ext cx="6320790" cy="5766435"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1797,7 +2460,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1813,7 +2476,7 @@
           <xdr:row>63</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Object 1" hidden="1">
               <a:extLst>
@@ -1824,25 +2487,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="9525" y="276225"/>
+              <a:ext cx="6655435" cy="11372850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="CCE8CF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1861,7 +2513,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2105,32 +2757,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="76.25" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5">
-      <c r="A1" s="34" t="s">
+    <row r="1" ht="32.4" spans="1:1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18">
-      <c r="A2" s="35" t="s">
+    <row r="2" ht="17.4" spans="1:1">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2144,17 +2796,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+    <row r="6" ht="21.75" customHeight="1" spans="1:1">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="32.25" customHeight="1">
-      <c r="A7" s="36" t="s">
+    <row r="7" ht="32.25" customHeight="1" spans="1:1">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="38.25" customHeight="1">
+    <row r="8" ht="38.25" customHeight="1" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2165,178 +2817,178 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="36"/>
-    </row>
-    <row r="12" spans="1:1" ht="18">
-      <c r="A12" s="35" t="s">
+      <c r="A11" s="30"/>
+    </row>
+    <row r="12" ht="17.4" spans="1:1">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="37" t="s">
+    <row r="17" ht="28.8" spans="1:1">
+      <c r="A17" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="36"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="35" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" ht="17.4" spans="1:1">
+      <c r="A20" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
-      <c r="A21" s="38" t="s">
+    <row r="21" ht="15.6" spans="1:1">
+      <c r="A21" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27">
-      <c r="A23" s="36" t="s">
+    <row r="23" ht="28.8" spans="1:8">
+      <c r="A23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="27">
-      <c r="A24" s="36" t="s">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" ht="28.8" spans="1:8">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="40"/>
-    </row>
-    <row r="28" spans="1:9" ht="63.95" customHeight="1">
-      <c r="A28" s="41" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="34"/>
+    </row>
+    <row r="28" ht="63.95" customHeight="1" spans="1:1">
+      <c r="A28" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="40.5">
-      <c r="A29" s="42" t="s">
+    <row r="29" ht="43.2" spans="1:1">
+      <c r="A29" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="51.95" customHeight="1">
-      <c r="A30" s="43" t="s">
+    <row r="30" ht="51.95" customHeight="1" spans="1:9">
+      <c r="A30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="51" customHeight="1">
-      <c r="A31" s="44" t="s">
+    <row r="31" ht="51" customHeight="1" spans="1:1">
+      <c r="A31" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="67.5">
-      <c r="A33" s="41" t="s">
+    <row r="33" ht="86.4" spans="1:1">
+      <c r="A33" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="44" t="s">
+    <row r="34" ht="28.8" spans="1:1">
+      <c r="A34" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="44"/>
-    </row>
-    <row r="36" spans="1:8" ht="67.5">
-      <c r="A36" s="36" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="38"/>
+    </row>
+    <row r="36" ht="72" spans="1:1">
+      <c r="A36" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="40" t="s">
+    <row r="37" ht="28.8" spans="1:1">
+      <c r="A37" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="40"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="33" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="34"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="67.5">
-      <c r="A40" s="36" t="s">
+    <row r="40" ht="72" spans="1:1">
+      <c r="A40" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="33" customFormat="1">
-      <c r="A42" s="33" t="s">
+    <row r="42" s="27" customFormat="1" spans="1:1">
+      <c r="A42" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1" spans="8:8">
       <c r="H44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="45"/>
+    <row r="48" ht="15.6" spans="1:1">
+      <c r="A48" s="39"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="39" customHeight="1">
-      <c r="A107" s="36" t="s">
+    <row r="107" ht="39" customHeight="1" spans="1:1">
+      <c r="A107" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2351,16 +3003,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2379,13 +3031,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId3"/>
+        <oleObject shapeId="1025" progId="Visio.Drawing.11" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -2404,7 +3056,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId5"/>
+        <oleObject shapeId="1026" progId="Visio.Drawing.11" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2412,33 +3064,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="22.2" spans="1:1">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2457,7 +3110,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId3"/>
+        <oleObject shapeId="3073" progId="Visio.Drawing.11" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2465,1427 +3118,1247 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3796296296296" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.8796296296296" style="6" customWidth="1"/>
     <col min="3" max="3" width="27" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.8796296296296" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.8796296296296" style="6" customWidth="1"/>
     <col min="6" max="6" width="36" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.375" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1296296296296" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.3796296296296" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6296296296296" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="36" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="48.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.3796296296296" style="6" customWidth="1"/>
     <col min="13" max="13" width="21.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="34.375" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="14" max="14" width="34.3796296296296" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+    <col min="16" max="16" width="21.3796296296296" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5">
+    <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>100</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>100</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>85</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>100</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>1</v>
       </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>360</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>522</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>1.5</v>
       </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>200</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>400</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>1.5</v>
       </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>450</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>250</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>2</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>850</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>200</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>2</v>
       </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>240</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>300</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>2.5</v>
       </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>2000</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>200</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>2500</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>150</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>4500</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>200</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>4</v>
       </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>5000</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>10</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>1</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>200</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>4.5</v>
       </c>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>6500</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>10</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>200</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>4.5</v>
       </c>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>3500</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>200</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>4</v>
       </c>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="12" customHeight="1">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" ht="12" customHeight="1" spans="1:13">
+      <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>4500</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>10</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>1</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>200</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>4.5</v>
       </c>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>1800</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>1</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>180</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>4.5</v>
       </c>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>6750</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>20</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>1</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>100</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>5</v>
       </c>
-      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>3500</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>1</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>100</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>5</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>50000</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>30</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>100</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>6</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>100000</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>200</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1">
-      <c r="A30" s="15" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>80</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>650</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>10</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>300</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
       <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>1</v>
       </c>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>150</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>600</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>12</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>1</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <v>200</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
       <c r="L32" s="6">
         <v>2</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="6">
         <v>1.5</v>
       </c>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <v>120</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>1200</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="6">
         <v>15</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="6">
         <v>1</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="6">
         <v>150</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="6" t="s">
         <v>121</v>
       </c>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="6">
         <v>1.5</v>
       </c>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>550</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>300</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>20</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="6">
         <v>200</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
       <c r="L34" s="6">
         <v>3</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="6">
         <v>2</v>
       </c>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>260</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>900</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>35</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>150</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
       <c r="L35" s="6">
         <v>4</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="6">
         <v>2.5</v>
       </c>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1">
-      <c r="A36" s="17" t="s">
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:13">
+      <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="2">
         <v>1200</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="2">
         <v>650</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="2">
         <v>30</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="2">
         <v>200</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="M36" s="17">
+      <c r="M36" s="2">
         <v>2.5</v>
       </c>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>1050</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>5</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="6">
         <v>30</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>1</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="6">
         <v>200</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="6" t="s">
         <v>133</v>
       </c>
       <c r="L37" s="6">
         <v>4</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="6">
         <v>3</v>
       </c>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1">
-      <c r="A38" s="17" t="s">
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:13">
+      <c r="A38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="2">
         <v>750</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="2">
         <v>5</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="2">
         <v>650</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="2">
         <v>30</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="2">
         <v>200</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="2">
         <v>3</v>
       </c>
-      <c r="N38" s="17"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>2350</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>5</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <v>35</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="6">
         <v>1</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="6">
         <v>200</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K39" s="8"/>
       <c r="L39" s="6">
         <v>5</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="6">
         <v>3.5</v>
       </c>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>200</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="6">
         <v>2</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
       <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="8" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="6">
         <v>450</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="6">
         <v>2</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="6">
         <v>50</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="6">
         <v>1</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
       <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>600</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>2</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="6">
         <v>60</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="6">
         <v>1</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
       <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <v>1350</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>0</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>0.5</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="6">
         <v>550</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="6">
         <v>60</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <v>1</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="6">
         <v>522</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="6" t="s">
         <v>121</v>
       </c>
       <c r="L43" s="6">
         <v>3</v>
       </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <v>1200</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="6">
         <v>500</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="6">
         <v>60</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="6">
         <v>1</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="6">
         <v>523</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="8"/>
       <c r="L44" s="6">
         <v>3</v>
       </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="8" t="s">
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <v>1000</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <v>600</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="6">
         <v>60</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="6">
         <v>5</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="6">
         <v>524</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K45" s="8"/>
       <c r="L45" s="6">
         <v>3</v>
       </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="6">
         <v>1150</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <v>1</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="6">
         <v>0.5</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <v>600</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>60</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="6">
         <v>1</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="6">
         <v>525</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="6" t="s">
         <v>121</v>
       </c>
       <c r="L46" s="6">
         <v>3</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="C47" s="14"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" s="2" customFormat="1">
-      <c r="A48" s="17" t="s">
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:13">
+      <c r="A48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="2">
         <v>1500</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3903,118 +4376,118 @@
       <c r="G48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="2">
         <v>3</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:14">
+      <c r="A49" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="6">
         <v>2500</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="15">
         <v>5</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="15">
         <v>0.2</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <v>1</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="6">
         <v>0</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="6">
         <v>4</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:13">
+      <c r="A50" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <v>2000</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="15">
         <v>5</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="15">
         <v>1</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="6">
         <v>0</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <v>2500</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="15">
         <v>5</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="15">
         <v>2</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="6">
         <v>1</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="6">
         <v>0</v>
       </c>
       <c r="J51" s="6" t="s">
@@ -4023,36 +4496,36 @@
       <c r="K51" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="6">
         <v>3000</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="15">
         <v>5</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="15">
         <v>1</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="6">
         <v>1</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="6">
         <v>0</v>
       </c>
       <c r="J52" s="6" t="s">
@@ -4061,1234 +4534,1469 @@
       <c r="K52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="12" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" ht="12" customHeight="1" spans="1:13">
+      <c r="A53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="6">
         <v>3000</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="15">
         <v>5</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="6">
         <v>0</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="48" t="s">
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:16">
+      <c r="A56" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="D56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="F56" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L56" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R56" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="T56" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="8" t="s">
+      <c r="P56" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="8">
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="6">
+        <v>60</v>
+      </c>
+      <c r="D57" s="6">
+        <v>5</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2</v>
+      </c>
+      <c r="G57" s="6">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6">
+        <v>10</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N57" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
         <v>1</v>
       </c>
-      <c r="K57" s="8">
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="6">
+        <v>120</v>
+      </c>
+      <c r="D58" s="6">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6">
+        <v>20</v>
+      </c>
+      <c r="H58" s="6">
+        <v>20</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N58" s="20"/>
+      <c r="O58" s="6">
         <v>0</v>
       </c>
-      <c r="L57" s="8">
+      <c r="P58" s="6">
         <v>2</v>
       </c>
-      <c r="M57" s="8">
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="6">
+        <v>360</v>
+      </c>
+      <c r="D59" s="6">
+        <v>5</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>70</v>
+      </c>
+      <c r="H59" s="6">
+        <v>70</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N59" s="20"/>
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="6">
+        <v>550</v>
+      </c>
+      <c r="D60" s="6">
+        <v>5</v>
+      </c>
+      <c r="F60" s="6">
+        <v>8</v>
+      </c>
+      <c r="G60" s="6">
+        <v>100</v>
+      </c>
+      <c r="H60" s="6">
+        <v>100</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N60" s="20"/>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="6">
+        <v>500</v>
+      </c>
+      <c r="D61" s="6">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>15</v>
+      </c>
+      <c r="H61" s="6">
+        <v>7</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O61" s="6">
+        <v>1</v>
+      </c>
+      <c r="P61" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="6">
+        <v>550</v>
+      </c>
+      <c r="D62" s="6">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>25</v>
+      </c>
+      <c r="H62" s="6">
+        <v>30</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O62" s="6">
+        <v>1</v>
+      </c>
+      <c r="P62" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="6">
+        <v>600</v>
+      </c>
+      <c r="D63" s="6">
+        <v>5</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O63" s="6">
+        <v>1</v>
+      </c>
+      <c r="P63" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="6">
+        <v>300</v>
+      </c>
+      <c r="D64" s="6">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>30</v>
+      </c>
+      <c r="H64" s="6">
+        <v>60</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O64" s="6">
+        <v>2</v>
+      </c>
+      <c r="P64" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="6">
+        <v>500</v>
+      </c>
+      <c r="D65" s="6">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <v>70</v>
+      </c>
+      <c r="H65" s="6">
+        <v>130</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65" s="6">
+        <v>2</v>
+      </c>
+      <c r="P65" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:16">
+      <c r="A66" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="3">
+        <v>700</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6">
+        <v>2</v>
+      </c>
+      <c r="P66" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>20</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="6">
         <v>10</v>
       </c>
-      <c r="N57" s="8">
+      <c r="P67" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="6">
+        <v>200</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>350</v>
+      </c>
+      <c r="H68" s="6">
+        <v>350</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O68" s="6">
+        <v>1</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="6">
+        <v>370</v>
+      </c>
+      <c r="D69" s="6">
+        <v>5</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>800</v>
+      </c>
+      <c r="H69" s="6">
+        <v>800</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N69" s="20"/>
+      <c r="O69" s="6">
+        <v>1</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="6">
+        <v>550</v>
+      </c>
+      <c r="D70" s="6">
+        <v>5</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1500</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N70" s="20"/>
+      <c r="O70" s="6">
+        <v>1</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="6">
+        <v>500</v>
+      </c>
+      <c r="D71" s="6">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
+        <v>50</v>
+      </c>
+      <c r="H71" s="6">
+        <v>25</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O71" s="6">
+        <v>1</v>
+      </c>
+      <c r="P71" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="6">
+        <v>550</v>
+      </c>
+      <c r="D72" s="6">
+        <v>5</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>100</v>
+      </c>
+      <c r="H72" s="6">
+        <v>50</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1</v>
+      </c>
+      <c r="P72" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="6">
+        <v>550</v>
+      </c>
+      <c r="D73" s="6">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <v>300</v>
+      </c>
+      <c r="H73" s="6">
+        <v>150</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O73" s="6">
+        <v>1</v>
+      </c>
+      <c r="P73" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="6">
+        <v>200</v>
+      </c>
+      <c r="D74" s="6">
+        <v>5</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>20</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O74" s="6">
+        <v>1</v>
+      </c>
+      <c r="P74" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L75" s="6">
         <v>10</v>
       </c>
-      <c r="O57" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8" t="s">
+      <c r="O75" s="6">
+        <v>1</v>
+      </c>
+      <c r="P75" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="6">
+        <v>500</v>
+      </c>
+      <c r="D76" s="6">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="T57" s="52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="8">
+      <c r="J76" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L76" s="6">
+        <v>60</v>
+      </c>
+      <c r="O76" s="6">
+        <v>5</v>
+      </c>
+      <c r="P76" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="6">
+        <v>550</v>
+      </c>
+      <c r="D77" s="6">
+        <v>5</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <v>300</v>
+      </c>
+      <c r="H77" s="6">
+        <v>300</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L77" s="6">
+        <v>60</v>
+      </c>
+      <c r="O77" s="6">
+        <v>5</v>
+      </c>
+      <c r="P77" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="6">
+        <v>550</v>
+      </c>
+      <c r="D78" s="6">
+        <v>5</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
+        <v>300</v>
+      </c>
+      <c r="H78" s="6">
+        <v>300</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L78" s="6">
+        <v>60</v>
+      </c>
+      <c r="O78" s="6">
+        <v>5</v>
+      </c>
+      <c r="P78" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="6">
+        <v>5</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>10</v>
+      </c>
+      <c r="H79" s="4">
+        <v>500</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4">
         <v>2</v>
       </c>
-      <c r="K58" s="8">
+      <c r="P79" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2600</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="6">
+        <v>5</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="4">
         <v>0</v>
       </c>
-      <c r="L58" s="8">
+      <c r="G80" s="4">
+        <v>20</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4">
         <v>3</v>
       </c>
-      <c r="M58" s="8">
+      <c r="P80" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="6">
+        <v>200</v>
+      </c>
+      <c r="D81" s="6">
+        <v>5</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <v>10</v>
+      </c>
+      <c r="H81" s="6">
+        <v>10</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O81" s="6">
+        <v>1</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="6">
+        <v>5</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>450</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O82" s="6">
+        <v>5</v>
+      </c>
+      <c r="P82" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2100</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="6">
+        <v>5</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
+        <v>100</v>
+      </c>
+      <c r="H83" s="6">
+        <v>700</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O83" s="6">
+        <v>6</v>
+      </c>
+      <c r="P83" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="6">
+        <v>3300</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" s="6">
+        <v>5</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>200</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1200</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O84" s="6">
+        <v>7</v>
+      </c>
+      <c r="P84" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="6">
+        <v>5</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <v>10</v>
+      </c>
+      <c r="H85" s="6">
+        <v>450</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O85" s="6">
+        <v>5</v>
+      </c>
+      <c r="P85" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="6">
+        <v>5</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
+        <v>30</v>
+      </c>
+      <c r="H86" s="6">
+        <v>700</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O86" s="6">
+        <v>6</v>
+      </c>
+      <c r="P86" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="6">
+        <v>3900</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="6">
+        <v>5</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
+        <v>50</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1200</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O87" s="6">
+        <v>7</v>
+      </c>
+      <c r="P87" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="6">
+        <v>5</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0</v>
+      </c>
+      <c r="G88" s="6">
+        <v>10</v>
+      </c>
+      <c r="H88" s="6">
+        <v>500</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O88" s="6">
+        <v>5</v>
+      </c>
+      <c r="P88" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="6">
+        <v>5</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
         <v>20</v>
       </c>
-      <c r="N58" s="8">
-        <v>20</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="T58" s="52"/>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="8">
-        <v>3</v>
-      </c>
-      <c r="K59" s="8">
+      <c r="H89" s="6">
+        <v>850</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O89" s="6">
+        <v>5</v>
+      </c>
+      <c r="P89" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:16">
+      <c r="A90" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="4">
+        <v>5</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="6">
         <v>0</v>
       </c>
-      <c r="L59" s="8">
+      <c r="G90" s="6">
+        <v>100</v>
+      </c>
+      <c r="H90" s="6">
+        <v>550</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6">
+        <v>9</v>
+      </c>
+      <c r="P90" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:16">
+      <c r="A91" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2700</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="4">
         <v>5</v>
       </c>
-      <c r="M59" s="8">
-        <v>70</v>
-      </c>
-      <c r="N59" s="8">
-        <v>70</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="T59" s="52"/>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="8">
-        <v>4</v>
-      </c>
-      <c r="K60" s="8">
+      <c r="E91" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" s="6">
         <v>0</v>
       </c>
-      <c r="L60" s="8">
-        <v>8</v>
-      </c>
-      <c r="M60" s="8">
-        <v>100</v>
-      </c>
-      <c r="N60" s="8">
-        <v>100</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="T60" s="52"/>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="8">
-        <v>3</v>
-      </c>
-      <c r="K61" s="8">
-        <v>1</v>
-      </c>
-      <c r="L61" s="8">
+      <c r="G91" s="6">
+        <v>150</v>
+      </c>
+      <c r="H91" s="6">
+        <v>700</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6">
+        <v>9</v>
+      </c>
+      <c r="P91" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="6">
+        <v>5</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="6">
         <v>0</v>
       </c>
-      <c r="M61" s="8">
-        <v>15</v>
-      </c>
-      <c r="N61" s="8">
-        <v>7</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="T61" s="8"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="8">
-        <v>7</v>
-      </c>
-      <c r="K62" s="8">
-        <v>1</v>
-      </c>
-      <c r="L62" s="8">
-        <v>0</v>
-      </c>
-      <c r="M62" s="8">
-        <v>25</v>
-      </c>
-      <c r="N62" s="8">
-        <v>30</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P62" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="T62" s="8"/>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="8">
-        <v>15</v>
-      </c>
-      <c r="K63" s="8">
-        <v>1</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="T63" s="8"/>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="8">
-        <v>7</v>
-      </c>
-      <c r="K64" s="8">
-        <v>2</v>
-      </c>
-      <c r="L64" s="8">
-        <v>0</v>
-      </c>
-      <c r="M64" s="8">
-        <v>30</v>
-      </c>
-      <c r="N64" s="8">
-        <v>60</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="T64" s="8"/>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="8">
-        <v>15</v>
-      </c>
-      <c r="K65" s="8">
-        <v>2</v>
-      </c>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="8">
-        <v>70</v>
-      </c>
-      <c r="N65" s="8">
-        <v>130</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="T65" s="8"/>
-    </row>
-    <row r="66" spans="1:20" s="3" customFormat="1">
-      <c r="A66" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="8">
-        <v>30</v>
-      </c>
-      <c r="K66" s="8">
-        <v>2</v>
-      </c>
-      <c r="L66" s="8">
-        <v>0</v>
-      </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="S66" s="6"/>
-      <c r="T66" s="8"/>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="8">
-        <v>50</v>
-      </c>
-      <c r="K67" s="8">
-        <v>10</v>
-      </c>
-      <c r="L67" s="8">
-        <v>20</v>
-      </c>
-      <c r="M67" s="8">
-        <v>0</v>
-      </c>
-      <c r="N67" s="8">
-        <v>0</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R67" s="8">
-        <v>1</v>
-      </c>
-      <c r="T67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="8">
-        <v>1</v>
-      </c>
-      <c r="L68" s="8">
-        <v>0</v>
-      </c>
-      <c r="M68" s="8">
-        <v>350</v>
-      </c>
-      <c r="N68" s="8">
-        <v>350</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8" t="s">
+      <c r="G92" s="6">
+        <v>300</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1200</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L92" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="T68" s="52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K69" s="8">
-        <v>1</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8">
-        <v>800</v>
-      </c>
-      <c r="N69" s="8">
-        <v>800</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P69" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="T69" s="52"/>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K70" s="8">
-        <v>1</v>
-      </c>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
-      <c r="M70" s="8">
-        <v>1500</v>
-      </c>
-      <c r="N70" s="8">
-        <v>1500</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="T70" s="52"/>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D71" s="8">
-        <v>-2</v>
-      </c>
-      <c r="K71" s="8">
-        <v>1</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8">
-        <v>50</v>
-      </c>
-      <c r="N71" s="8">
-        <v>25</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P71" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="T71" s="8"/>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D72" s="8">
+      <c r="O92" s="6">
+        <v>9</v>
+      </c>
+      <c r="P92" s="6">
         <v>-5</v>
       </c>
-      <c r="K72" s="8">
-        <v>1</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0</v>
-      </c>
-      <c r="M72" s="8">
-        <v>100</v>
-      </c>
-      <c r="N72" s="8">
-        <v>50</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="T72" s="8"/>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="8">
-        <v>-10</v>
-      </c>
-      <c r="K73" s="8">
-        <v>1</v>
-      </c>
-      <c r="L73" s="8">
-        <v>0</v>
-      </c>
-      <c r="M73" s="8">
-        <v>300</v>
-      </c>
-      <c r="N73" s="8">
-        <v>150</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P73" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="T73" s="8"/>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K74" s="8">
-        <v>1</v>
-      </c>
-      <c r="L74" s="8">
-        <v>0</v>
-      </c>
-      <c r="M74" s="8">
-        <v>20</v>
-      </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P74" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D75" s="8">
-        <v>-2</v>
-      </c>
-      <c r="K75" s="8">
-        <v>1</v>
-      </c>
-      <c r="L75" s="8">
-        <v>0</v>
-      </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P75" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8">
-        <v>10</v>
-      </c>
-      <c r="T75" s="8"/>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D76" s="8">
-        <v>-2</v>
-      </c>
-      <c r="K76" s="8">
-        <v>5</v>
-      </c>
-      <c r="L76" s="8">
-        <v>0</v>
-      </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P76" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="R76" s="8">
-        <v>60</v>
-      </c>
-      <c r="T76" s="8"/>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K77" s="8">
-        <v>5</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c r="M77" s="8">
-        <v>300</v>
-      </c>
-      <c r="N77" s="8">
-        <v>300</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="R77" s="8">
-        <v>60</v>
-      </c>
-      <c r="T77" s="8"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K78" s="8">
-        <v>5</v>
-      </c>
-      <c r="L78" s="8">
-        <v>0</v>
-      </c>
-      <c r="M78" s="8">
-        <v>300</v>
-      </c>
-      <c r="N78" s="8">
-        <v>300</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="P78" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q78" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="R78" s="8">
-        <v>60</v>
-      </c>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="21">
-        <v>-3</v>
-      </c>
-      <c r="K79" s="21">
-        <v>2</v>
-      </c>
-      <c r="L79" s="21">
-        <v>0</v>
-      </c>
-      <c r="M79" s="21">
-        <v>10</v>
-      </c>
-      <c r="N79" s="21">
-        <v>500</v>
-      </c>
-      <c r="O79" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="P79" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="21"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="21">
-        <v>-5</v>
-      </c>
-      <c r="K80" s="21">
-        <v>3</v>
-      </c>
-      <c r="L80" s="21">
-        <v>0</v>
-      </c>
-      <c r="M80" s="21">
-        <v>20</v>
-      </c>
-      <c r="N80" s="21">
-        <v>1000</v>
-      </c>
-      <c r="O80" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="P80" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="21"/>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K81" s="8">
-        <v>1</v>
-      </c>
-      <c r="L81" s="8">
-        <v>0</v>
-      </c>
-      <c r="M81" s="8">
-        <v>10</v>
-      </c>
-      <c r="N81" s="8">
-        <v>10</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P81" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K82" s="8">
-        <v>5</v>
-      </c>
-      <c r="L82" s="8">
-        <v>0</v>
-      </c>
-      <c r="M82" s="8">
-        <v>0</v>
-      </c>
-      <c r="N82" s="8">
-        <v>450</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="P82" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T82" s="8"/>
-    </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="8">
-        <v>-7</v>
-      </c>
-      <c r="K83" s="8">
-        <v>6</v>
-      </c>
-      <c r="L83" s="8">
-        <v>0</v>
-      </c>
-      <c r="M83" s="8">
-        <v>100</v>
-      </c>
-      <c r="N83" s="8">
-        <v>700</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="P83" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T83" s="8"/>
-    </row>
-    <row r="84" spans="1:20">
-      <c r="A84" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="8">
-        <v>-10</v>
-      </c>
-      <c r="K84" s="8">
-        <v>7</v>
-      </c>
-      <c r="L84" s="8">
-        <v>0</v>
-      </c>
-      <c r="M84" s="8">
-        <v>200</v>
-      </c>
-      <c r="N84" s="8">
-        <v>1200</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="P84" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T84" s="8"/>
-    </row>
-    <row r="85" spans="1:20">
-      <c r="A85" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K85" s="8">
-        <v>5</v>
-      </c>
-      <c r="L85" s="8">
-        <v>0</v>
-      </c>
-      <c r="M85" s="8">
-        <v>10</v>
-      </c>
-      <c r="N85" s="8">
-        <v>450</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="P85" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" s="8">
-        <v>-7</v>
-      </c>
-      <c r="K86" s="8">
-        <v>6</v>
-      </c>
-      <c r="L86" s="8">
-        <v>0</v>
-      </c>
-      <c r="M86" s="8">
-        <v>30</v>
-      </c>
-      <c r="N86" s="8">
-        <v>700</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P86" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T86" s="8"/>
-    </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="8">
-        <v>-10</v>
-      </c>
-      <c r="K87" s="8">
-        <v>7</v>
-      </c>
-      <c r="L87" s="8">
-        <v>0</v>
-      </c>
-      <c r="M87" s="8">
-        <v>50</v>
-      </c>
-      <c r="N87" s="8">
-        <v>1200</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="P87" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T87" s="8"/>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D88" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K88" s="8">
-        <v>5</v>
-      </c>
-      <c r="L88" s="8">
-        <v>0</v>
-      </c>
-      <c r="M88" s="8">
-        <v>10</v>
-      </c>
-      <c r="N88" s="8">
-        <v>500</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="P88" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T88" s="8"/>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" s="8">
-        <v>-10</v>
-      </c>
-      <c r="K89" s="8">
-        <v>5</v>
-      </c>
-      <c r="L89" s="8">
-        <v>0</v>
-      </c>
-      <c r="M89" s="8">
-        <v>20</v>
-      </c>
-      <c r="N89" s="8">
-        <v>850</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="P89" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T89" s="8"/>
-    </row>
-    <row r="90" spans="1:20" s="4" customFormat="1">
-      <c r="A90" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K90" s="8">
-        <v>9</v>
-      </c>
-      <c r="L90" s="8">
-        <v>0</v>
-      </c>
-      <c r="M90" s="8">
-        <v>100</v>
-      </c>
-      <c r="N90" s="8">
-        <v>550</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="P90" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="S90" s="6"/>
-      <c r="T90" s="8"/>
-    </row>
-    <row r="91" spans="1:20" s="4" customFormat="1">
-      <c r="A91" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K91" s="8">
-        <v>9</v>
-      </c>
-      <c r="L91" s="8">
-        <v>0</v>
-      </c>
-      <c r="M91" s="8">
-        <v>150</v>
-      </c>
-      <c r="N91" s="8">
-        <v>700</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="P91" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="S91" s="6"/>
-      <c r="T91" s="8"/>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D92" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K92" s="8">
-        <v>9</v>
-      </c>
-      <c r="L92" s="8">
-        <v>0</v>
-      </c>
-      <c r="M92" s="8">
-        <v>300</v>
-      </c>
-      <c r="N92" s="8">
-        <v>1200</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P92" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="1:20">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="6" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B93" s="6">
         <v>500</v>
@@ -5296,19 +6004,19 @@
       <c r="D93" s="6">
         <v>5</v>
       </c>
-      <c r="Q93" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="R93" s="6">
-        <v>700</v>
-      </c>
-      <c r="S93" s="6">
+      <c r="K93" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L93" s="6">
+        <v>800</v>
+      </c>
+      <c r="M93" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:13">
       <c r="A94" s="6" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B94" s="6">
         <v>600</v>
@@ -5316,19 +6024,19 @@
       <c r="D94" s="6">
         <v>10</v>
       </c>
-      <c r="Q94" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="R94" s="6">
+      <c r="K94" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L94" s="6">
         <v>1200</v>
       </c>
-      <c r="S94" s="6">
+      <c r="M94" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:4">
       <c r="A95" s="6" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B95" s="6">
         <v>900</v>
@@ -5337,9 +6045,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:4">
       <c r="A96" s="6" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B96" s="6">
         <v>1800</v>
@@ -5348,9 +6056,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:4">
       <c r="A97" s="6" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B97" s="6">
         <v>3600</v>
@@ -5359,9 +6067,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:4">
       <c r="A98" s="6" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B98" s="6">
         <v>500</v>
@@ -5370,9 +6078,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:4">
       <c r="A99" s="6" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B99" s="6">
         <v>600</v>
@@ -5381,9 +6089,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B100" s="6">
         <v>900</v>
@@ -5392,9 +6100,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:4">
       <c r="A101" s="6" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B101" s="6">
         <v>1800</v>
@@ -5403,9 +6111,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B102" s="6">
         <v>3600</v>
@@ -5414,9 +6122,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:13">
       <c r="A103" s="6" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B103" s="6">
         <v>500</v>
@@ -5424,610 +6132,751 @@
       <c r="D103" s="6">
         <v>10</v>
       </c>
-      <c r="Q103" s="6" t="s">
+      <c r="K103" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L103" s="6">
+        <v>800</v>
+      </c>
+      <c r="M103" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" s="5" customFormat="1" spans="1:2">
+      <c r="A104" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B104" s="21"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" ht="60" customHeight="1" spans="1:13">
+      <c r="A106" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K106" s="6">
+        <v>2</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" ht="57" customHeight="1" spans="1:8">
+      <c r="A107" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+    </row>
+    <row r="108" ht="47.1" customHeight="1" spans="1:2">
+      <c r="A108" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" ht="50.1" customHeight="1" spans="1:1">
+      <c r="A109" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" ht="50.1" customHeight="1"/>
+    <row r="111" spans="1:7">
+      <c r="A111" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8">
+      <c r="H122" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B123" s="6">
+        <v>60</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1200</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K123" s="6">
+        <v>5</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="M123" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="R103" s="6">
-        <v>800</v>
-      </c>
-      <c r="S103" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" s="5" customFormat="1">
-      <c r="A104" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="B104" s="49"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-    </row>
-    <row r="105" spans="1:19">
-      <c r="A105" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="J105" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K105" s="11" t="s">
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="6">
+        <v>60</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124" s="6">
+        <v>2</v>
+      </c>
+      <c r="E124" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K124" s="6">
+        <v>5</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="6">
+        <v>240</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D125" s="6">
+        <v>3</v>
+      </c>
+      <c r="E125" s="6">
+        <v>4400</v>
+      </c>
+      <c r="K125" s="6">
+        <v>5</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6">
+        <v>300</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E126" s="6">
+        <v>680</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K126" s="6">
+        <v>5</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K127" s="6">
+        <v>5</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B128" s="6">
+        <v>300</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1900</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K128" s="6">
+        <v>5</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="6">
+        <v>300</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E129" s="6">
+        <v>3300</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K129" s="6">
+        <v>5</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="6">
+        <v>300</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E130" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="K130" s="6">
+        <v>5</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="6">
+        <v>300</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1700</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K131" s="6">
+        <v>5</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="6">
+        <v>300</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="H132" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" s="6">
+        <v>300</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E133" s="6">
+        <v>4000</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K133" s="6">
+        <v>5</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="6">
+        <v>240</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="M105" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="60" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B106" s="51" t="s">
+      <c r="B135" s="6">
+        <v>300</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="K106" s="8">
-        <v>2</v>
-      </c>
-      <c r="M106" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="57" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B107" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-    </row>
-    <row r="108" spans="1:19" ht="47.1" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B108" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-    </row>
-    <row r="109" spans="1:19" ht="50.1" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-    </row>
-    <row r="110" spans="1:19" ht="50.1" customHeight="1">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-    </row>
-    <row r="111" spans="1:19">
-      <c r="A111" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B111" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-    </row>
-    <row r="112" spans="1:19">
-      <c r="A112" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="H122" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B123" s="8">
-        <v>60</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B124" s="8">
-        <v>60</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" s="8">
+      <c r="B136" s="6">
         <v>300</v>
       </c>
-      <c r="H126" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="H127" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B128" s="8">
+      <c r="C136" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B137" s="6">
         <v>300</v>
       </c>
-      <c r="H128" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" s="8">
+      <c r="C137" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B138" s="6">
         <v>300</v>
       </c>
-      <c r="H129" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="C138" s="6" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H139" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H139" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
+        <v>359</v>
+      </c>
+      <c r="B140" s="6">
+        <v>30</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8">
+        <v>361</v>
+      </c>
+      <c r="B141" s="6">
+        <v>30</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
+        <v>362</v>
+      </c>
+      <c r="B142" s="6">
+        <v>120</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B144" s="6">
         <v>90</v>
       </c>
-      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="B145" s="6">
         <v>90</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="6">
         <v>90</v>
       </c>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B147" s="6">
         <v>90</v>
       </c>
-      <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B148" s="6">
         <v>1000</v>
       </c>
-      <c r="H148" s="8"/>
-    </row>
-    <row r="149" spans="1:8">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="B149" s="6">
         <v>1200</v>
       </c>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="H153" s="8"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="H155" s="8" t="s">
+    </row>
+    <row r="155" spans="8:8">
+      <c r="H155" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="20.25">
-      <c r="A156" s="28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="B157" s="51"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A159" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+    <row r="156" ht="20.4" spans="1:1">
+      <c r="A156" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A159" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="30" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" s="6" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="B167" s="54"/>
+      <c r="A167" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="T57:T60"/>
-    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="A157:B157"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="N68:N70"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="381">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -899,7 +899,7 @@
     <t>火塔Lv1</t>
   </si>
   <si>
-    <t>27/650</t>
+    <t>28/650</t>
   </si>
   <si>
     <t>0.4S</t>
@@ -911,7 +911,7 @@
     <t>火塔Lv2</t>
   </si>
   <si>
-    <t>41/650</t>
+    <t>50/650</t>
   </si>
   <si>
     <t>研究火塔Lv1、Lv2</t>
@@ -920,7 +920,7 @@
     <t>火塔Lv3</t>
   </si>
   <si>
-    <t>60/650</t>
+    <t>1/650</t>
   </si>
   <si>
     <t>0.4s</t>
@@ -932,7 +932,7 @@
     <t>电塔Lv1</t>
   </si>
   <si>
-    <t>101/650</t>
+    <t>101/750</t>
   </si>
   <si>
     <t>2.0S</t>
@@ -1238,7 +1238,13 @@
     <t>1000/1000</t>
   </si>
   <si>
+    <t>机枪</t>
+  </si>
+  <si>
     <t>高级机枪</t>
+  </si>
+  <si>
+    <t>200/400</t>
   </si>
   <si>
     <t>t2机器人</t>
@@ -1336,12 +1342,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,14 +1374,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1415,6 +1413,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1423,15 +1471,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,83 +1518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,12 +1543,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,7 +1620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,115 +1644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,7 +1668,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,19 +1728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,6 +1744,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1813,6 +1793,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1827,63 +1840,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,6 +1869,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1921,10 +1901,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1933,137 +1913,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2118,10 +2098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2130,7 +2107,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2148,19 +2125,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2181,7 +2158,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2284,8 +2261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324475" y="6411595"/>
-          <a:ext cx="4141470" cy="4248785"/>
+          <a:off x="5905500" y="6165850"/>
+          <a:ext cx="4552950" cy="3951605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,8 +2299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6785610" y="200660"/>
-          <a:ext cx="5881370" cy="4591685"/>
+          <a:off x="7503795" y="200660"/>
+          <a:ext cx="6361430" cy="4435475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,8 +2341,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="13890625"/>
-              <a:ext cx="6625590" cy="11370945"/>
+              <a:off x="0" y="13130530"/>
+              <a:ext cx="7343775" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2405,8 +2382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="14302105"/>
-          <a:ext cx="3853815" cy="2887980"/>
+          <a:off x="7543800" y="13530580"/>
+          <a:ext cx="4265295" cy="2699385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,8 +2420,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6978015" y="18744565"/>
-              <a:ext cx="6320790" cy="5766435"/>
+              <a:off x="7696200" y="17693005"/>
+              <a:ext cx="6800850" cy="5400675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2490,7 +2467,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9525" y="276225"/>
-              <a:ext cx="6655435" cy="11372850"/>
+              <a:ext cx="7344410" cy="10668000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2513,7 +2490,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2769,20 +2746,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="76.25" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="11" max="11" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:1">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="31.5" spans="1:1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:1">
-      <c r="A2" s="29" t="s">
+    <row r="2" ht="18" spans="1:1">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2797,12 +2774,12 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2817,56 +2794,56 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="30"/>
-    </row>
-    <row r="12" ht="17.4" spans="1:1">
-      <c r="A12" s="29" t="s">
+      <c r="A11" s="29"/>
+    </row>
+    <row r="12" ht="18" spans="1:1">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:1">
-      <c r="A17" s="31" t="s">
+    <row r="17" ht="27" spans="1:1">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="30"/>
-    </row>
-    <row r="20" ht="17.4" spans="1:1">
-      <c r="A20" s="29" t="s">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="20" ht="18" spans="1:1">
+      <c r="A20" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:1">
-      <c r="A21" s="32" t="s">
+    <row r="21" ht="14.25" spans="1:1">
+      <c r="A21" s="31" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2875,17 +2852,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:8">
-      <c r="A23" s="30" t="s">
+    <row r="23" ht="27" spans="1:8">
+      <c r="A23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" ht="28.8" spans="1:8">
-      <c r="A24" s="30" t="s">
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" ht="27" spans="1:8">
+      <c r="A24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
@@ -2898,28 +2875,28 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="43.2" spans="1:1">
-      <c r="A29" s="36" t="s">
+    <row r="29" ht="40.5" spans="1:1">
+      <c r="A29" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2928,44 +2905,44 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="33" ht="86.4" spans="1:1">
-      <c r="A33" s="35" t="s">
+    <row r="33" ht="67.5" spans="1:1">
+      <c r="A33" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="28.8" spans="1:1">
-      <c r="A34" s="38" t="s">
+    <row r="34" ht="27" spans="1:1">
+      <c r="A34" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="38"/>
-    </row>
-    <row r="36" ht="72" spans="1:1">
-      <c r="A36" s="30" t="s">
+      <c r="A35" s="37"/>
+    </row>
+    <row r="36" ht="67.5" spans="1:1">
+      <c r="A36" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:1">
-      <c r="A37" s="34" t="s">
+    <row r="37" ht="27" spans="1:1">
+      <c r="A37" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" ht="72" spans="1:1">
-      <c r="A40" s="30" t="s">
+    <row r="40" ht="67.5" spans="1:1">
+      <c r="A40" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="27" customFormat="1" spans="1:1">
-      <c r="A42" s="27" t="s">
+    <row r="42" s="26" customFormat="1" spans="1:1">
+      <c r="A42" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2974,21 +2951,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:1">
-      <c r="A48" s="39"/>
+    <row r="48" ht="14.25" spans="1:1">
+      <c r="A48" s="38"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3072,13 +3049,13 @@
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" spans="1:1">
-      <c r="A1" s="26" t="s">
+    <row r="1" ht="22.5" spans="1:1">
+      <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3120,34 +3097,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P167"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="M131" sqref="M131"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3796296296296" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.8796296296296" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" style="6" customWidth="1"/>
     <col min="3" max="3" width="27" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.8796296296296" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.8796296296296" style="6" customWidth="1"/>
-    <col min="6" max="6" width="36" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1296296296296" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3796296296296" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6296296296296" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="36" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.8833333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.8833333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="36" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.3833333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.6333333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="36" style="6" customWidth="1"/>
     <col min="11" max="11" width="48.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.3796296296296" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.3833333333333" style="6" customWidth="1"/>
     <col min="13" max="13" width="21.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="34.3796296296296" style="6" customWidth="1"/>
+    <col min="14" max="14" width="34.3833333333333" style="6" customWidth="1"/>
     <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="21.3796296296296" style="6" customWidth="1"/>
+    <col min="16" max="16" width="21.3833333333333" style="6" customWidth="1"/>
     <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" spans="1:1">
+    <row r="1" ht="22.5" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -4626,20 +4603,20 @@
       <c r="J56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="K56" s="18" t="s">
+      <c r="K56" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L56" s="19" t="s">
+      <c r="L56" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18" t="s">
+      <c r="M56" s="10"/>
+      <c r="N56" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="O56" s="18" t="s">
+      <c r="O56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P56" s="18" t="s">
+      <c r="P56" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4671,7 +4648,7 @@
       <c r="L57" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="N57" s="19" t="s">
         <v>188</v>
       </c>
       <c r="O57" s="6">
@@ -4695,10 +4672,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H58" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>186</v>
@@ -4709,7 +4686,7 @@
       <c r="L58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="N58" s="20"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="6">
         <v>0</v>
       </c>
@@ -4745,7 +4722,7 @@
       <c r="L59" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="N59" s="20"/>
+      <c r="N59" s="19"/>
       <c r="O59" s="6">
         <v>0</v>
       </c>
@@ -4781,7 +4758,7 @@
       <c r="L60" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="N60" s="20"/>
+      <c r="N60" s="19"/>
       <c r="O60" s="6">
         <v>0</v>
       </c>
@@ -4794,7 +4771,7 @@
         <v>197</v>
       </c>
       <c r="B61" s="6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D61" s="6">
         <v>5</v>
@@ -4829,7 +4806,7 @@
         <v>198</v>
       </c>
       <c r="B62" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="D62" s="6">
         <v>5</v>
@@ -4864,13 +4841,19 @@
         <v>199</v>
       </c>
       <c r="B63" s="6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D63" s="6">
         <v>5</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>40</v>
+      </c>
+      <c r="H63" s="6">
+        <v>60</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>186</v>
@@ -4965,14 +4948,18 @@
       <c r="B66" s="3">
         <v>700</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="6">
         <v>5</v>
       </c>
       <c r="F66" s="6">
         <v>0</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="G66" s="6">
+        <v>100</v>
+      </c>
+      <c r="H66" s="6">
+        <v>200</v>
+      </c>
       <c r="I66" s="6" t="s">
         <v>186</v>
       </c>
@@ -5000,7 +4987,7 @@
         <v>5000</v>
       </c>
       <c r="D67" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67" s="6">
         <v>20</v>
@@ -5038,7 +5025,7 @@
         <v>207</v>
       </c>
       <c r="B68" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D68" s="6">
         <v>5</v>
@@ -5061,7 +5048,7 @@
       <c r="L68" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N68" s="20" t="s">
+      <c r="N68" s="19" t="s">
         <v>209</v>
       </c>
       <c r="O68" s="6">
@@ -5076,7 +5063,7 @@
         <v>211</v>
       </c>
       <c r="B69" s="6">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="D69" s="6">
         <v>5</v>
@@ -5099,7 +5086,7 @@
       <c r="L69" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N69" s="20"/>
+      <c r="N69" s="19"/>
       <c r="O69" s="6">
         <v>1</v>
       </c>
@@ -5135,7 +5122,7 @@
       <c r="L70" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="19"/>
       <c r="O70" s="6">
         <v>1</v>
       </c>
@@ -5283,9 +5270,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" ht="15" customHeight="1" spans="1:16">
       <c r="A75" s="6" t="s">
         <v>225</v>
+      </c>
+      <c r="D75" s="6">
+        <v>5</v>
       </c>
       <c r="F75" s="6">
         <v>0</v>
@@ -5319,6 +5309,12 @@
       <c r="F76" s="6">
         <v>0</v>
       </c>
+      <c r="G76" s="6">
+        <v>80</v>
+      </c>
+      <c r="H76" s="6">
+        <v>120</v>
+      </c>
       <c r="I76" s="6" t="s">
         <v>186</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>227</v>
       </c>
       <c r="L76" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O76" s="6">
         <v>5</v>
@@ -5343,7 +5339,7 @@
         <v>228</v>
       </c>
       <c r="B77" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D77" s="6">
         <v>5</v>
@@ -5381,7 +5377,7 @@
         <v>230</v>
       </c>
       <c r="B78" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D78" s="6">
         <v>5</v>
@@ -5414,7 +5410,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" ht="14" customHeight="1" spans="1:16">
       <c r="A79" s="4" t="s">
         <v>232</v>
       </c>
@@ -5583,7 +5579,7 @@
         <v>243</v>
       </c>
       <c r="B83" s="6">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>244</v>
@@ -5624,7 +5620,7 @@
         <v>247</v>
       </c>
       <c r="B84" s="6">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>248</v>
@@ -5706,7 +5702,7 @@
         <v>254</v>
       </c>
       <c r="B86" s="6">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>255</v>
@@ -5747,7 +5743,7 @@
         <v>257</v>
       </c>
       <c r="B87" s="6">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>258</v>
@@ -5829,7 +5825,7 @@
         <v>265</v>
       </c>
       <c r="B89" s="6">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>266</v>
@@ -5875,7 +5871,7 @@
       <c r="C90" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="6">
         <v>5</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -5914,12 +5910,12 @@
         <v>272</v>
       </c>
       <c r="B91" s="4">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="6">
         <v>5</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5958,7 +5954,7 @@
         <v>275</v>
       </c>
       <c r="B92" s="6">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>276</v>
@@ -6004,6 +6000,12 @@
       <c r="D93" s="6">
         <v>5</v>
       </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
+        <v>20</v>
+      </c>
       <c r="K93" s="6" t="s">
         <v>279</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" ht="12" customHeight="1" spans="1:13">
       <c r="A94" s="6" t="s">
         <v>280</v>
       </c>
@@ -6024,6 +6026,12 @@
       <c r="D94" s="6">
         <v>10</v>
       </c>
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6">
+        <v>40</v>
+      </c>
       <c r="K94" s="6" t="s">
         <v>281</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:8">
       <c r="A95" s="6" t="s">
         <v>282</v>
       </c>
@@ -6044,8 +6052,14 @@
       <c r="D95" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="G95" s="6">
+        <v>5</v>
+      </c>
+      <c r="H95" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="6" t="s">
         <v>283</v>
       </c>
@@ -6055,8 +6069,14 @@
       <c r="D96" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="G96" s="6">
+        <v>10</v>
+      </c>
+      <c r="H96" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
         <v>284</v>
       </c>
@@ -6066,8 +6086,14 @@
       <c r="D97" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="G97" s="6">
+        <v>20</v>
+      </c>
+      <c r="H97" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="6" t="s">
         <v>285</v>
       </c>
@@ -6077,30 +6103,48 @@
       <c r="D98" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="G98" s="6">
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="6" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="6">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D99" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="6" t="s">
         <v>282</v>
       </c>
       <c r="B100" s="6">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D100" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="G100" s="6">
+        <v>5</v>
+      </c>
+      <c r="H100" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="6" t="s">
         <v>283</v>
       </c>
@@ -6110,8 +6154,14 @@
       <c r="D101" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="G101" s="6">
+        <v>10</v>
+      </c>
+      <c r="H101" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="6" t="s">
         <v>284</v>
       </c>
@@ -6120,6 +6170,12 @@
       </c>
       <c r="D102" s="6">
         <v>25</v>
+      </c>
+      <c r="G102" s="6">
+        <v>20</v>
+      </c>
+      <c r="H102" s="6">
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -6143,10 +6199,10 @@
       </c>
     </row>
     <row r="104" s="5" customFormat="1" spans="1:2">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B104" s="21"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="17" t="s">
@@ -6198,15 +6254,15 @@
       <c r="A107" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
     </row>
     <row r="108" ht="47.1" customHeight="1" spans="1:2">
       <c r="A108" s="6" t="s">
@@ -6223,7 +6279,7 @@
     </row>
     <row r="110" ht="50.1" customHeight="1"/>
     <row r="111" spans="1:7">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="20" t="s">
         <v>304</v>
       </c>
       <c r="B111" s="10" t="s">
@@ -6375,7 +6431,7 @@
         <v>128</v>
       </c>
       <c r="B125" s="6">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>324</v>
@@ -6574,7 +6630,6 @@
       <c r="C132" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D132" s="6"/>
       <c r="H132" s="6" t="s">
         <v>80</v>
       </c>
@@ -6716,41 +6771,50 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="B143" s="6">
+        <v>180</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B144" s="6">
+        <v>240</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B144" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="B145" s="6">
         <v>90</v>
       </c>
-      <c r="H145" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="6" t="s">
-        <v>146</v>
+        <v>367</v>
       </c>
       <c r="B146" s="6">
         <v>90</v>
       </c>
+      <c r="H146" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B147" s="6">
         <v>90</v>
@@ -6758,85 +6822,93 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B148" s="6">
+      <c r="C149" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B149" s="6">
+    <row r="150" spans="1:3">
+      <c r="A150" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C150" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="155" spans="8:8">
-      <c r="H155" s="6" t="s">
+    <row r="156" spans="8:8">
+      <c r="H156" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="156" ht="20.4" spans="1:1">
-      <c r="A156" s="22" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="6" t="s">
-        <v>368</v>
+    <row r="157" ht="20.25" spans="1:1">
+      <c r="A157" s="21" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="159" ht="17.1" customHeight="1" spans="1:1">
-      <c r="A159" s="23" t="s">
+      <c r="A158" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="6" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="22" t="s">
         <v>371</v>
       </c>
     </row>
+    <row r="160" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A160" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="24" t="s">
-        <v>372</v>
+      <c r="A161" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="6" t="s">
-        <v>373</v>
+      <c r="A162" s="23" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="24" t="s">
-        <v>375</v>
+      <c r="A164" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="25" t="s">
-        <v>376</v>
+      <c r="A165" s="23" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="8" t="s">
+      <c r="A166" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="B167" s="8"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6854,8 +6926,8 @@
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="B117:G117"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A168:B168"/>
     <mergeCell ref="N57:N60"/>
     <mergeCell ref="N68:N70"/>
   </mergeCells>
@@ -6874,7 +6946,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="393">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -1004,10 +1004,13 @@
     <t>竖墙1级</t>
   </si>
   <si>
+    <t>驻兵塔</t>
+  </si>
+  <si>
     <t>门</t>
   </si>
   <si>
-    <t>石们</t>
+    <t>石门</t>
   </si>
   <si>
     <t>僵尸建筑</t>
@@ -1151,9 +1154,6 @@
     <t>防御塔（加固石）</t>
   </si>
   <si>
-    <t>僵尸主管</t>
-  </si>
-  <si>
     <t>71/850</t>
   </si>
   <si>
@@ -1163,9 +1163,6 @@
     <t>弩箭塔</t>
   </si>
   <si>
-    <t>胖子僵尸的老爹</t>
-  </si>
-  <si>
     <t>121/950</t>
   </si>
   <si>
@@ -1178,9 +1175,6 @@
     <t>弩箭塔（石）</t>
   </si>
   <si>
-    <t>胖子僵尸的老哥</t>
-  </si>
-  <si>
     <t>171/1000</t>
   </si>
   <si>
@@ -1251,6 +1245,48 @@
   </si>
   <si>
     <t>高级渔场</t>
+  </si>
+  <si>
+    <t>刷僵尸选房子</t>
+  </si>
+  <si>
+    <t>1-10天</t>
+  </si>
+  <si>
+    <t>11 — 20</t>
+  </si>
+  <si>
+    <t>21 - 30</t>
+  </si>
+  <si>
+    <t>31 - 40</t>
+  </si>
+  <si>
+    <t>41 - 50</t>
+  </si>
+  <si>
+    <t>51 -  60</t>
+  </si>
+  <si>
+    <t>61 - 70</t>
+  </si>
+  <si>
+    <t>71 - 80</t>
+  </si>
+  <si>
+    <t>1级房子</t>
+  </si>
+  <si>
+    <t>2级房子</t>
+  </si>
+  <si>
+    <t>3级房子</t>
+  </si>
+  <si>
+    <t>4级房子</t>
+  </si>
+  <si>
+    <t>僵尸每日上限</t>
   </si>
   <si>
     <t>待实现</t>
@@ -1342,9 +1378,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1414,35 +1450,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1450,14 +1457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,24 +1471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,9 +1502,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,18 +1585,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1620,25 +1656,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,79 +1722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,7 +1752,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,31 +1806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,16 +1833,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1820,26 +1874,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,30 +1929,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1901,10 +1937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1913,133 +1949,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3097,10 +3133,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P168"/>
+  <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6000,6 +6036,9 @@
       <c r="D93" s="6">
         <v>5</v>
       </c>
+      <c r="F93" s="6">
+        <v>0</v>
+      </c>
       <c r="G93" s="6">
         <v>0</v>
       </c>
@@ -6026,6 +6065,9 @@
       <c r="D94" s="6">
         <v>10</v>
       </c>
+      <c r="F94" s="6">
+        <v>0</v>
+      </c>
       <c r="G94" s="6">
         <v>0</v>
       </c>
@@ -6052,6 +6094,9 @@
       <c r="D95" s="6">
         <v>15</v>
       </c>
+      <c r="F95" s="6">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <v>5</v>
       </c>
@@ -6069,6 +6114,9 @@
       <c r="D96" s="6">
         <v>20</v>
       </c>
+      <c r="F96" s="6">
+        <v>0</v>
+      </c>
       <c r="G96" s="6">
         <v>10</v>
       </c>
@@ -6086,6 +6134,9 @@
       <c r="D97" s="6">
         <v>25</v>
       </c>
+      <c r="F97" s="6">
+        <v>0</v>
+      </c>
       <c r="G97" s="6">
         <v>20</v>
       </c>
@@ -6103,6 +6154,9 @@
       <c r="D98" s="6">
         <v>5</v>
       </c>
+      <c r="F98" s="6">
+        <v>0</v>
+      </c>
       <c r="G98" s="6">
         <v>0</v>
       </c>
@@ -6120,6 +6174,9 @@
       <c r="D99" s="6">
         <v>10</v>
       </c>
+      <c r="F99" s="6">
+        <v>0</v>
+      </c>
       <c r="G99" s="6">
         <v>0</v>
       </c>
@@ -6137,6 +6194,9 @@
       <c r="D100" s="6">
         <v>15</v>
       </c>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <v>5</v>
       </c>
@@ -6154,6 +6214,9 @@
       <c r="D101" s="6">
         <v>20</v>
       </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
       <c r="G101" s="6">
         <v>10</v>
       </c>
@@ -6171,6 +6234,9 @@
       <c r="D102" s="6">
         <v>25</v>
       </c>
+      <c r="F102" s="6">
+        <v>0</v>
+      </c>
       <c r="G102" s="6">
         <v>20</v>
       </c>
@@ -6178,123 +6244,144 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:12">
       <c r="A103" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B103" s="6">
+        <v>800</v>
+      </c>
+      <c r="D103" s="6">
+        <v>5</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0</v>
+      </c>
+      <c r="H103" s="6">
+        <v>100</v>
+      </c>
+      <c r="L103" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="6">
         <v>500</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D104" s="6">
         <v>10</v>
       </c>
-      <c r="K103" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="L103" s="6">
+      <c r="F104" s="6">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="L104" s="6">
         <v>800</v>
       </c>
-      <c r="M103" s="6">
+      <c r="M104" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:2">
-      <c r="A104" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B104" s="20"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="17" t="s">
+    <row r="105" s="5" customFormat="1" spans="1:2">
+      <c r="A105" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="10" t="s">
+      <c r="B106" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="J106" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="M105" s="10" t="s">
+      <c r="K106" s="10" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="106" ht="60" customHeight="1" spans="1:13">
-      <c r="A106" s="6" t="s">
+      <c r="M106" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B106" s="6" t="s">
+    </row>
+    <row r="107" ht="60" customHeight="1" spans="1:13">
+      <c r="A107" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="B107" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="I107" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K106" s="6">
+      <c r="J107" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K107" s="6">
         <v>2</v>
       </c>
-      <c r="M106" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="107" ht="57" customHeight="1" spans="1:8">
-      <c r="A107" s="6" t="s">
+      <c r="M107" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B107" s="19" t="s">
+    </row>
+    <row r="108" ht="57" customHeight="1" spans="1:8">
+      <c r="A108" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-    </row>
-    <row r="108" ht="47.1" customHeight="1" spans="1:2">
-      <c r="A108" s="6" t="s">
+      <c r="B108" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+    </row>
+    <row r="109" ht="47.1" customHeight="1" spans="1:2">
+      <c r="A109" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="109" ht="50.1" customHeight="1" spans="1:1">
-      <c r="A109" s="6" t="s">
+      <c r="B109" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="110" ht="50.1" customHeight="1"/>
-    <row r="111" spans="1:7">
-      <c r="A111" s="20" t="s">
+    <row r="110" ht="50.1" customHeight="1" spans="1:1">
+      <c r="A110" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B111" s="10" t="s">
+    </row>
+    <row r="111" ht="50.1" customHeight="1"/>
+    <row r="112" spans="1:7">
+      <c r="A112" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>306</v>
       </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="10" t="s">
@@ -6326,95 +6413,57 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="16" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="10" t="s">
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C121" s="10" t="s">
+      <c r="B122" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="C122" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="D122" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H121" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="L121" s="6" t="s">
+      <c r="K122" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="M121" s="6" t="s">
+      <c r="L122" s="6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="8:8">
-      <c r="H122" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B123" s="6">
-        <v>60</v>
-      </c>
-      <c r="C123" s="6" t="s">
+      <c r="M122" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1200</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K123" s="6">
-        <v>5</v>
-      </c>
-      <c r="L123" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="M123" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B124" s="6">
         <v>60</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D124" s="6">
-        <v>2</v>
+        <v>321</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="E124" s="6">
-        <v>2500</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>69</v>
+        <v>1200</v>
       </c>
       <c r="K124" s="6">
         <v>5</v>
@@ -6428,25 +6477,25 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="6" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="B125" s="6">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="C125" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" s="6">
+        <v>2</v>
+      </c>
+      <c r="E125" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K125" s="6">
+        <v>5</v>
+      </c>
+      <c r="L125" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="D125" s="6">
-        <v>3</v>
-      </c>
-      <c r="E125" s="6">
-        <v>4400</v>
-      </c>
-      <c r="K125" s="6">
-        <v>5</v>
-      </c>
-      <c r="L125" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>267</v>
@@ -6454,28 +6503,25 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" s="6">
         <v>300</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D126" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D126" s="6">
+        <v>3</v>
+      </c>
+      <c r="E126" s="6">
+        <v>4400</v>
+      </c>
+      <c r="K126" s="6">
+        <v>5</v>
+      </c>
+      <c r="L126" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="E126" s="6">
-        <v>680</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K126" s="6">
-        <v>5</v>
-      </c>
-      <c r="L126" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>267</v>
@@ -6483,22 +6529,25 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="6">
+        <v>300</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E127" s="6">
+        <v>680</v>
+      </c>
+      <c r="K127" s="6">
+        <v>5</v>
+      </c>
+      <c r="L127" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K127" s="6">
-        <v>5</v>
-      </c>
-      <c r="L127" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>267</v>
@@ -6506,28 +6555,19 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K128" s="6">
+        <v>5</v>
+      </c>
+      <c r="L128" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B128" s="6">
-        <v>300</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E128" s="6">
-        <v>1900</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K128" s="6">
-        <v>5</v>
-      </c>
-      <c r="L128" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="M128" s="6" t="s">
         <v>267</v>
@@ -6535,28 +6575,25 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="6" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="B129" s="6">
         <v>300</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1900</v>
+      </c>
+      <c r="K129" s="6">
+        <v>5</v>
+      </c>
+      <c r="L129" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="E129" s="6">
-        <v>3300</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="K129" s="6">
-        <v>5</v>
-      </c>
-      <c r="L129" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>267</v>
@@ -6564,257 +6601,248 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="6" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="B130" s="6">
         <v>300</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E130" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>339</v>
+        <v>3300</v>
       </c>
       <c r="K130" s="6">
         <v>5</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B131" s="6">
         <v>300</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E131" s="6">
-        <v>1700</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>344</v>
+        <v>1000</v>
       </c>
       <c r="K131" s="6">
         <v>5</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B132" s="6">
         <v>300</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K132" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>341</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E132" s="6">
+        <v>1700</v>
+      </c>
+      <c r="K132" s="6">
+        <v>5</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B133" s="6">
         <v>300</v>
       </c>
       <c r="C133" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="6">
+        <v>300</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E134" s="6">
+        <v>4000</v>
+      </c>
+      <c r="K134" s="6">
+        <v>5</v>
+      </c>
+      <c r="L134" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D133" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E133" s="6">
-        <v>4000</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K133" s="6">
-        <v>5</v>
-      </c>
-      <c r="L133" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="M133" s="6" t="s">
+      <c r="M134" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="6" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B135" s="6">
         <v>240</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="6" t="s">
+      <c r="C135" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B135" s="6">
-        <v>300</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="B136" s="6">
         <v>300</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>102</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="B137" s="6">
         <v>300</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B138" s="6">
         <v>300</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>354</v>
+      </c>
+      <c r="B139" s="6">
+        <v>300</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B140" s="6">
-        <v>30</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B141" s="6">
         <v>30</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B142" s="6">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B143" s="6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B144" s="6">
+        <v>180</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" s="6">
         <v>240</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="6" t="s">
+      <c r="C145" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B145" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="B146" s="6">
         <v>90</v>
       </c>
-      <c r="H146" s="6" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>146</v>
+        <v>365</v>
       </c>
       <c r="B147" s="6">
         <v>90</v>
@@ -6822,112 +6850,265 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B148" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C149" s="6">
-        <v>1000</v>
+        <v>152</v>
+      </c>
+      <c r="B149" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="6">
+        <v>180</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="6">
+        <v>180</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C150" s="6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="156" spans="8:8">
-      <c r="H156" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="157" ht="20.25" spans="1:1">
-      <c r="A157" s="21" t="s">
+      <c r="C153" s="12" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="D153" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B154" s="6">
+        <v>6</v>
+      </c>
+      <c r="C154" s="6">
+        <v>3</v>
+      </c>
+      <c r="D154" s="6">
+        <v>2</v>
+      </c>
+      <c r="E154" s="6">
+        <v>2</v>
+      </c>
+      <c r="F154" s="6">
+        <v>1</v>
+      </c>
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
+      <c r="H154" s="6">
+        <v>1</v>
+      </c>
+      <c r="I154" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C155" s="6">
+        <v>3</v>
+      </c>
+      <c r="D155" s="6">
+        <v>4</v>
+      </c>
+      <c r="E155" s="6">
+        <v>2</v>
+      </c>
+      <c r="F155" s="6">
+        <v>2</v>
+      </c>
+      <c r="G155" s="6">
+        <v>2</v>
+      </c>
+      <c r="H155" s="6">
+        <v>1</v>
+      </c>
+      <c r="I155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E156" s="6">
+        <v>2</v>
+      </c>
+      <c r="F156" s="6">
+        <v>3</v>
+      </c>
+      <c r="G156" s="6">
+        <v>4</v>
+      </c>
+      <c r="H156" s="6">
+        <v>4</v>
+      </c>
+      <c r="I156" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H157" s="6">
+        <v>2</v>
+      </c>
+      <c r="I157" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="160" ht="17.1" customHeight="1" spans="1:1">
-      <c r="A160" s="22" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="B158" s="6">
+        <v>300</v>
+      </c>
+      <c r="C158" s="6">
+        <v>300</v>
+      </c>
+      <c r="D158" s="6">
+        <v>300</v>
+      </c>
+      <c r="E158" s="6">
+        <v>300</v>
+      </c>
+      <c r="F158" s="6">
+        <v>360</v>
+      </c>
+      <c r="G158" s="6">
+        <v>360</v>
+      </c>
+      <c r="H158" s="6">
+        <v>420</v>
+      </c>
+      <c r="I158" s="6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" ht="20.25" spans="1:1">
+      <c r="A159" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="23" t="s">
-        <v>374</v>
+      <c r="A161" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="162" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A162" s="22" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="6" t="s">
-        <v>376</v>
+      <c r="A164" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="23" t="s">
-        <v>377</v>
+      <c r="A165" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="24" t="s">
-        <v>378</v>
+      <c r="A166" s="6" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B168" s="8"/>
+      <c r="A167" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B170" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="A105:B105"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B107:H107"/>
     <mergeCell ref="B108:H108"/>
     <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B110:H110"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B113:G113"/>
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="B117:G117"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A170:B170"/>
     <mergeCell ref="N57:N60"/>
     <mergeCell ref="N68:N70"/>
   </mergeCells>

--- a/丧失狂潮策划案.xlsx
+++ b/丧失狂潮策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="402">
   <si>
     <t>丧尸狂潮</t>
   </si>
@@ -1372,6 +1372,33 @@
   <si>
     <t>11、混混老大 蜜汁咆哮</t>
   </si>
+  <si>
+    <t>八方风雨</t>
+  </si>
+  <si>
+    <t>沧澜</t>
+  </si>
+  <si>
+    <t>折花</t>
+  </si>
+  <si>
+    <t>云落星辰</t>
+  </si>
+  <si>
+    <t>星光</t>
+  </si>
+  <si>
+    <t>飞鸟</t>
+  </si>
+  <si>
+    <t>惊鸿</t>
+  </si>
+  <si>
+    <t>夜雨琼鸣</t>
+  </si>
+  <si>
+    <t>夜雀连渊</t>
+  </si>
 </sst>
 </file>
 
@@ -1379,11 +1406,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1422,6 +1449,14 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1449,8 +1484,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,9 +1499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,54 +1513,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1561,9 +1550,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,6 +1617,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1656,13 +1691,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,55 +1721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,25 +1751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,19 +1763,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,25 +1823,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,6 +1864,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1850,15 +1933,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1867,8 +1941,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1888,47 +1964,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1937,10 +1972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1949,19 +1984,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1970,116 +2005,116 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2155,25 +2190,28 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2194,7 +2232,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2790,12 +2828,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2810,12 +2848,12 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2830,56 +2868,56 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
     </row>
     <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
     </row>
     <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2889,16 +2927,16 @@
       </c>
     </row>
     <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
@@ -2911,28 +2949,28 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
     </row>
     <row r="28" ht="63.95" customHeight="1" spans="1:1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="51.95" customHeight="1" spans="1:9">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:1">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2942,43 +2980,43 @@
       </c>
     </row>
     <row r="33" ht="67.5" spans="1:1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
     </row>
     <row r="36" ht="67.5" spans="1:1">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:1">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="26" customFormat="1" spans="1:1">
-      <c r="A42" s="26" t="s">
+    <row r="42" s="27" customFormat="1" spans="1:1">
+      <c r="A42" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2988,20 +3026,20 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="38"/>
+      <c r="A48" s="39"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" ht="39" customHeight="1" spans="1:1">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3091,7 +3129,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3133,10 +3171,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P170"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7090,6 +7128,51 @@
         <v>392</v>
       </c>
       <c r="B170" s="8"/>
+    </row>
+    <row r="173" ht="18.75" spans="1:1">
+      <c r="A173" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="6" t="s">
+        <v>401</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
